--- a/name/vnindex/20221213/VNINDEX_HOSE_5p_20221213.xlsx
+++ b/name/vnindex/20221213/VNINDEX_HOSE_5p_20221213.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:P126"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -463,7 +463,7 @@
         <v>400</v>
       </c>
       <c r="D2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -472,22 +472,22 @@
         <v>4040000</v>
       </c>
       <c r="G2">
-        <v>10100000</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="I2">
-        <v>14140000</v>
+        <v>4040000</v>
       </c>
       <c r="J2" t="str">
         <v>2022-12-13T09:00:00.000Z</v>
       </c>
       <c r="K2">
-        <v>14140000</v>
+        <v>4040000</v>
       </c>
       <c r="L2">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="M2">
         <v>400</v>
@@ -504,2557 +504,6207 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>1670922900000</v>
+        <v>1670922120000</v>
       </c>
       <c r="B3">
-        <v>11059900</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>10144000</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>18866700</v>
+        <v>1000</v>
       </c>
       <c r="E3">
-        <v>177179551000</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>167546000000</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>326687441000</v>
+        <v>10100000</v>
       </c>
       <c r="H3">
-        <v>40070600</v>
+        <v>1000</v>
       </c>
       <c r="I3">
-        <v>671412992000</v>
+        <v>10100000</v>
       </c>
       <c r="J3" t="str">
-        <v>2022-12-13T09:15:00.000Z</v>
+        <v>2022-12-13T09:02:00.000Z</v>
       </c>
       <c r="K3">
-        <v>671427132000</v>
+        <v>14140000</v>
       </c>
       <c r="L3">
-        <v>40072000</v>
+        <v>1400</v>
       </c>
       <c r="M3">
-        <v>-915900</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>-9633551000</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-915500</v>
+        <v>400</v>
       </c>
       <c r="P3">
-        <v>-9629511000</v>
+        <v>4040000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1670923200000</v>
+        <v>1670922840000</v>
       </c>
       <c r="B4">
-        <v>13592800</v>
+        <v>3196200</v>
       </c>
       <c r="C4">
-        <v>5572300</v>
+        <v>2823200</v>
       </c>
       <c r="D4">
-        <v>291800</v>
+        <v>18741400</v>
       </c>
       <c r="E4">
-        <v>211352031000</v>
+        <v>46507218000</v>
       </c>
       <c r="F4">
-        <v>89422648000</v>
+        <v>49712881000</v>
       </c>
       <c r="G4">
-        <v>3969151000</v>
+        <v>324848624000</v>
       </c>
       <c r="H4">
-        <v>19456900</v>
+        <v>24760800</v>
       </c>
       <c r="I4">
-        <v>304743830000</v>
+        <v>421068723000</v>
       </c>
       <c r="J4" t="str">
-        <v>2022-12-13T09:20:00.000Z</v>
+        <v>2022-12-13T09:14:00.000Z</v>
       </c>
       <c r="K4">
-        <v>976170962000</v>
+        <v>421082863000</v>
       </c>
       <c r="L4">
-        <v>59528900</v>
+        <v>24762200</v>
       </c>
       <c r="M4">
-        <v>-8020500</v>
+        <v>-373000</v>
       </c>
       <c r="N4">
-        <v>-121929383000</v>
+        <v>3205663000</v>
       </c>
       <c r="O4">
-        <v>-8936000</v>
+        <v>-372600</v>
       </c>
       <c r="P4">
-        <v>-131558894000</v>
+        <v>3209703000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1670923500000</v>
+        <v>1670922960000</v>
       </c>
       <c r="B5">
-        <v>10527100</v>
+        <v>3867600</v>
       </c>
       <c r="C5">
-        <v>8811700</v>
+        <v>3859100</v>
       </c>
       <c r="D5">
-        <v>100700</v>
+        <v>79600</v>
       </c>
       <c r="E5">
-        <v>163514534000</v>
+        <v>65972741000</v>
       </c>
       <c r="F5">
-        <v>147498183000</v>
+        <v>62549061000</v>
       </c>
       <c r="G5">
-        <v>1387637000</v>
+        <v>1101736000</v>
       </c>
       <c r="H5">
-        <v>19439500</v>
+        <v>7806300</v>
       </c>
       <c r="I5">
-        <v>312400354000</v>
+        <v>129623538000</v>
       </c>
       <c r="J5" t="str">
-        <v>2022-12-13T09:25:00.000Z</v>
+        <v>2022-12-13T09:16:00.000Z</v>
       </c>
       <c r="K5">
-        <v>1288571316000</v>
+        <v>550706401000</v>
       </c>
       <c r="L5">
-        <v>78968400</v>
+        <v>32568500</v>
       </c>
       <c r="M5">
-        <v>-1715400</v>
+        <v>-8500</v>
       </c>
       <c r="N5">
-        <v>-16016351000</v>
+        <v>-3423680000</v>
       </c>
       <c r="O5">
-        <v>-10651400</v>
+        <v>-381100</v>
       </c>
       <c r="P5">
-        <v>-147575245000</v>
+        <v>-213977000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1670923800000</v>
+        <v>1670923080000</v>
       </c>
       <c r="B6">
-        <v>3953300</v>
+        <v>3996100</v>
       </c>
       <c r="C6">
-        <v>7620100</v>
+        <v>3461700</v>
       </c>
       <c r="D6">
-        <v>86500</v>
+        <v>45700</v>
       </c>
       <c r="E6">
-        <v>70171113000</v>
+        <v>64699592000</v>
       </c>
       <c r="F6">
-        <v>121738925000</v>
+        <v>55284058000</v>
       </c>
       <c r="G6">
-        <v>951812000</v>
+        <v>737081000</v>
       </c>
       <c r="H6">
-        <v>11659900</v>
+        <v>7503500</v>
       </c>
       <c r="I6">
-        <v>192861850000</v>
+        <v>120720731000</v>
       </c>
       <c r="J6" t="str">
-        <v>2022-12-13T09:30:00.000Z</v>
+        <v>2022-12-13T09:18:00.000Z</v>
       </c>
       <c r="K6">
-        <v>1481433166000</v>
+        <v>671427132000</v>
       </c>
       <c r="L6">
-        <v>90628300</v>
+        <v>40072000</v>
       </c>
       <c r="M6">
-        <v>3666800</v>
+        <v>-534400</v>
       </c>
       <c r="N6">
-        <v>51567812000</v>
+        <v>-9415534000</v>
       </c>
       <c r="O6">
-        <v>-6984600</v>
+        <v>-915500</v>
       </c>
       <c r="P6">
-        <v>-96007433000</v>
+        <v>-9629511000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1670924100000</v>
+        <v>1670923200000</v>
       </c>
       <c r="B7">
-        <v>6198600</v>
+        <v>3711100</v>
       </c>
       <c r="C7">
-        <v>3803000</v>
+        <v>2680700</v>
       </c>
       <c r="D7">
-        <v>78000</v>
+        <v>59700</v>
       </c>
       <c r="E7">
-        <v>98111653000</v>
+        <v>55270255000</v>
       </c>
       <c r="F7">
-        <v>63302568000</v>
+        <v>42497110000</v>
       </c>
       <c r="G7">
-        <v>1064935000</v>
+        <v>892517000</v>
       </c>
       <c r="H7">
-        <v>10079600</v>
+        <v>6451500</v>
       </c>
       <c r="I7">
-        <v>162479156000</v>
+        <v>98659882000</v>
       </c>
       <c r="J7" t="str">
-        <v>2022-12-13T09:35:00.000Z</v>
+        <v>2022-12-13T09:20:00.000Z</v>
       </c>
       <c r="K7">
-        <v>1643912322000</v>
+        <v>770087014000</v>
       </c>
       <c r="L7">
-        <v>100707900</v>
+        <v>46523500</v>
       </c>
       <c r="M7">
-        <v>-2395600</v>
+        <v>-1030400</v>
       </c>
       <c r="N7">
-        <v>-34809085000</v>
+        <v>-12773145000</v>
       </c>
       <c r="O7">
-        <v>-9380200</v>
+        <v>-1945900</v>
       </c>
       <c r="P7">
-        <v>-130816518000</v>
+        <v>-22402656000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1670924400000</v>
+        <v>1670923320000</v>
       </c>
       <c r="B8">
-        <v>3504800</v>
+        <v>5773000</v>
       </c>
       <c r="C8">
-        <v>5507900</v>
+        <v>1899900</v>
       </c>
       <c r="D8">
-        <v>10600</v>
+        <v>138400</v>
       </c>
       <c r="E8">
-        <v>51409501000</v>
+        <v>89529153000</v>
       </c>
       <c r="F8">
-        <v>88592661000</v>
+        <v>32036489000</v>
       </c>
       <c r="G8">
-        <v>195227000</v>
+        <v>2156643000</v>
       </c>
       <c r="H8">
-        <v>9023300</v>
+        <v>7811300</v>
       </c>
       <c r="I8">
-        <v>140197389000</v>
+        <v>123722285000</v>
       </c>
       <c r="J8" t="str">
-        <v>2022-12-13T09:40:00.000Z</v>
+        <v>2022-12-13T09:22:00.000Z</v>
       </c>
       <c r="K8">
-        <v>1784109711000</v>
+        <v>893809299000</v>
       </c>
       <c r="L8">
-        <v>109731200</v>
+        <v>54334800</v>
       </c>
       <c r="M8">
-        <v>2003100</v>
+        <v>-3873100</v>
       </c>
       <c r="N8">
-        <v>37183160000</v>
+        <v>-57492664000</v>
       </c>
       <c r="O8">
-        <v>-7377100</v>
+        <v>-5819000</v>
       </c>
       <c r="P8">
-        <v>-93633358000</v>
+        <v>-79895320000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1670924700000</v>
+        <v>1670923440000</v>
       </c>
       <c r="B9">
-        <v>2734000</v>
+        <v>7544600</v>
       </c>
       <c r="C9">
-        <v>7946200</v>
+        <v>2154500</v>
       </c>
       <c r="D9">
-        <v>148300</v>
+        <v>108400</v>
       </c>
       <c r="E9">
-        <v>45845228000</v>
+        <v>119510745000</v>
       </c>
       <c r="F9">
-        <v>134721738000</v>
+        <v>33235022000</v>
       </c>
       <c r="G9">
-        <v>1966067000</v>
+        <v>1099871000</v>
       </c>
       <c r="H9">
-        <v>10828500</v>
+        <v>9807500</v>
       </c>
       <c r="I9">
-        <v>182533033000</v>
+        <v>153845638000</v>
       </c>
       <c r="J9" t="str">
-        <v>2022-12-13T09:45:00.000Z</v>
+        <v>2022-12-13T09:24:00.000Z</v>
       </c>
       <c r="K9">
-        <v>1966642744000</v>
+        <v>1047654937000</v>
       </c>
       <c r="L9">
-        <v>120559700</v>
+        <v>64142300</v>
       </c>
       <c r="M9">
-        <v>5212200</v>
+        <v>-5390100</v>
       </c>
       <c r="N9">
-        <v>88876510000</v>
+        <v>-86275723000</v>
       </c>
       <c r="O9">
-        <v>-2164900</v>
+        <v>-11209100</v>
       </c>
       <c r="P9">
-        <v>-4756848000</v>
+        <v>-166171043000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1670925000000</v>
+        <v>1670923560000</v>
       </c>
       <c r="B10">
-        <v>5769400</v>
+        <v>5007100</v>
       </c>
       <c r="C10">
-        <v>8093200</v>
+        <v>3717600</v>
       </c>
       <c r="D10">
-        <v>66200</v>
+        <v>45300</v>
       </c>
       <c r="E10">
-        <v>99769738000</v>
+        <v>77464762000</v>
       </c>
       <c r="F10">
-        <v>120386778000</v>
+        <v>64290915000</v>
       </c>
       <c r="G10">
-        <v>943444000</v>
+        <v>694577000</v>
       </c>
       <c r="H10">
-        <v>13928800</v>
+        <v>8770000</v>
       </c>
       <c r="I10">
-        <v>221099960000</v>
+        <v>142450254000</v>
       </c>
       <c r="J10" t="str">
-        <v>2022-12-13T09:50:00.000Z</v>
+        <v>2022-12-13T09:26:00.000Z</v>
       </c>
       <c r="K10">
-        <v>2187742704000</v>
+        <v>1190105191000</v>
       </c>
       <c r="L10">
-        <v>134488500</v>
+        <v>72912300</v>
       </c>
       <c r="M10">
-        <v>2323800</v>
+        <v>-1289500</v>
       </c>
       <c r="N10">
-        <v>20617040000</v>
+        <v>-13173847000</v>
       </c>
       <c r="O10">
-        <v>158900</v>
+        <v>-12498600</v>
       </c>
       <c r="P10">
-        <v>15860192000</v>
+        <v>-179344890000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1670925300000</v>
+        <v>1670923680000</v>
       </c>
       <c r="B11">
-        <v>15020800</v>
+        <v>2084100</v>
       </c>
       <c r="C11">
-        <v>4737400</v>
+        <v>3931300</v>
       </c>
       <c r="D11">
-        <v>210200</v>
+        <v>40700</v>
       </c>
       <c r="E11">
-        <v>252078796000</v>
+        <v>33091650000</v>
       </c>
       <c r="F11">
-        <v>73533091000</v>
+        <v>64861295000</v>
       </c>
       <c r="G11">
-        <v>3202721000</v>
+        <v>513180000</v>
       </c>
       <c r="H11">
-        <v>19968400</v>
+        <v>6056100</v>
       </c>
       <c r="I11">
-        <v>328814608000</v>
+        <v>98466125000</v>
       </c>
       <c r="J11" t="str">
-        <v>2022-12-13T09:55:00.000Z</v>
+        <v>2022-12-13T09:28:00.000Z</v>
       </c>
       <c r="K11">
-        <v>2516557312000</v>
+        <v>1288571316000</v>
       </c>
       <c r="L11">
-        <v>154456900</v>
+        <v>78968400</v>
       </c>
       <c r="M11">
-        <v>-10283400</v>
+        <v>1847200</v>
       </c>
       <c r="N11">
-        <v>-178545705000</v>
+        <v>31769645000</v>
       </c>
       <c r="O11">
-        <v>-10124500</v>
+        <v>-10651400</v>
       </c>
       <c r="P11">
-        <v>-162685513000</v>
+        <v>-147575245000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1670925600000</v>
+        <v>1670923800000</v>
       </c>
       <c r="B12">
-        <v>9450700</v>
+        <v>1486600</v>
       </c>
       <c r="C12">
-        <v>6000900</v>
+        <v>3675800</v>
       </c>
       <c r="D12">
-        <v>38600</v>
+        <v>63700</v>
       </c>
       <c r="E12">
-        <v>142135968000</v>
+        <v>28279534000</v>
       </c>
       <c r="F12">
-        <v>105882868000</v>
+        <v>53930647000</v>
       </c>
       <c r="G12">
-        <v>831499000</v>
+        <v>658734000</v>
       </c>
       <c r="H12">
-        <v>15490200</v>
+        <v>5226100</v>
       </c>
       <c r="I12">
-        <v>248850335000</v>
+        <v>82868915000</v>
       </c>
       <c r="J12" t="str">
-        <v>2022-12-13T10:00:00.000Z</v>
+        <v>2022-12-13T09:30:00.000Z</v>
       </c>
       <c r="K12">
-        <v>2765407647000</v>
+        <v>1371440231000</v>
       </c>
       <c r="L12">
-        <v>169947100</v>
+        <v>84194500</v>
       </c>
       <c r="M12">
-        <v>-3449800</v>
+        <v>2189200</v>
       </c>
       <c r="N12">
-        <v>-36253100000</v>
+        <v>25651113000</v>
       </c>
       <c r="O12">
-        <v>-13574300</v>
+        <v>-8462200</v>
       </c>
       <c r="P12">
-        <v>-198938613000</v>
+        <v>-121924132000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1670925900000</v>
+        <v>1670923920000</v>
       </c>
       <c r="B13">
-        <v>3511600</v>
+        <v>1622500</v>
       </c>
       <c r="C13">
-        <v>4045500</v>
+        <v>2935300</v>
       </c>
       <c r="D13">
-        <v>21200</v>
+        <v>19900</v>
       </c>
       <c r="E13">
-        <v>57471840000</v>
+        <v>27931924000</v>
       </c>
       <c r="F13">
-        <v>74163202000</v>
+        <v>51417372000</v>
       </c>
       <c r="G13">
-        <v>271260000</v>
+        <v>283403000</v>
       </c>
       <c r="H13">
-        <v>7578300</v>
+        <v>4577700</v>
       </c>
       <c r="I13">
-        <v>131906302000</v>
+        <v>79632699000</v>
       </c>
       <c r="J13" t="str">
-        <v>2022-12-13T10:05:00.000Z</v>
+        <v>2022-12-13T09:32:00.000Z</v>
       </c>
       <c r="K13">
-        <v>2897313949000</v>
+        <v>1451072930000</v>
       </c>
       <c r="L13">
-        <v>177525400</v>
+        <v>88772200</v>
       </c>
       <c r="M13">
-        <v>533900</v>
+        <v>1312800</v>
       </c>
       <c r="N13">
-        <v>16691362000</v>
+        <v>23485448000</v>
       </c>
       <c r="O13">
-        <v>-13040400</v>
+        <v>-7149400</v>
       </c>
       <c r="P13">
-        <v>-182247251000</v>
+        <v>-98438684000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1670926200000</v>
+        <v>1670924040000</v>
       </c>
       <c r="B14">
-        <v>2896600</v>
+        <v>2070700</v>
       </c>
       <c r="C14">
-        <v>6351700</v>
+        <v>2188200</v>
       </c>
       <c r="D14">
-        <v>12000</v>
+        <v>3400</v>
       </c>
       <c r="E14">
-        <v>52280037000</v>
+        <v>34250503000</v>
       </c>
       <c r="F14">
-        <v>107984583000</v>
+        <v>35679172000</v>
       </c>
       <c r="G14">
-        <v>226815000</v>
+        <v>17325000</v>
       </c>
       <c r="H14">
-        <v>9260300</v>
+        <v>4262300</v>
       </c>
       <c r="I14">
-        <v>160491435000</v>
+        <v>69947000000</v>
       </c>
       <c r="J14" t="str">
-        <v>2022-12-13T10:10:00.000Z</v>
+        <v>2022-12-13T09:34:00.000Z</v>
       </c>
       <c r="K14">
-        <v>3057805384000</v>
+        <v>1521019930000</v>
       </c>
       <c r="L14">
-        <v>186785700</v>
+        <v>93034500</v>
       </c>
       <c r="M14">
-        <v>3455100</v>
+        <v>117500</v>
       </c>
       <c r="N14">
-        <v>55704546000</v>
+        <v>1428669000</v>
       </c>
       <c r="O14">
-        <v>-9585300</v>
+        <v>-7031900</v>
       </c>
       <c r="P14">
-        <v>-126542705000</v>
+        <v>-97010015000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1670926500000</v>
+        <v>1670924160000</v>
       </c>
       <c r="B15">
-        <v>6887600</v>
+        <v>2698000</v>
       </c>
       <c r="C15">
-        <v>2780800</v>
+        <v>1240800</v>
       </c>
       <c r="D15">
-        <v>77400</v>
+        <v>35500</v>
       </c>
       <c r="E15">
-        <v>119589296000</v>
+        <v>41421586000</v>
       </c>
       <c r="F15">
-        <v>47232438000</v>
+        <v>19386406000</v>
       </c>
       <c r="G15">
-        <v>1116252000</v>
+        <v>688556000</v>
       </c>
       <c r="H15">
-        <v>9745800</v>
+        <v>3974300</v>
       </c>
       <c r="I15">
-        <v>167937986000</v>
+        <v>61496548000</v>
       </c>
       <c r="J15" t="str">
-        <v>2022-12-13T10:15:00.000Z</v>
+        <v>2022-12-13T09:36:00.000Z</v>
       </c>
       <c r="K15">
-        <v>3225743370000</v>
+        <v>1582516478000</v>
       </c>
       <c r="L15">
-        <v>196531500</v>
+        <v>97008800</v>
       </c>
       <c r="M15">
-        <v>-4106800</v>
+        <v>-1457200</v>
       </c>
       <c r="N15">
-        <v>-72356858000</v>
+        <v>-22035180000</v>
       </c>
       <c r="O15">
-        <v>-13692100</v>
+        <v>-8489100</v>
       </c>
       <c r="P15">
-        <v>-198899563000</v>
+        <v>-119045195000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1670926800000</v>
+        <v>1670924280000</v>
       </c>
       <c r="B16">
-        <v>10276300</v>
+        <v>2274100</v>
       </c>
       <c r="C16">
-        <v>2723600</v>
+        <v>1383000</v>
       </c>
       <c r="D16">
-        <v>107700</v>
+        <v>42000</v>
       </c>
       <c r="E16">
-        <v>164410158000</v>
+        <v>36399219000</v>
       </c>
       <c r="F16">
-        <v>50613407000</v>
+        <v>24627896000</v>
       </c>
       <c r="G16">
-        <v>1639198000</v>
+        <v>368729000</v>
       </c>
       <c r="H16">
-        <v>13107600</v>
+        <v>3699100</v>
       </c>
       <c r="I16">
-        <v>216662763000</v>
+        <v>61395844000</v>
       </c>
       <c r="J16" t="str">
-        <v>2022-12-13T10:20:00.000Z</v>
+        <v>2022-12-13T09:38:00.000Z</v>
       </c>
       <c r="K16">
-        <v>3442406133000</v>
+        <v>1643912322000</v>
       </c>
       <c r="L16">
-        <v>209639100</v>
+        <v>100707900</v>
       </c>
       <c r="M16">
-        <v>-7552700</v>
+        <v>-891100</v>
       </c>
       <c r="N16">
-        <v>-113796751000</v>
+        <v>-11771323000</v>
       </c>
       <c r="O16">
-        <v>-21244800</v>
+        <v>-9380200</v>
       </c>
       <c r="P16">
-        <v>-312696314000</v>
+        <v>-130816518000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1670927100000</v>
+        <v>1670924400000</v>
       </c>
       <c r="B17">
-        <v>8172000</v>
+        <v>1432400</v>
       </c>
       <c r="C17">
-        <v>4100600</v>
+        <v>2209000</v>
       </c>
       <c r="D17">
-        <v>75600</v>
+        <v>5700</v>
       </c>
       <c r="E17">
-        <v>128456715000</v>
+        <v>22334569000</v>
       </c>
       <c r="F17">
-        <v>74011126000</v>
+        <v>38931694000</v>
       </c>
       <c r="G17">
-        <v>888007000</v>
+        <v>140971000</v>
       </c>
       <c r="H17">
-        <v>12348200</v>
+        <v>3647100</v>
       </c>
       <c r="I17">
-        <v>203355848000</v>
+        <v>61407234000</v>
       </c>
       <c r="J17" t="str">
-        <v>2022-12-13T10:25:00.000Z</v>
+        <v>2022-12-13T09:40:00.000Z</v>
       </c>
       <c r="K17">
-        <v>3645761981000</v>
+        <v>1705319556000</v>
       </c>
       <c r="L17">
-        <v>221987300</v>
+        <v>104355000</v>
       </c>
       <c r="M17">
-        <v>-4071400</v>
+        <v>776600</v>
       </c>
       <c r="N17">
-        <v>-54445589000</v>
+        <v>16597125000</v>
       </c>
       <c r="O17">
-        <v>-25316200</v>
+        <v>-8603600</v>
       </c>
       <c r="P17">
-        <v>-367141903000</v>
+        <v>-114219393000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1670927400000</v>
+        <v>1670924520000</v>
       </c>
       <c r="B18">
-        <v>2763400</v>
+        <v>1396500</v>
       </c>
       <c r="C18">
-        <v>6541800</v>
+        <v>2071600</v>
       </c>
       <c r="D18">
-        <v>65700</v>
+        <v>1700</v>
       </c>
       <c r="E18">
-        <v>43954606000</v>
+        <v>19474699000</v>
       </c>
       <c r="F18">
-        <v>120133917000</v>
+        <v>32695164000</v>
       </c>
       <c r="G18">
-        <v>1350680000</v>
+        <v>10858000</v>
       </c>
       <c r="H18">
-        <v>9370900</v>
+        <v>3469800</v>
       </c>
       <c r="I18">
-        <v>165439203000</v>
+        <v>52180721000</v>
       </c>
       <c r="J18" t="str">
-        <v>2022-12-13T10:30:00.000Z</v>
+        <v>2022-12-13T09:42:00.000Z</v>
       </c>
       <c r="K18">
-        <v>3811201184000</v>
+        <v>1757500277000</v>
       </c>
       <c r="L18">
-        <v>231358200</v>
+        <v>107824800</v>
       </c>
       <c r="M18">
-        <v>3778400</v>
+        <v>675100</v>
       </c>
       <c r="N18">
-        <v>76179311000</v>
+        <v>13220465000</v>
       </c>
       <c r="O18">
-        <v>-21537800</v>
+        <v>-7928500</v>
       </c>
       <c r="P18">
-        <v>-290962592000</v>
+        <v>-100998928000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1670927700000</v>
+        <v>1670924640000</v>
       </c>
       <c r="B19">
-        <v>1696000</v>
+        <v>1415800</v>
       </c>
       <c r="C19">
-        <v>7490200</v>
+        <v>2454000</v>
       </c>
       <c r="D19">
-        <v>22800</v>
+        <v>59000</v>
       </c>
       <c r="E19">
-        <v>33401441000</v>
+        <v>23306417000</v>
       </c>
       <c r="F19">
-        <v>129259936000</v>
+        <v>39667067000</v>
       </c>
       <c r="G19">
-        <v>193675000</v>
+        <v>961851999.9999999</v>
       </c>
       <c r="H19">
-        <v>9209000</v>
+        <v>3928800</v>
       </c>
       <c r="I19">
-        <v>162855052000</v>
+        <v>63935336000</v>
       </c>
       <c r="J19" t="str">
-        <v>2022-12-13T10:35:00.000Z</v>
+        <v>2022-12-13T09:44:00.000Z</v>
       </c>
       <c r="K19">
-        <v>3974056236000</v>
+        <v>1821435613000</v>
       </c>
       <c r="L19">
-        <v>240567200</v>
+        <v>111753600</v>
       </c>
       <c r="M19">
-        <v>5794200</v>
+        <v>1038200</v>
       </c>
       <c r="N19">
-        <v>95858495000</v>
+        <v>16360650000</v>
       </c>
       <c r="O19">
-        <v>-15743600</v>
+        <v>-6890300</v>
       </c>
       <c r="P19">
-        <v>-195104097000</v>
+        <v>-84638278000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1670928000000</v>
+        <v>1670924760000</v>
       </c>
       <c r="B20">
-        <v>3143600</v>
+        <v>1111900</v>
       </c>
       <c r="C20">
-        <v>4370500</v>
+        <v>2593300</v>
       </c>
       <c r="D20">
-        <v>15600</v>
+        <v>41900</v>
       </c>
       <c r="E20">
-        <v>56794236000</v>
+        <v>18343294000</v>
       </c>
       <c r="F20">
-        <v>78090480000</v>
+        <v>45395979000</v>
       </c>
       <c r="G20">
-        <v>334996000</v>
+        <v>539266000</v>
       </c>
       <c r="H20">
-        <v>7529700</v>
+        <v>3747100</v>
       </c>
       <c r="I20">
-        <v>135219712000</v>
+        <v>64278539000</v>
       </c>
       <c r="J20" t="str">
-        <v>2022-12-13T10:40:00.000Z</v>
+        <v>2022-12-13T09:46:00.000Z</v>
       </c>
       <c r="K20">
-        <v>4109275948000</v>
+        <v>1885714152000</v>
       </c>
       <c r="L20">
-        <v>248096900</v>
+        <v>115500700</v>
       </c>
       <c r="M20">
-        <v>1226900</v>
+        <v>1481400</v>
       </c>
       <c r="N20">
-        <v>21296244000</v>
+        <v>27052685000</v>
       </c>
       <c r="O20">
-        <v>-14516700</v>
+        <v>-5408900</v>
       </c>
       <c r="P20">
-        <v>-173807853000</v>
+        <v>-57585593000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1670928300000</v>
+        <v>1670924880000</v>
       </c>
       <c r="B21">
-        <v>1686400</v>
+        <v>882200</v>
       </c>
       <c r="C21">
-        <v>4435700</v>
+        <v>4126200</v>
       </c>
       <c r="D21">
-        <v>76300</v>
+        <v>50600</v>
       </c>
       <c r="E21">
-        <v>36412499000</v>
+        <v>13795750000</v>
       </c>
       <c r="F21">
-        <v>94145003000</v>
+        <v>66624495000</v>
       </c>
       <c r="G21">
-        <v>1197387000</v>
+        <v>508347000</v>
       </c>
       <c r="H21">
-        <v>6198400</v>
+        <v>5059000</v>
       </c>
       <c r="I21">
-        <v>131754889000</v>
+        <v>80928592000</v>
       </c>
       <c r="J21" t="str">
-        <v>2022-12-13T10:45:00.000Z</v>
+        <v>2022-12-13T09:48:00.000Z</v>
       </c>
       <c r="K21">
-        <v>4241030837000</v>
+        <v>1966642744000</v>
       </c>
       <c r="L21">
-        <v>254295300</v>
+        <v>120559700</v>
       </c>
       <c r="M21">
-        <v>2749300</v>
+        <v>3244000</v>
       </c>
       <c r="N21">
-        <v>57732504000</v>
+        <v>52828745000</v>
       </c>
       <c r="O21">
-        <v>-11767400</v>
+        <v>-2164900</v>
       </c>
       <c r="P21">
-        <v>-116075349000</v>
+        <v>-4756848000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1670928600000</v>
+        <v>1670925000000</v>
       </c>
       <c r="B22">
-        <v>3833300</v>
+        <v>1365500</v>
       </c>
       <c r="C22">
-        <v>2487500</v>
+        <v>4510400</v>
       </c>
       <c r="D22">
-        <v>22400</v>
+        <v>9400</v>
       </c>
       <c r="E22">
-        <v>66593476000</v>
+        <v>24548234000</v>
       </c>
       <c r="F22">
-        <v>40212379000</v>
+        <v>67792588000</v>
       </c>
       <c r="G22">
-        <v>578650000</v>
+        <v>84256000</v>
       </c>
       <c r="H22">
-        <v>6343200</v>
+        <v>5885300</v>
       </c>
       <c r="I22">
-        <v>107384505000</v>
+        <v>92425078000</v>
       </c>
       <c r="J22" t="str">
-        <v>2022-12-13T10:50:00.000Z</v>
+        <v>2022-12-13T09:50:00.000Z</v>
       </c>
       <c r="K22">
-        <v>4348415342000</v>
+        <v>2059067822000</v>
       </c>
       <c r="L22">
-        <v>260638500</v>
+        <v>126445000</v>
       </c>
       <c r="M22">
-        <v>-1345800</v>
+        <v>3144900</v>
       </c>
       <c r="N22">
-        <v>-26381097000</v>
+        <v>43244354000</v>
       </c>
       <c r="O22">
-        <v>-13113200</v>
+        <v>980000</v>
       </c>
       <c r="P22">
-        <v>-142456446000</v>
+        <v>38487506000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1670928900000</v>
+        <v>1670925120000</v>
       </c>
       <c r="B23">
-        <v>2838200</v>
+        <v>2970000</v>
       </c>
       <c r="C23">
-        <v>1611800</v>
+        <v>2339500</v>
       </c>
       <c r="D23">
-        <v>18100</v>
+        <v>48200</v>
       </c>
       <c r="E23">
-        <v>47818346000</v>
+        <v>51468071000</v>
       </c>
       <c r="F23">
-        <v>35375303000</v>
+        <v>33109261000</v>
       </c>
       <c r="G23">
-        <v>656250000</v>
+        <v>559358000</v>
       </c>
       <c r="H23">
-        <v>4468100</v>
+        <v>5357700</v>
       </c>
       <c r="I23">
-        <v>83849899000</v>
+        <v>85136690000</v>
       </c>
       <c r="J23" t="str">
-        <v>2022-12-13T10:55:00.000Z</v>
+        <v>2022-12-13T09:52:00.000Z</v>
       </c>
       <c r="K23">
-        <v>4432265241000</v>
+        <v>2144204512000</v>
       </c>
       <c r="L23">
-        <v>265106600</v>
+        <v>131802700</v>
       </c>
       <c r="M23">
-        <v>-1226400</v>
+        <v>-630500</v>
       </c>
       <c r="N23">
-        <v>-12443043000</v>
+        <v>-18358810000</v>
       </c>
       <c r="O23">
-        <v>-14339600</v>
+        <v>349500</v>
       </c>
       <c r="P23">
-        <v>-154899489000</v>
+        <v>20128696000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1670929200000</v>
+        <v>1670925240000</v>
       </c>
       <c r="B24">
-        <v>2949700</v>
+        <v>3068200</v>
       </c>
       <c r="C24">
-        <v>1378800</v>
+        <v>2091700</v>
       </c>
       <c r="D24">
-        <v>28200</v>
+        <v>15400</v>
       </c>
       <c r="E24">
-        <v>50465254000</v>
+        <v>51066095000</v>
       </c>
       <c r="F24">
-        <v>28619710000</v>
+        <v>31048776000</v>
       </c>
       <c r="G24">
-        <v>414575000</v>
+        <v>442593000</v>
       </c>
       <c r="H24">
-        <v>4356700</v>
+        <v>5175300</v>
       </c>
       <c r="I24">
-        <v>79499539000</v>
+        <v>82557464000</v>
       </c>
       <c r="J24" t="str">
-        <v>2022-12-13T11:00:00.000Z</v>
+        <v>2022-12-13T09:54:00.000Z</v>
       </c>
       <c r="K24">
-        <v>4511764780000</v>
+        <v>2226761976000</v>
       </c>
       <c r="L24">
-        <v>269463300</v>
+        <v>136978000</v>
       </c>
       <c r="M24">
-        <v>-1570900</v>
+        <v>-976500</v>
       </c>
       <c r="N24">
-        <v>-21845544000</v>
+        <v>-20017319000</v>
       </c>
       <c r="O24">
-        <v>-15910500</v>
+        <v>-627000</v>
       </c>
       <c r="P24">
-        <v>-176745033000</v>
+        <v>111377000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1670929500000</v>
+        <v>1670925360000</v>
       </c>
       <c r="B25">
-        <v>5695400</v>
+        <v>6642000</v>
       </c>
       <c r="C25">
-        <v>1327200</v>
+        <v>1545700</v>
       </c>
       <c r="D25">
-        <v>16200</v>
+        <v>111600</v>
       </c>
       <c r="E25">
-        <v>98125013000</v>
+        <v>119509500000</v>
       </c>
       <c r="F25">
-        <v>25771078000</v>
+        <v>23412590000</v>
       </c>
       <c r="G25">
-        <v>391997000</v>
+        <v>1888097000</v>
       </c>
       <c r="H25">
-        <v>7038800</v>
+        <v>8299300</v>
       </c>
       <c r="I25">
-        <v>124288088000</v>
+        <v>144810187000</v>
       </c>
       <c r="J25" t="str">
-        <v>2022-12-13T11:05:00.000Z</v>
+        <v>2022-12-13T09:56:00.000Z</v>
       </c>
       <c r="K25">
-        <v>4636052868000</v>
+        <v>2371572163000</v>
       </c>
       <c r="L25">
-        <v>276502100</v>
+        <v>145277300</v>
       </c>
       <c r="M25">
-        <v>-4368200</v>
+        <v>-5096300</v>
       </c>
       <c r="N25">
-        <v>-72353935000</v>
+        <v>-96096910000</v>
       </c>
       <c r="O25">
-        <v>-20278700</v>
+        <v>-5723300</v>
       </c>
       <c r="P25">
-        <v>-249098968000</v>
+        <v>-95985533000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1670929800000</v>
+        <v>1670925480000</v>
       </c>
       <c r="B26">
-        <v>4943500</v>
+        <v>6744500</v>
       </c>
       <c r="C26">
-        <v>2530500</v>
+        <v>2343300</v>
       </c>
       <c r="D26">
-        <v>25600</v>
+        <v>91800</v>
       </c>
       <c r="E26">
-        <v>77046604000</v>
+        <v>105256634000</v>
       </c>
       <c r="F26">
-        <v>45975305000</v>
+        <v>38556654000</v>
       </c>
       <c r="G26">
-        <v>828080000</v>
+        <v>1171861000</v>
       </c>
       <c r="H26">
-        <v>7499600</v>
+        <v>9179600</v>
       </c>
       <c r="I26">
-        <v>123849989000</v>
+        <v>144985149000</v>
       </c>
       <c r="J26" t="str">
-        <v>2022-12-13T11:10:00.000Z</v>
+        <v>2022-12-13T09:58:00.000Z</v>
       </c>
       <c r="K26">
-        <v>4759902857000</v>
+        <v>2516557312000</v>
       </c>
       <c r="L26">
-        <v>284001700</v>
+        <v>154456900</v>
       </c>
       <c r="M26">
-        <v>-2413000</v>
+        <v>-4401200</v>
       </c>
       <c r="N26">
-        <v>-31071299000</v>
+        <v>-66699980000</v>
       </c>
       <c r="O26">
-        <v>-22691700</v>
+        <v>-10124500</v>
       </c>
       <c r="P26">
-        <v>-280170267000</v>
+        <v>-162685513000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1670930100000</v>
+        <v>1670925600000</v>
       </c>
       <c r="B27">
-        <v>2265900</v>
+        <v>4674700</v>
       </c>
       <c r="C27">
-        <v>6441300</v>
+        <v>2784200</v>
       </c>
       <c r="D27">
-        <v>49000</v>
+        <v>21100</v>
       </c>
       <c r="E27">
-        <v>39939761000</v>
+        <v>68010517000</v>
       </c>
       <c r="F27">
-        <v>133780669000</v>
+        <v>52622242000</v>
       </c>
       <c r="G27">
-        <v>892496000</v>
+        <v>439036000</v>
       </c>
       <c r="H27">
-        <v>8756200</v>
+        <v>7480000</v>
       </c>
       <c r="I27">
-        <v>174612926000</v>
+        <v>121071795000</v>
       </c>
       <c r="J27" t="str">
-        <v>2022-12-13T11:15:00.000Z</v>
+        <v>2022-12-13T10:00:00.000Z</v>
       </c>
       <c r="K27">
-        <v>4934515783000</v>
+        <v>2637629107000</v>
       </c>
       <c r="L27">
-        <v>292757900</v>
+        <v>161936900</v>
       </c>
       <c r="M27">
-        <v>4175400</v>
+        <v>-1890500</v>
       </c>
       <c r="N27">
-        <v>93840908000</v>
+        <v>-15388275000</v>
       </c>
       <c r="O27">
-        <v>-18516300</v>
+        <v>-12015000</v>
       </c>
       <c r="P27">
-        <v>-186329359000</v>
+        <v>-178073788000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1670930400000</v>
+        <v>1670925720000</v>
       </c>
       <c r="B28">
-        <v>2918000</v>
+        <v>3461000</v>
       </c>
       <c r="C28">
-        <v>2410000</v>
+        <v>2368900</v>
       </c>
       <c r="D28">
-        <v>25700</v>
+        <v>10600</v>
       </c>
       <c r="E28">
-        <v>55646177000</v>
+        <v>54832937000</v>
       </c>
       <c r="F28">
-        <v>44683267000</v>
+        <v>38601198000</v>
       </c>
       <c r="G28">
-        <v>356129000</v>
+        <v>299050000</v>
       </c>
       <c r="H28">
-        <v>5353700</v>
+        <v>5840500</v>
       </c>
       <c r="I28">
-        <v>100685573000</v>
+        <v>93733185000</v>
       </c>
       <c r="J28" t="str">
-        <v>2022-12-13T11:20:00.000Z</v>
+        <v>2022-12-13T10:02:00.000Z</v>
       </c>
       <c r="K28">
-        <v>5035201356000</v>
+        <v>2731362292000</v>
       </c>
       <c r="L28">
-        <v>298111600</v>
+        <v>167777400</v>
       </c>
       <c r="M28">
-        <v>-508000</v>
+        <v>-1092100</v>
       </c>
       <c r="N28">
-        <v>-10962910000</v>
+        <v>-16231739000</v>
       </c>
       <c r="O28">
-        <v>-19024300</v>
+        <v>-13107100</v>
       </c>
       <c r="P28">
-        <v>-197292269000</v>
+        <v>-194305527000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1670930700000</v>
+        <v>1670925840000</v>
       </c>
       <c r="B29">
-        <v>2490700</v>
+        <v>2355800</v>
       </c>
       <c r="C29">
-        <v>2624100</v>
+        <v>1828600</v>
       </c>
       <c r="D29">
-        <v>23700</v>
+        <v>11000</v>
       </c>
       <c r="E29">
-        <v>42900939000</v>
+        <v>35814032000</v>
       </c>
       <c r="F29">
-        <v>58271704000</v>
+        <v>32691234000</v>
       </c>
       <c r="G29">
-        <v>594195000</v>
+        <v>160438000</v>
       </c>
       <c r="H29">
-        <v>5138500</v>
+        <v>4195400</v>
       </c>
       <c r="I29">
-        <v>101766838000</v>
+        <v>68665704000</v>
       </c>
       <c r="J29" t="str">
-        <v>2022-12-13T11:25:00.000Z</v>
+        <v>2022-12-13T10:04:00.000Z</v>
       </c>
       <c r="K29">
-        <v>5136968194000</v>
+        <v>2800027996000</v>
       </c>
       <c r="L29">
-        <v>303250100</v>
+        <v>171972800</v>
       </c>
       <c r="M29">
-        <v>133400</v>
+        <v>-527200</v>
       </c>
       <c r="N29">
-        <v>15370765000</v>
+        <v>-3122798000</v>
       </c>
       <c r="O29">
-        <v>-18890900</v>
+        <v>-13634300</v>
       </c>
       <c r="P29">
-        <v>-181921504000</v>
+        <v>-197428325000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1670931000000</v>
+        <v>1670925960000</v>
       </c>
       <c r="B30">
-        <v>3000</v>
+        <v>1290100</v>
       </c>
       <c r="C30">
-        <v>200</v>
+        <v>1609700</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>13800</v>
       </c>
       <c r="E30">
-        <v>27150000.000000004</v>
+        <v>20330621000</v>
       </c>
       <c r="F30">
-        <v>9350000</v>
+        <v>30151229000</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>152291000</v>
       </c>
       <c r="H30">
-        <v>3200</v>
+        <v>2913600</v>
       </c>
       <c r="I30">
-        <v>36500000</v>
+        <v>50634141000</v>
       </c>
       <c r="J30" t="str">
-        <v>2022-12-13T11:30:00.000Z</v>
+        <v>2022-12-13T10:06:00.000Z</v>
       </c>
       <c r="K30">
-        <v>5137004694000</v>
+        <v>2850662137000</v>
       </c>
       <c r="L30">
-        <v>303253300</v>
+        <v>174886400</v>
       </c>
       <c r="M30">
-        <v>-2800</v>
+        <v>319600</v>
       </c>
       <c r="N30">
-        <v>-17800000.000000004</v>
+        <v>9820608000</v>
       </c>
       <c r="O30">
-        <v>-18893700</v>
+        <v>-13314700</v>
       </c>
       <c r="P30">
-        <v>-181939304000</v>
+        <v>-187607717000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1670936400000</v>
+        <v>1670926080000</v>
       </c>
       <c r="B31">
-        <v>10153300</v>
+        <v>1180700</v>
       </c>
       <c r="C31">
-        <v>14302900</v>
+        <v>1455000</v>
       </c>
       <c r="D31">
-        <v>166900</v>
+        <v>3300</v>
       </c>
       <c r="E31">
-        <v>165428900000</v>
+        <v>20619701000</v>
       </c>
       <c r="F31">
-        <v>266600714000</v>
+        <v>25980167000</v>
       </c>
       <c r="G31">
-        <v>3516901000</v>
+        <v>51944000</v>
       </c>
       <c r="H31">
-        <v>24623100</v>
+        <v>2639000</v>
       </c>
       <c r="I31">
-        <v>435546515000</v>
+        <v>46651812000</v>
       </c>
       <c r="J31" t="str">
-        <v>2022-12-13T13:00:00.000Z</v>
+        <v>2022-12-13T10:08:00.000Z</v>
       </c>
       <c r="K31">
-        <v>5572551209000</v>
+        <v>2897313949000</v>
       </c>
       <c r="L31">
-        <v>327876400</v>
+        <v>177525400</v>
       </c>
       <c r="M31">
-        <v>4149600</v>
+        <v>274300</v>
       </c>
       <c r="N31">
-        <v>101171814000</v>
+        <v>5360466000</v>
       </c>
       <c r="O31">
-        <v>-14744100</v>
+        <v>-13040400</v>
       </c>
       <c r="P31">
-        <v>-80767490000</v>
+        <v>-182247251000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1670936700000</v>
+        <v>1670926200000</v>
       </c>
       <c r="B32">
-        <v>8243800</v>
+        <v>1175200</v>
       </c>
       <c r="C32">
-        <v>6243800</v>
+        <v>3931400</v>
       </c>
       <c r="D32">
-        <v>51800</v>
+        <v>6000</v>
       </c>
       <c r="E32">
-        <v>134755330000</v>
+        <v>21773060000</v>
       </c>
       <c r="F32">
-        <v>115914012000</v>
+        <v>64378411000</v>
       </c>
       <c r="G32">
-        <v>1064906000</v>
+        <v>99804000</v>
       </c>
       <c r="H32">
-        <v>14539400</v>
+        <v>5112600</v>
       </c>
       <c r="I32">
-        <v>251734248000</v>
+        <v>86251275000</v>
       </c>
       <c r="J32" t="str">
-        <v>2022-12-13T13:05:00.000Z</v>
+        <v>2022-12-13T10:10:00.000Z</v>
       </c>
       <c r="K32">
-        <v>5824285457000</v>
+        <v>2983565224000</v>
       </c>
       <c r="L32">
-        <v>342415800</v>
+        <v>182638000</v>
       </c>
       <c r="M32">
-        <v>-2000000</v>
+        <v>2756200</v>
       </c>
       <c r="N32">
-        <v>-18841318000</v>
+        <v>42605351000</v>
       </c>
       <c r="O32">
-        <v>-16744100</v>
+        <v>-10284200</v>
       </c>
       <c r="P32">
-        <v>-99608808000</v>
+        <v>-139641900000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1670937000000</v>
+        <v>1670926320000</v>
       </c>
       <c r="B33">
-        <v>11270000</v>
+        <v>1070400</v>
       </c>
       <c r="C33">
-        <v>4704300</v>
+        <v>1497900</v>
       </c>
       <c r="D33">
-        <v>52300</v>
+        <v>5200</v>
       </c>
       <c r="E33">
-        <v>157421071000</v>
+        <v>19868019000</v>
       </c>
       <c r="F33">
-        <v>83553425000</v>
+        <v>27127123000</v>
       </c>
       <c r="G33">
-        <v>553528000</v>
+        <v>114810000</v>
       </c>
       <c r="H33">
-        <v>16026600</v>
+        <v>2573500</v>
       </c>
       <c r="I33">
-        <v>241528024000</v>
+        <v>47109952000</v>
       </c>
       <c r="J33" t="str">
-        <v>2022-12-13T13:10:00.000Z</v>
+        <v>2022-12-13T10:12:00.000Z</v>
       </c>
       <c r="K33">
-        <v>6065813481000</v>
+        <v>3030675176000</v>
       </c>
       <c r="L33">
-        <v>358442400</v>
+        <v>185211500</v>
       </c>
       <c r="M33">
-        <v>-6565700</v>
+        <v>427500</v>
       </c>
       <c r="N33">
-        <v>-73867646000</v>
+        <v>7259104000</v>
       </c>
       <c r="O33">
-        <v>-23309800</v>
+        <v>-9856700</v>
       </c>
       <c r="P33">
-        <v>-173476454000</v>
+        <v>-132382796000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1670937300000</v>
+        <v>1670926440000</v>
       </c>
       <c r="B34">
-        <v>5228400</v>
+        <v>1146000</v>
       </c>
       <c r="C34">
-        <v>7991700</v>
+        <v>1759300</v>
       </c>
       <c r="D34">
-        <v>66900</v>
+        <v>6500</v>
       </c>
       <c r="E34">
-        <v>85182869000</v>
+        <v>21480069000</v>
       </c>
       <c r="F34">
-        <v>140887440000</v>
+        <v>29644293000</v>
       </c>
       <c r="G34">
-        <v>939768000</v>
+        <v>73266000</v>
       </c>
       <c r="H34">
-        <v>13287000</v>
+        <v>2911800</v>
       </c>
       <c r="I34">
-        <v>227010077000</v>
+        <v>51197628000</v>
       </c>
       <c r="J34" t="str">
-        <v>2022-12-13T13:15:00.000Z</v>
+        <v>2022-12-13T10:14:00.000Z</v>
       </c>
       <c r="K34">
-        <v>6292823558000</v>
+        <v>3081872804000</v>
       </c>
       <c r="L34">
-        <v>371729400</v>
+        <v>188123300</v>
       </c>
       <c r="M34">
-        <v>2763300</v>
+        <v>613300</v>
       </c>
       <c r="N34">
-        <v>55704571000</v>
+        <v>8164224000</v>
       </c>
       <c r="O34">
-        <v>-20546500</v>
+        <v>-9243400</v>
       </c>
       <c r="P34">
-        <v>-117771883000</v>
+        <v>-124218572000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1670937600000</v>
+        <v>1670926560000</v>
       </c>
       <c r="B35">
-        <v>3572600</v>
+        <v>2106800</v>
       </c>
       <c r="C35">
-        <v>10701300</v>
+        <v>1066500</v>
       </c>
       <c r="D35">
-        <v>32300</v>
+        <v>23800</v>
       </c>
       <c r="E35">
-        <v>64075737000</v>
+        <v>36779424000</v>
       </c>
       <c r="F35">
-        <v>180467924000</v>
+        <v>19465878000</v>
       </c>
       <c r="G35">
-        <v>441559000</v>
+        <v>362723000</v>
       </c>
       <c r="H35">
-        <v>14306200</v>
+        <v>3197100</v>
       </c>
       <c r="I35">
-        <v>244985220000</v>
+        <v>56608025000</v>
       </c>
       <c r="J35" t="str">
-        <v>2022-12-13T13:20:00.000Z</v>
+        <v>2022-12-13T10:16:00.000Z</v>
       </c>
       <c r="K35">
-        <v>6537808778000</v>
+        <v>3138480829000</v>
       </c>
       <c r="L35">
-        <v>386035600</v>
+        <v>191320400</v>
       </c>
       <c r="M35">
-        <v>7128700</v>
+        <v>-1040300</v>
       </c>
       <c r="N35">
-        <v>116392187000</v>
+        <v>-17313546000</v>
       </c>
       <c r="O35">
-        <v>-13417800</v>
+        <v>-10283700</v>
       </c>
       <c r="P35">
-        <v>-1379696000</v>
+        <v>-141532118000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1670937900000</v>
+        <v>1670926680000</v>
       </c>
       <c r="B36">
-        <v>3303700</v>
+        <v>4285800</v>
       </c>
       <c r="C36">
-        <v>15456300</v>
+        <v>877400</v>
       </c>
       <c r="D36">
-        <v>93600</v>
+        <v>47900</v>
       </c>
       <c r="E36">
-        <v>58931687000</v>
+        <v>71968761000</v>
       </c>
       <c r="F36">
-        <v>266783038000</v>
+        <v>14601316000</v>
       </c>
       <c r="G36">
-        <v>1957901000</v>
+        <v>692464000</v>
       </c>
       <c r="H36">
-        <v>18853600</v>
+        <v>5211100</v>
       </c>
       <c r="I36">
-        <v>327672626000</v>
+        <v>87262541000</v>
       </c>
       <c r="J36" t="str">
-        <v>2022-12-13T13:25:00.000Z</v>
+        <v>2022-12-13T10:18:00.000Z</v>
       </c>
       <c r="K36">
-        <v>6865481404000</v>
+        <v>3225743370000</v>
       </c>
       <c r="L36">
-        <v>404889200</v>
+        <v>196531500</v>
       </c>
       <c r="M36">
-        <v>12152600</v>
+        <v>-3408400</v>
       </c>
       <c r="N36">
-        <v>207851351000</v>
+        <v>-57367445000</v>
       </c>
       <c r="O36">
-        <v>-1265200</v>
+        <v>-13692100</v>
       </c>
       <c r="P36">
-        <v>206471655000</v>
+        <v>-198899563000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1670938200000</v>
+        <v>1670926800000</v>
       </c>
       <c r="B37">
-        <v>8596500</v>
+        <v>5139000</v>
       </c>
       <c r="C37">
-        <v>18059000</v>
+        <v>1048500</v>
       </c>
       <c r="D37">
-        <v>98900</v>
+        <v>47600</v>
       </c>
       <c r="E37">
-        <v>133719729000</v>
+        <v>85120607000</v>
       </c>
       <c r="F37">
-        <v>280234052000</v>
+        <v>21059059000</v>
       </c>
       <c r="G37">
-        <v>1280767000</v>
+        <v>854904000</v>
       </c>
       <c r="H37">
-        <v>26754400</v>
+        <v>6235100</v>
       </c>
       <c r="I37">
-        <v>415234548000</v>
+        <v>107034570000</v>
       </c>
       <c r="J37" t="str">
-        <v>2022-12-13T13:30:00.000Z</v>
+        <v>2022-12-13T10:20:00.000Z</v>
       </c>
       <c r="K37">
-        <v>7280715952000</v>
+        <v>3332777940000</v>
       </c>
       <c r="L37">
-        <v>431643600</v>
+        <v>202766600</v>
       </c>
       <c r="M37">
-        <v>9462500</v>
+        <v>-4090500</v>
       </c>
       <c r="N37">
-        <v>146514323000</v>
+        <v>-64061548000</v>
       </c>
       <c r="O37">
-        <v>8197300</v>
+        <v>-17782600</v>
       </c>
       <c r="P37">
-        <v>352985978000</v>
+        <v>-262961111000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1670938500000</v>
+        <v>1670926920000</v>
       </c>
       <c r="B38">
-        <v>9717300</v>
+        <v>3634600</v>
       </c>
       <c r="C38">
-        <v>4332600</v>
+        <v>1077700</v>
       </c>
       <c r="D38">
-        <v>92700</v>
+        <v>56900</v>
       </c>
       <c r="E38">
-        <v>162306934000</v>
+        <v>56246278000</v>
       </c>
       <c r="F38">
-        <v>75679300000</v>
+        <v>19585811000</v>
       </c>
       <c r="G38">
-        <v>1939143000</v>
+        <v>713787000</v>
       </c>
       <c r="H38">
-        <v>14142600</v>
+        <v>4769200</v>
       </c>
       <c r="I38">
-        <v>239925377000</v>
+        <v>76545876000</v>
       </c>
       <c r="J38" t="str">
-        <v>2022-12-13T13:35:00.000Z</v>
+        <v>2022-12-13T10:22:00.000Z</v>
       </c>
       <c r="K38">
-        <v>7520641329000</v>
+        <v>3409323816000</v>
       </c>
       <c r="L38">
-        <v>445786200</v>
+        <v>207535800</v>
       </c>
       <c r="M38">
-        <v>-5384700</v>
+        <v>-2556900</v>
       </c>
       <c r="N38">
-        <v>-86627634000</v>
+        <v>-36660467000</v>
       </c>
       <c r="O38">
-        <v>2812600</v>
+        <v>-20339500</v>
       </c>
       <c r="P38">
-        <v>266358344000</v>
+        <v>-299621578000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1670938800000</v>
+        <v>1670927040000</v>
       </c>
       <c r="B39">
-        <v>5731900</v>
+        <v>3531200</v>
       </c>
       <c r="C39">
-        <v>4851300</v>
+        <v>1237900</v>
       </c>
       <c r="D39">
-        <v>40600</v>
+        <v>33200</v>
       </c>
       <c r="E39">
-        <v>98496996000</v>
+        <v>55140494000</v>
       </c>
       <c r="F39">
-        <v>89603411000</v>
+        <v>22207249000</v>
       </c>
       <c r="G39">
-        <v>418678000</v>
+        <v>490382000</v>
       </c>
       <c r="H39">
-        <v>10623800</v>
+        <v>4802300</v>
       </c>
       <c r="I39">
-        <v>188519085000</v>
+        <v>77838125000</v>
       </c>
       <c r="J39" t="str">
-        <v>2022-12-13T13:40:00.000Z</v>
+        <v>2022-12-13T10:24:00.000Z</v>
       </c>
       <c r="K39">
-        <v>7709160414000</v>
+        <v>3487161941000</v>
       </c>
       <c r="L39">
-        <v>456410000</v>
+        <v>212338100</v>
       </c>
       <c r="M39">
-        <v>-880600</v>
+        <v>-2293300</v>
       </c>
       <c r="N39">
-        <v>-8893585000</v>
+        <v>-32933245000</v>
       </c>
       <c r="O39">
-        <v>1932000</v>
+        <v>-22632800</v>
       </c>
       <c r="P39">
-        <v>257464759000</v>
+        <v>-332554823000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1670939100000</v>
+        <v>1670927160000</v>
       </c>
       <c r="B40">
-        <v>6982700</v>
+        <v>3994900</v>
       </c>
       <c r="C40">
-        <v>5108400</v>
+        <v>1405300</v>
       </c>
       <c r="D40">
-        <v>83800</v>
+        <v>42200</v>
       </c>
       <c r="E40">
-        <v>125972643000</v>
+        <v>52243030000</v>
       </c>
       <c r="F40">
-        <v>92662482000</v>
+        <v>25790172000</v>
       </c>
       <c r="G40">
-        <v>1712257000</v>
+        <v>417656000</v>
       </c>
       <c r="H40">
-        <v>12174900</v>
+        <v>5442400</v>
       </c>
       <c r="I40">
-        <v>220347382000</v>
+        <v>78450858000</v>
       </c>
       <c r="J40" t="str">
-        <v>2022-12-13T13:45:00.000Z</v>
+        <v>2022-12-13T10:26:00.000Z</v>
       </c>
       <c r="K40">
-        <v>7929507796000</v>
+        <v>3565612799000</v>
       </c>
       <c r="L40">
-        <v>468584900</v>
+        <v>217780500</v>
       </c>
       <c r="M40">
-        <v>-1874300</v>
+        <v>-2589600</v>
       </c>
       <c r="N40">
-        <v>-33310161000</v>
+        <v>-26452858000</v>
       </c>
       <c r="O40">
-        <v>57700</v>
+        <v>-25222400</v>
       </c>
       <c r="P40">
-        <v>224154598000</v>
+        <v>-359007681000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1670939400000</v>
+        <v>1670927280000</v>
       </c>
       <c r="B41">
-        <v>9314600</v>
+        <v>2148600</v>
       </c>
       <c r="C41">
-        <v>5804800</v>
+        <v>2054800</v>
       </c>
       <c r="D41">
-        <v>62100</v>
+        <v>3400</v>
       </c>
       <c r="E41">
-        <v>155866524000</v>
+        <v>44116464000</v>
       </c>
       <c r="F41">
-        <v>119294726000</v>
+        <v>35982242000</v>
       </c>
       <c r="G41">
-        <v>936690000</v>
+        <v>50476000</v>
       </c>
       <c r="H41">
-        <v>15181500</v>
+        <v>4206800</v>
       </c>
       <c r="I41">
-        <v>276097940000</v>
+        <v>80149182000</v>
       </c>
       <c r="J41" t="str">
-        <v>2022-12-13T13:50:00.000Z</v>
+        <v>2022-12-13T10:28:00.000Z</v>
       </c>
       <c r="K41">
-        <v>8205605736000</v>
+        <v>3645761981000</v>
       </c>
       <c r="L41">
-        <v>483766400</v>
+        <v>221987300</v>
       </c>
       <c r="M41">
-        <v>-3509800</v>
+        <v>-93800</v>
       </c>
       <c r="N41">
-        <v>-36571798000</v>
+        <v>-8134222000</v>
       </c>
       <c r="O41">
-        <v>-3452100</v>
+        <v>-25316200</v>
       </c>
       <c r="P41">
-        <v>187582800000</v>
+        <v>-367141903000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1670939700000</v>
+        <v>1670927400000</v>
       </c>
       <c r="B42">
-        <v>6095500</v>
+        <v>1346500</v>
       </c>
       <c r="C42">
-        <v>4493400</v>
+        <v>2040400</v>
       </c>
       <c r="D42">
-        <v>33100</v>
+        <v>2500</v>
       </c>
       <c r="E42">
-        <v>116811123000</v>
+        <v>21503208000</v>
       </c>
       <c r="F42">
-        <v>89105902000</v>
+        <v>35082873000</v>
       </c>
       <c r="G42">
-        <v>715741000</v>
+        <v>64050000</v>
       </c>
       <c r="H42">
-        <v>10622000</v>
+        <v>3389400</v>
       </c>
       <c r="I42">
-        <v>206632766000</v>
+        <v>56650131000</v>
       </c>
       <c r="J42" t="str">
-        <v>2022-12-13T13:55:00.000Z</v>
+        <v>2022-12-13T10:30:00.000Z</v>
       </c>
       <c r="K42">
-        <v>8412238502000</v>
+        <v>3702412112000</v>
       </c>
       <c r="L42">
-        <v>494388400</v>
+        <v>225376700</v>
       </c>
       <c r="M42">
-        <v>-1602100</v>
+        <v>693900</v>
       </c>
       <c r="N42">
-        <v>-27705221000</v>
+        <v>13579665000</v>
       </c>
       <c r="O42">
-        <v>-5054200</v>
+        <v>-24622300</v>
       </c>
       <c r="P42">
-        <v>159877579000</v>
+        <v>-353562238000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1670940000000</v>
+        <v>1670927520000</v>
       </c>
       <c r="B43">
-        <v>6090800</v>
+        <v>1083000</v>
       </c>
       <c r="C43">
-        <v>5258900</v>
+        <v>2418800</v>
       </c>
       <c r="D43">
-        <v>38600</v>
+        <v>26900</v>
       </c>
       <c r="E43">
-        <v>118101732000</v>
+        <v>16915582000</v>
       </c>
       <c r="F43">
-        <v>108295765000</v>
+        <v>45120012000</v>
       </c>
       <c r="G43">
-        <v>614406000</v>
+        <v>544540000</v>
       </c>
       <c r="H43">
-        <v>11388300</v>
+        <v>3528700</v>
       </c>
       <c r="I43">
-        <v>227011903000</v>
+        <v>62580134000</v>
       </c>
       <c r="J43" t="str">
-        <v>2022-12-13T14:00:00.000Z</v>
+        <v>2022-12-13T10:32:00.000Z</v>
       </c>
       <c r="K43">
-        <v>8639250405000</v>
+        <v>3764992246000</v>
       </c>
       <c r="L43">
-        <v>505776700</v>
+        <v>228905400</v>
       </c>
       <c r="M43">
-        <v>-831900</v>
+        <v>1335800</v>
       </c>
       <c r="N43">
-        <v>-9805967000</v>
+        <v>28204430000</v>
       </c>
       <c r="O43">
-        <v>-5886100</v>
+        <v>-23286500</v>
       </c>
       <c r="P43">
-        <v>150071612000</v>
+        <v>-325357808000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1670940300000</v>
+        <v>1670927640000</v>
       </c>
       <c r="B44">
-        <v>12211900</v>
+        <v>782500</v>
       </c>
       <c r="C44">
-        <v>5467300</v>
+        <v>3770000</v>
       </c>
       <c r="D44">
-        <v>110000</v>
+        <v>39100</v>
       </c>
       <c r="E44">
-        <v>196790343000</v>
+        <v>15066967000</v>
       </c>
       <c r="F44">
-        <v>100723830000</v>
+        <v>68322743000</v>
       </c>
       <c r="G44">
-        <v>1404916000</v>
+        <v>811450000</v>
       </c>
       <c r="H44">
-        <v>17789200</v>
+        <v>4591600</v>
       </c>
       <c r="I44">
-        <v>298919089000</v>
+        <v>84201160000</v>
       </c>
       <c r="J44" t="str">
-        <v>2022-12-13T14:05:00.000Z</v>
+        <v>2022-12-13T10:34:00.000Z</v>
       </c>
       <c r="K44">
-        <v>8938169494000</v>
+        <v>3849193406000</v>
       </c>
       <c r="L44">
-        <v>523565900</v>
+        <v>233497000</v>
       </c>
       <c r="M44">
-        <v>-6744600</v>
+        <v>2987500</v>
       </c>
       <c r="N44">
-        <v>-96066513000</v>
+        <v>53255776000</v>
       </c>
       <c r="O44">
-        <v>-12630700</v>
+        <v>-20299000</v>
       </c>
       <c r="P44">
-        <v>54005099000</v>
+        <v>-272102032000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1670940600000</v>
+        <v>1670927760000</v>
       </c>
       <c r="B45">
-        <v>24678700</v>
+        <v>642700</v>
       </c>
       <c r="C45">
-        <v>9304100</v>
+        <v>3079200</v>
       </c>
       <c r="D45">
-        <v>185600</v>
+        <v>3000</v>
       </c>
       <c r="E45">
-        <v>368346601000</v>
+        <v>13339036000</v>
       </c>
       <c r="F45">
-        <v>163348768000</v>
+        <v>53127817000</v>
       </c>
       <c r="G45">
-        <v>3311241000</v>
+        <v>25411000</v>
       </c>
       <c r="H45">
-        <v>34168400</v>
+        <v>3724900</v>
       </c>
       <c r="I45">
-        <v>535006610000</v>
+        <v>66492264000</v>
       </c>
       <c r="J45" t="str">
-        <v>2022-12-13T14:10:00.000Z</v>
+        <v>2022-12-13T10:36:00.000Z</v>
       </c>
       <c r="K45">
-        <v>9473176104000</v>
+        <v>3915685670000</v>
       </c>
       <c r="L45">
-        <v>557734300</v>
+        <v>237221900</v>
       </c>
       <c r="M45">
-        <v>-15374600</v>
+        <v>2436500</v>
       </c>
       <c r="N45">
-        <v>-204997833000</v>
+        <v>39788781000</v>
       </c>
       <c r="O45">
-        <v>-28005300</v>
+        <v>-17862500</v>
       </c>
       <c r="P45">
-        <v>-150992734000</v>
+        <v>-232313251000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1670940900000</v>
+        <v>1670927880000</v>
       </c>
       <c r="B46">
-        <v>3772100</v>
+        <v>604700</v>
       </c>
       <c r="C46">
-        <v>13482800</v>
+        <v>2723600</v>
       </c>
       <c r="D46">
-        <v>60800</v>
+        <v>17000</v>
       </c>
       <c r="E46">
-        <v>67883814000</v>
+        <v>10531254000</v>
       </c>
       <c r="F46">
-        <v>242292845000</v>
+        <v>47740408000</v>
       </c>
       <c r="G46">
-        <v>851347000</v>
+        <v>98904000</v>
       </c>
       <c r="H46">
-        <v>17315700</v>
+        <v>3345300</v>
       </c>
       <c r="I46">
-        <v>311028006000</v>
+        <v>58370566000</v>
       </c>
       <c r="J46" t="str">
-        <v>2022-12-13T14:15:00.000Z</v>
+        <v>2022-12-13T10:38:00.000Z</v>
       </c>
       <c r="K46">
-        <v>9784204110000</v>
+        <v>3974056236000</v>
       </c>
       <c r="L46">
-        <v>575050000</v>
+        <v>240567200</v>
       </c>
       <c r="M46">
-        <v>9710700</v>
+        <v>2118900</v>
       </c>
       <c r="N46">
-        <v>174409031000</v>
+        <v>37209154000</v>
       </c>
       <c r="O46">
-        <v>-18294600</v>
+        <v>-15743600</v>
       </c>
       <c r="P46">
-        <v>23416297000</v>
+        <v>-195104097000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1670941200000</v>
+        <v>1670928000000</v>
       </c>
       <c r="B47">
-        <v>5716700</v>
+        <v>1149700</v>
       </c>
       <c r="C47">
-        <v>25513900</v>
+        <v>1927700</v>
       </c>
       <c r="D47">
-        <v>206600</v>
+        <v>6400</v>
       </c>
       <c r="E47">
-        <v>96603988000</v>
+        <v>22430510000</v>
       </c>
       <c r="F47">
-        <v>452523858000</v>
+        <v>30896999000</v>
       </c>
       <c r="G47">
-        <v>3583898000</v>
+        <v>161435000</v>
       </c>
       <c r="H47">
-        <v>31437200</v>
+        <v>3083800</v>
       </c>
       <c r="I47">
-        <v>552711744000</v>
+        <v>53488944000</v>
       </c>
       <c r="J47" t="str">
-        <v>2022-12-13T14:20:00.000Z</v>
+        <v>2022-12-13T10:40:00.000Z</v>
       </c>
       <c r="K47">
-        <v>10336915854000</v>
+        <v>4027545180000</v>
       </c>
       <c r="L47">
-        <v>606487200</v>
+        <v>243651000</v>
       </c>
       <c r="M47">
-        <v>19797200</v>
+        <v>778000</v>
       </c>
       <c r="N47">
-        <v>355919870000</v>
+        <v>8466489000</v>
       </c>
       <c r="O47">
-        <v>1502600</v>
+        <v>-14965600</v>
       </c>
       <c r="P47">
-        <v>379336167000</v>
+        <v>-186637608000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1670941500000</v>
+        <v>1670928120000</v>
       </c>
       <c r="B48">
-        <v>9284900</v>
+        <v>1095600</v>
       </c>
       <c r="C48">
-        <v>31593800</v>
+        <v>1638100</v>
       </c>
       <c r="D48">
-        <v>298200</v>
+        <v>5700</v>
       </c>
       <c r="E48">
-        <v>142408485000</v>
+        <v>20545040000</v>
       </c>
       <c r="F48">
-        <v>479399250000</v>
+        <v>33085178000</v>
       </c>
       <c r="G48">
-        <v>3972452000</v>
+        <v>148987000</v>
       </c>
       <c r="H48">
-        <v>41176900</v>
+        <v>2739400</v>
       </c>
       <c r="I48">
-        <v>625780187000</v>
+        <v>53779205000</v>
       </c>
       <c r="J48" t="str">
-        <v>2022-12-13T14:25:00.000Z</v>
+        <v>2022-12-13T10:42:00.000Z</v>
       </c>
       <c r="K48">
-        <v>10962696041000</v>
+        <v>4081324385000</v>
       </c>
       <c r="L48">
-        <v>647664100</v>
+        <v>246390400</v>
       </c>
       <c r="M48">
-        <v>22308900</v>
+        <v>542500</v>
       </c>
       <c r="N48">
-        <v>336990765000</v>
+        <v>12540138000</v>
       </c>
       <c r="O48">
-        <v>23811500</v>
+        <v>-14423100</v>
       </c>
       <c r="P48">
-        <v>716326932000</v>
+        <v>-174097470000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1670941800000</v>
+        <v>1670928240000</v>
       </c>
       <c r="B49">
-        <v>1100</v>
+        <v>1312200</v>
       </c>
       <c r="C49">
-        <v>53300</v>
+        <v>1541500</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>17300</v>
       </c>
       <c r="E49">
-        <v>13041000</v>
+        <v>20849300000</v>
       </c>
       <c r="F49">
-        <v>1014903000</v>
+        <v>29526181000</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>275884000</v>
       </c>
       <c r="H49">
-        <v>54400</v>
+        <v>2871000</v>
       </c>
       <c r="I49">
-        <v>1027944000</v>
+        <v>50651365000</v>
       </c>
       <c r="J49" t="str">
-        <v>2022-12-13T14:30:00.000Z</v>
+        <v>2022-12-13T10:44:00.000Z</v>
       </c>
       <c r="K49">
-        <v>10963723985000</v>
+        <v>4131975750000</v>
       </c>
       <c r="L49">
-        <v>647718500</v>
+        <v>249261400</v>
       </c>
       <c r="M49">
-        <v>52200</v>
+        <v>229300</v>
       </c>
       <c r="N49">
-        <v>1001862000</v>
+        <v>8676881000</v>
       </c>
       <c r="O49">
-        <v>23863700</v>
+        <v>-14193800</v>
       </c>
       <c r="P49">
-        <v>717328794000</v>
+        <v>-165420589000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1670942100000</v>
+        <v>1670928360000</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>679000</v>
       </c>
       <c r="C50">
-        <v>600</v>
+        <v>1777800</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>48700</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>14330423000</v>
       </c>
       <c r="F50">
-        <v>6120000</v>
+        <v>42474826000</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>697294000</v>
       </c>
       <c r="H50">
-        <v>600</v>
+        <v>2505500</v>
       </c>
       <c r="I50">
-        <v>6120000</v>
+        <v>57502543000</v>
       </c>
       <c r="J50" t="str">
-        <v>2022-12-13T14:35:00.000Z</v>
+        <v>2022-12-13T10:46:00.000Z</v>
       </c>
       <c r="K50">
-        <v>10963730105000</v>
+        <v>4189478293000</v>
       </c>
       <c r="L50">
-        <v>647719100</v>
+        <v>251766900</v>
       </c>
       <c r="M50">
-        <v>600</v>
+        <v>1098800</v>
       </c>
       <c r="N50">
-        <v>6120000</v>
+        <v>28144403000</v>
       </c>
       <c r="O50">
-        <v>23864300</v>
+        <v>-13095000</v>
       </c>
       <c r="P50">
-        <v>717334914000</v>
+        <v>-137276186000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>1670942700000</v>
+        <v>1670928480000</v>
       </c>
       <c r="B51">
-        <v>5196700</v>
+        <v>593500</v>
       </c>
       <c r="C51">
-        <v>15790600</v>
+        <v>1921100</v>
       </c>
       <c r="D51">
-        <v>33067300</v>
+        <v>13800</v>
       </c>
       <c r="E51">
-        <v>152817105000</v>
+        <v>15051462000</v>
       </c>
       <c r="F51">
-        <v>298931410000</v>
+        <v>36252299000</v>
       </c>
       <c r="G51">
-        <v>593512007000</v>
+        <v>248783000</v>
       </c>
       <c r="H51">
-        <v>54054600</v>
+        <v>2528400</v>
       </c>
       <c r="I51">
-        <v>1045260522000</v>
+        <v>51552544000</v>
       </c>
       <c r="J51" t="str">
-        <v>2022-12-13T14:45:00.000Z</v>
+        <v>2022-12-13T10:48:00.000Z</v>
       </c>
       <c r="K51">
-        <v>12008990627000</v>
+        <v>4241030837000</v>
       </c>
       <c r="L51">
-        <v>701773700</v>
+        <v>254295300</v>
       </c>
       <c r="M51">
-        <v>10593900</v>
+        <v>1327600</v>
       </c>
       <c r="N51">
-        <v>146114305000</v>
+        <v>21200837000</v>
       </c>
       <c r="O51">
-        <v>34458200</v>
+        <v>-11767400</v>
       </c>
       <c r="P51">
-        <v>863449219000</v>
+        <v>-116075349000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>1670943000000</v>
+        <v>1670928600000</v>
       </c>
       <c r="B52">
-        <v>1500</v>
+        <v>1472900</v>
       </c>
       <c r="C52">
-        <v>10500</v>
+        <v>1600800</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>19400</v>
       </c>
       <c r="E52">
-        <v>15299999.999999998</v>
+        <v>26881377000</v>
       </c>
       <c r="F52">
-        <v>107000000</v>
+        <v>22171936000</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>488010000</v>
       </c>
       <c r="H52">
-        <v>12000</v>
+        <v>3093100</v>
       </c>
       <c r="I52">
-        <v>122300000</v>
+        <v>49541323000</v>
       </c>
       <c r="J52" t="str">
-        <v>2022-12-13T14:50:00.000Z</v>
+        <v>2022-12-13T10:50:00.000Z</v>
       </c>
       <c r="K52">
-        <v>12009112927000</v>
+        <v>4290572160000</v>
       </c>
       <c r="L52">
-        <v>701785700</v>
+        <v>257388400</v>
       </c>
       <c r="M52">
-        <v>9000</v>
+        <v>127900</v>
       </c>
       <c r="N52">
-        <v>91700000</v>
+        <v>-4709441000</v>
       </c>
       <c r="O52">
-        <v>34467200</v>
+        <v>-11639500</v>
       </c>
       <c r="P52">
-        <v>863540919000</v>
+        <v>-120784790000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>1670943300000</v>
+        <v>1670928720000</v>
       </c>
       <c r="B53">
+        <v>1871300</v>
+      </c>
+      <c r="C53">
+        <v>640000</v>
+      </c>
+      <c r="D53">
+        <v>2900</v>
+      </c>
+      <c r="E53">
+        <v>31767990000</v>
+      </c>
+      <c r="F53">
+        <v>12604161000</v>
+      </c>
+      <c r="G53">
+        <v>89185000</v>
+      </c>
+      <c r="H53">
+        <v>2514200</v>
+      </c>
+      <c r="I53">
+        <v>44461336000</v>
+      </c>
+      <c r="J53" t="str">
+        <v>2022-12-13T10:52:00.000Z</v>
+      </c>
+      <c r="K53">
+        <v>4335033496000</v>
+      </c>
+      <c r="L53">
+        <v>259902600</v>
+      </c>
+      <c r="M53">
+        <v>-1231300</v>
+      </c>
+      <c r="N53">
+        <v>-19163829000</v>
+      </c>
+      <c r="O53">
+        <v>-12870800</v>
+      </c>
+      <c r="P53">
+        <v>-139948619000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>1670928840000</v>
+      </c>
+      <c r="B54">
+        <v>1130800</v>
+      </c>
+      <c r="C54">
+        <v>516300</v>
+      </c>
+      <c r="D54">
+        <v>5500</v>
+      </c>
+      <c r="E54">
+        <v>19057243000</v>
+      </c>
+      <c r="F54">
+        <v>11249725000</v>
+      </c>
+      <c r="G54">
+        <v>177027000</v>
+      </c>
+      <c r="H54">
+        <v>1652600</v>
+      </c>
+      <c r="I54">
+        <v>30483995000</v>
+      </c>
+      <c r="J54" t="str">
+        <v>2022-12-13T10:54:00.000Z</v>
+      </c>
+      <c r="K54">
+        <v>4365517491000</v>
+      </c>
+      <c r="L54">
+        <v>261555200</v>
+      </c>
+      <c r="M54">
+        <v>-614500</v>
+      </c>
+      <c r="N54">
+        <v>-7807518000</v>
+      </c>
+      <c r="O54">
+        <v>-13485300</v>
+      </c>
+      <c r="P54">
+        <v>-147756137000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>1670928960000</v>
+      </c>
+      <c r="B55">
+        <v>1167600</v>
+      </c>
+      <c r="C55">
+        <v>639800</v>
+      </c>
+      <c r="D55">
+        <v>3000</v>
+      </c>
+      <c r="E55">
+        <v>21498699000</v>
+      </c>
+      <c r="F55">
+        <v>13060179000</v>
+      </c>
+      <c r="G55">
+        <v>162050000</v>
+      </c>
+      <c r="H55">
+        <v>1810400</v>
+      </c>
+      <c r="I55">
+        <v>34720928000</v>
+      </c>
+      <c r="J55" t="str">
+        <v>2022-12-13T10:56:00.000Z</v>
+      </c>
+      <c r="K55">
+        <v>4400238419000</v>
+      </c>
+      <c r="L55">
+        <v>263365600</v>
+      </c>
+      <c r="M55">
+        <v>-527800</v>
+      </c>
+      <c r="N55">
+        <v>-8438520000</v>
+      </c>
+      <c r="O55">
+        <v>-14013100</v>
+      </c>
+      <c r="P55">
+        <v>-156194657000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1670929080000</v>
+      </c>
+      <c r="B56">
+        <v>1028900</v>
+      </c>
+      <c r="C56">
+        <v>702400</v>
+      </c>
+      <c r="D56">
+        <v>9700</v>
+      </c>
+      <c r="E56">
+        <v>15206513000</v>
+      </c>
+      <c r="F56">
+        <v>16501681000</v>
+      </c>
+      <c r="G56">
+        <v>318628000</v>
+      </c>
+      <c r="H56">
+        <v>1741000</v>
+      </c>
+      <c r="I56">
+        <v>32026822000</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2022-12-13T10:58:00.000Z</v>
+      </c>
+      <c r="K56">
+        <v>4432265241000</v>
+      </c>
+      <c r="L56">
+        <v>265106600</v>
+      </c>
+      <c r="M56">
+        <v>-326500</v>
+      </c>
+      <c r="N56">
+        <v>1295168000</v>
+      </c>
+      <c r="O56">
+        <v>-14339600</v>
+      </c>
+      <c r="P56">
+        <v>-154899489000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1670929200000</v>
+      </c>
+      <c r="B57">
+        <v>985300</v>
+      </c>
+      <c r="C57">
+        <v>617700</v>
+      </c>
+      <c r="D57">
+        <v>24000</v>
+      </c>
+      <c r="E57">
+        <v>14804772000</v>
+      </c>
+      <c r="F57">
+        <v>14868331000</v>
+      </c>
+      <c r="G57">
+        <v>214800000</v>
+      </c>
+      <c r="H57">
+        <v>1627000</v>
+      </c>
+      <c r="I57">
+        <v>29887903000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2022-12-13T11:00:00.000Z</v>
+      </c>
+      <c r="K57">
+        <v>4462153144000</v>
+      </c>
+      <c r="L57">
+        <v>266733600</v>
+      </c>
+      <c r="M57">
+        <v>-367600</v>
+      </c>
+      <c r="N57">
+        <v>63559000</v>
+      </c>
+      <c r="O57">
+        <v>-14707200</v>
+      </c>
+      <c r="P57">
+        <v>-154835930000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1670929320000</v>
+      </c>
+      <c r="B58">
+        <v>1235300</v>
+      </c>
+      <c r="C58">
+        <v>503500</v>
+      </c>
+      <c r="D58">
+        <v>800</v>
+      </c>
+      <c r="E58">
+        <v>21780559000</v>
+      </c>
+      <c r="F58">
+        <v>8926989000</v>
+      </c>
+      <c r="G58">
+        <v>7755000</v>
+      </c>
+      <c r="H58">
+        <v>1739600</v>
+      </c>
+      <c r="I58">
+        <v>30715303000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2022-12-13T11:02:00.000Z</v>
+      </c>
+      <c r="K58">
+        <v>4492868447000</v>
+      </c>
+      <c r="L58">
+        <v>268473200</v>
+      </c>
+      <c r="M58">
+        <v>-731800</v>
+      </c>
+      <c r="N58">
+        <v>-12853570000</v>
+      </c>
+      <c r="O58">
+        <v>-15439000</v>
+      </c>
+      <c r="P58">
+        <v>-167689500000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1670929440000</v>
+      </c>
+      <c r="B59">
+        <v>1438100</v>
+      </c>
+      <c r="C59">
+        <v>511200</v>
+      </c>
+      <c r="D59">
+        <v>7200</v>
+      </c>
+      <c r="E59">
+        <v>26103605000</v>
+      </c>
+      <c r="F59">
+        <v>9963335000</v>
+      </c>
+      <c r="G59">
+        <v>308870000</v>
+      </c>
+      <c r="H59">
+        <v>1956500</v>
+      </c>
+      <c r="I59">
+        <v>36375810000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2022-12-13T11:04:00.000Z</v>
+      </c>
+      <c r="K59">
+        <v>4529244257000</v>
+      </c>
+      <c r="L59">
+        <v>270429700</v>
+      </c>
+      <c r="M59">
+        <v>-926900</v>
+      </c>
+      <c r="N59">
+        <v>-16140270000</v>
+      </c>
+      <c r="O59">
+        <v>-16365900</v>
+      </c>
+      <c r="P59">
+        <v>-183829770000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1670929560000</v>
+      </c>
+      <c r="B60">
+        <v>2186600</v>
+      </c>
+      <c r="C60">
+        <v>506800</v>
+      </c>
+      <c r="D60">
+        <v>2600</v>
+      </c>
+      <c r="E60">
+        <v>41130945000</v>
+      </c>
+      <c r="F60">
+        <v>8404383000</v>
+      </c>
+      <c r="G60">
+        <v>52647000</v>
+      </c>
+      <c r="H60">
+        <v>2696000</v>
+      </c>
+      <c r="I60">
+        <v>49587975000</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2022-12-13T11:06:00.000Z</v>
+      </c>
+      <c r="K60">
+        <v>4578832232000</v>
+      </c>
+      <c r="L60">
+        <v>273125700</v>
+      </c>
+      <c r="M60">
+        <v>-1679800</v>
+      </c>
+      <c r="N60">
+        <v>-32726562000</v>
+      </c>
+      <c r="O60">
+        <v>-18045700</v>
+      </c>
+      <c r="P60">
+        <v>-216556332000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1670929680000</v>
+      </c>
+      <c r="B61">
+        <v>2799800</v>
+      </c>
+      <c r="C61">
+        <v>566800</v>
+      </c>
+      <c r="D61">
+        <v>9800</v>
+      </c>
+      <c r="E61">
+        <v>44770386000</v>
+      </c>
+      <c r="F61">
+        <v>12227750000</v>
+      </c>
+      <c r="G61">
+        <v>222500000</v>
+      </c>
+      <c r="H61">
+        <v>3376400</v>
+      </c>
+      <c r="I61">
+        <v>57220636000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2022-12-13T11:08:00.000Z</v>
+      </c>
+      <c r="K61">
+        <v>4636052868000</v>
+      </c>
+      <c r="L61">
+        <v>276502100</v>
+      </c>
+      <c r="M61">
+        <v>-2233000</v>
+      </c>
+      <c r="N61">
+        <v>-32542636000</v>
+      </c>
+      <c r="O61">
+        <v>-20278700</v>
+      </c>
+      <c r="P61">
+        <v>-249098968000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1670929800000</v>
+      </c>
+      <c r="B62">
+        <v>3159600</v>
+      </c>
+      <c r="C62">
+        <v>1124000</v>
+      </c>
+      <c r="D62">
+        <v>5800</v>
+      </c>
+      <c r="E62">
+        <v>45563283000</v>
+      </c>
+      <c r="F62">
+        <v>20136532000</v>
+      </c>
+      <c r="G62">
+        <v>200915000</v>
+      </c>
+      <c r="H62">
+        <v>4289400</v>
+      </c>
+      <c r="I62">
+        <v>65900730000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2022-12-13T11:10:00.000Z</v>
+      </c>
+      <c r="K62">
+        <v>4701953598000</v>
+      </c>
+      <c r="L62">
+        <v>280791500</v>
+      </c>
+      <c r="M62">
+        <v>-2035600</v>
+      </c>
+      <c r="N62">
+        <v>-25426751000</v>
+      </c>
+      <c r="O62">
+        <v>-22314300</v>
+      </c>
+      <c r="P62">
+        <v>-274525719000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1670929920000</v>
+      </c>
+      <c r="B63">
+        <v>1371600</v>
+      </c>
+      <c r="C63">
+        <v>939300</v>
+      </c>
+      <c r="D63">
+        <v>18700</v>
+      </c>
+      <c r="E63">
+        <v>25297251000</v>
+      </c>
+      <c r="F63">
+        <v>17085885000</v>
+      </c>
+      <c r="G63">
+        <v>581365000</v>
+      </c>
+      <c r="H63">
+        <v>2329600</v>
+      </c>
+      <c r="I63">
+        <v>42964501000</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2022-12-13T11:12:00.000Z</v>
+      </c>
+      <c r="K63">
+        <v>4744918099000</v>
+      </c>
+      <c r="L63">
+        <v>283121100</v>
+      </c>
+      <c r="M63">
+        <v>-432300</v>
+      </c>
+      <c r="N63">
+        <v>-8211366000</v>
+      </c>
+      <c r="O63">
+        <v>-22746600</v>
+      </c>
+      <c r="P63">
+        <v>-282737085000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1670930040000</v>
+      </c>
+      <c r="B64">
+        <v>1193300</v>
+      </c>
+      <c r="C64">
+        <v>1602900</v>
+      </c>
+      <c r="D64">
+        <v>15300</v>
+      </c>
+      <c r="E64">
+        <v>18958501000</v>
+      </c>
+      <c r="F64">
+        <v>37040543000</v>
+      </c>
+      <c r="G64">
+        <v>318105000</v>
+      </c>
+      <c r="H64">
+        <v>2811500</v>
+      </c>
+      <c r="I64">
+        <v>56317149000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2022-12-13T11:14:00.000Z</v>
+      </c>
+      <c r="K64">
+        <v>4801235248000</v>
+      </c>
+      <c r="L64">
+        <v>285932600</v>
+      </c>
+      <c r="M64">
+        <v>409600</v>
+      </c>
+      <c r="N64">
+        <v>18082042000</v>
+      </c>
+      <c r="O64">
+        <v>-22337000</v>
+      </c>
+      <c r="P64">
+        <v>-264655043000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1670930160000</v>
+      </c>
+      <c r="B65">
+        <v>851900</v>
+      </c>
+      <c r="C65">
+        <v>2484000</v>
+      </c>
+      <c r="D65">
+        <v>5000</v>
+      </c>
+      <c r="E65">
+        <v>15275803000</v>
+      </c>
+      <c r="F65">
+        <v>49482641000</v>
+      </c>
+      <c r="G65">
+        <v>88865000</v>
+      </c>
+      <c r="H65">
+        <v>3340900</v>
+      </c>
+      <c r="I65">
+        <v>64847309000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2022-12-13T11:16:00.000Z</v>
+      </c>
+      <c r="K65">
+        <v>4866082557000</v>
+      </c>
+      <c r="L65">
+        <v>289273500</v>
+      </c>
+      <c r="M65">
+        <v>1632100</v>
+      </c>
+      <c r="N65">
+        <v>34206838000</v>
+      </c>
+      <c r="O65">
+        <v>-20704900</v>
+      </c>
+      <c r="P65">
+        <v>-230448205000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1670930280000</v>
+      </c>
+      <c r="B66">
+        <v>633000</v>
+      </c>
+      <c r="C66">
+        <v>2821600</v>
+      </c>
+      <c r="D66">
+        <v>29800</v>
+      </c>
+      <c r="E66">
+        <v>11891527000</v>
+      </c>
+      <c r="F66">
+        <v>56010373000</v>
+      </c>
+      <c r="G66">
+        <v>531326000</v>
+      </c>
+      <c r="H66">
+        <v>3484400</v>
+      </c>
+      <c r="I66">
+        <v>68433226000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2022-12-13T11:18:00.000Z</v>
+      </c>
+      <c r="K66">
+        <v>4934515783000</v>
+      </c>
+      <c r="L66">
+        <v>292757900</v>
+      </c>
+      <c r="M66">
+        <v>2188600</v>
+      </c>
+      <c r="N66">
+        <v>44118846000</v>
+      </c>
+      <c r="O66">
+        <v>-18516300</v>
+      </c>
+      <c r="P66">
+        <v>-186329359000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1670930400000</v>
+      </c>
+      <c r="B67">
+        <v>1065900</v>
+      </c>
+      <c r="C67">
+        <v>1075200</v>
+      </c>
+      <c r="D67">
+        <v>7100</v>
+      </c>
+      <c r="E67">
+        <v>21263600000</v>
+      </c>
+      <c r="F67">
+        <v>19687298000</v>
+      </c>
+      <c r="G67">
+        <v>158110000</v>
+      </c>
+      <c r="H67">
+        <v>2148200</v>
+      </c>
+      <c r="I67">
+        <v>41109008000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2022-12-13T11:20:00.000Z</v>
+      </c>
+      <c r="K67">
+        <v>4975624791000</v>
+      </c>
+      <c r="L67">
+        <v>294906100</v>
+      </c>
+      <c r="M67">
+        <v>9300</v>
+      </c>
+      <c r="N67">
+        <v>-1576302000</v>
+      </c>
+      <c r="O67">
+        <v>-18507000</v>
+      </c>
+      <c r="P67">
+        <v>-187905661000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1670930520000</v>
+      </c>
+      <c r="B68">
+        <v>1214200</v>
+      </c>
+      <c r="C68">
+        <v>824500</v>
+      </c>
+      <c r="D68">
+        <v>15800</v>
+      </c>
+      <c r="E68">
+        <v>22014418000</v>
+      </c>
+      <c r="F68">
+        <v>15193120000</v>
+      </c>
+      <c r="G68">
+        <v>132849000</v>
+      </c>
+      <c r="H68">
+        <v>2054500</v>
+      </c>
+      <c r="I68">
+        <v>37340387000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2022-12-13T11:22:00.000Z</v>
+      </c>
+      <c r="K68">
+        <v>5012965178000</v>
+      </c>
+      <c r="L68">
+        <v>296960600</v>
+      </c>
+      <c r="M68">
+        <v>-389700</v>
+      </c>
+      <c r="N68">
+        <v>-6821298000</v>
+      </c>
+      <c r="O68">
+        <v>-18896700</v>
+      </c>
+      <c r="P68">
+        <v>-194726959000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1670930640000</v>
+      </c>
+      <c r="B69">
+        <v>1042200</v>
+      </c>
+      <c r="C69">
+        <v>927200</v>
+      </c>
+      <c r="D69">
+        <v>7000</v>
+      </c>
+      <c r="E69">
+        <v>18774532000</v>
+      </c>
+      <c r="F69">
+        <v>18151700000</v>
+      </c>
+      <c r="G69">
+        <v>117490000</v>
+      </c>
+      <c r="H69">
+        <v>1976400</v>
+      </c>
+      <c r="I69">
+        <v>37043722000</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2022-12-13T11:24:00.000Z</v>
+      </c>
+      <c r="K69">
+        <v>5050008900000</v>
+      </c>
+      <c r="L69">
+        <v>298937000</v>
+      </c>
+      <c r="M69">
+        <v>-115000</v>
+      </c>
+      <c r="N69">
+        <v>-622832000</v>
+      </c>
+      <c r="O69">
+        <v>-19011700</v>
+      </c>
+      <c r="P69">
+        <v>-195349791000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1670930760000</v>
+      </c>
+      <c r="B70">
+        <v>1019900</v>
+      </c>
+      <c r="C70">
+        <v>781800</v>
+      </c>
+      <c r="D70">
         <v>0</v>
       </c>
-      <c r="C53">
+      <c r="E70">
+        <v>17739189000</v>
+      </c>
+      <c r="F70">
+        <v>16095118000</v>
+      </c>
+      <c r="G70">
         <v>0</v>
       </c>
-      <c r="D53">
+      <c r="H70">
+        <v>1801700</v>
+      </c>
+      <c r="I70">
+        <v>33834307000</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2022-12-13T11:26:00.000Z</v>
+      </c>
+      <c r="K70">
+        <v>5083843207000</v>
+      </c>
+      <c r="L70">
+        <v>300738700</v>
+      </c>
+      <c r="M70">
+        <v>-238100</v>
+      </c>
+      <c r="N70">
+        <v>-1644071000</v>
+      </c>
+      <c r="O70">
+        <v>-19249800</v>
+      </c>
+      <c r="P70">
+        <v>-196993862000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1670930880000</v>
+      </c>
+      <c r="B71">
+        <v>1066500</v>
+      </c>
+      <c r="C71">
+        <v>1425400</v>
+      </c>
+      <c r="D71">
+        <v>19500</v>
+      </c>
+      <c r="E71">
+        <v>18755377000</v>
+      </c>
+      <c r="F71">
+        <v>33827735000</v>
+      </c>
+      <c r="G71">
+        <v>541875000</v>
+      </c>
+      <c r="H71">
+        <v>2511400</v>
+      </c>
+      <c r="I71">
+        <v>53124987000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2022-12-13T11:28:00.000Z</v>
+      </c>
+      <c r="K71">
+        <v>5136968194000</v>
+      </c>
+      <c r="L71">
+        <v>303250100</v>
+      </c>
+      <c r="M71">
+        <v>358900</v>
+      </c>
+      <c r="N71">
+        <v>15072358000</v>
+      </c>
+      <c r="O71">
+        <v>-18890900</v>
+      </c>
+      <c r="P71">
+        <v>-181921504000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1670931000000</v>
+      </c>
+      <c r="B72">
+        <v>3000</v>
+      </c>
+      <c r="C72">
+        <v>200</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>27150000.000000004</v>
+      </c>
+      <c r="F72">
+        <v>9350000</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>3200</v>
+      </c>
+      <c r="I72">
+        <v>36500000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2022-12-13T11:30:00.000Z</v>
+      </c>
+      <c r="K72">
+        <v>5137004694000</v>
+      </c>
+      <c r="L72">
+        <v>303253300</v>
+      </c>
+      <c r="M72">
+        <v>-2800</v>
+      </c>
+      <c r="N72">
+        <v>-17800000.000000004</v>
+      </c>
+      <c r="O72">
+        <v>-18893700</v>
+      </c>
+      <c r="P72">
+        <v>-181939304000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1670936400000</v>
+      </c>
+      <c r="B73">
+        <v>5814400</v>
+      </c>
+      <c r="C73">
+        <v>7232800</v>
+      </c>
+      <c r="D73">
+        <v>140200</v>
+      </c>
+      <c r="E73">
+        <v>93568385000</v>
+      </c>
+      <c r="F73">
+        <v>137771658000</v>
+      </c>
+      <c r="G73">
+        <v>2974481000</v>
+      </c>
+      <c r="H73">
+        <v>13187400</v>
+      </c>
+      <c r="I73">
+        <v>234314524000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2022-12-13T13:00:00.000Z</v>
+      </c>
+      <c r="K73">
+        <v>5371319218000</v>
+      </c>
+      <c r="L73">
+        <v>316440700</v>
+      </c>
+      <c r="M73">
+        <v>1418400</v>
+      </c>
+      <c r="N73">
+        <v>44203273000</v>
+      </c>
+      <c r="O73">
+        <v>-17475300</v>
+      </c>
+      <c r="P73">
+        <v>-137736031000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1670936520000</v>
+      </c>
+      <c r="B74">
+        <v>2670900</v>
+      </c>
+      <c r="C74">
+        <v>4711500</v>
+      </c>
+      <c r="D74">
+        <v>21000</v>
+      </c>
+      <c r="E74">
+        <v>44345286000</v>
+      </c>
+      <c r="F74">
+        <v>87362479000</v>
+      </c>
+      <c r="G74">
+        <v>443558000</v>
+      </c>
+      <c r="H74">
+        <v>7403400</v>
+      </c>
+      <c r="I74">
+        <v>132151323000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2022-12-13T13:02:00.000Z</v>
+      </c>
+      <c r="K74">
+        <v>5503470541000</v>
+      </c>
+      <c r="L74">
+        <v>323844100</v>
+      </c>
+      <c r="M74">
+        <v>2040600</v>
+      </c>
+      <c r="N74">
+        <v>43017193000</v>
+      </c>
+      <c r="O74">
+        <v>-15434700</v>
+      </c>
+      <c r="P74">
+        <v>-94718838000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1670936640000</v>
+      </c>
+      <c r="B75">
+        <v>3666400</v>
+      </c>
+      <c r="C75">
+        <v>3721800</v>
+      </c>
+      <c r="D75">
+        <v>16700</v>
+      </c>
+      <c r="E75">
+        <v>61723918000</v>
+      </c>
+      <c r="F75">
+        <v>62377662000</v>
+      </c>
+      <c r="G75">
+        <v>463723000</v>
+      </c>
+      <c r="H75">
+        <v>7404900</v>
+      </c>
+      <c r="I75">
+        <v>124565303000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2022-12-13T13:04:00.000Z</v>
+      </c>
+      <c r="K75">
+        <v>5628035844000</v>
+      </c>
+      <c r="L75">
+        <v>331249000</v>
+      </c>
+      <c r="M75">
+        <v>55400</v>
+      </c>
+      <c r="N75">
+        <v>653744000</v>
+      </c>
+      <c r="O75">
+        <v>-15379300</v>
+      </c>
+      <c r="P75">
+        <v>-94065094000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1670936760000</v>
+      </c>
+      <c r="B76">
+        <v>2983500</v>
+      </c>
+      <c r="C76">
+        <v>3228100</v>
+      </c>
+      <c r="D76">
+        <v>24600</v>
+      </c>
+      <c r="E76">
+        <v>50617297000</v>
+      </c>
+      <c r="F76">
+        <v>62725911000</v>
+      </c>
+      <c r="G76">
+        <v>501025000</v>
+      </c>
+      <c r="H76">
+        <v>6236200</v>
+      </c>
+      <c r="I76">
+        <v>113844233000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2022-12-13T13:06:00.000Z</v>
+      </c>
+      <c r="K76">
+        <v>5741880077000</v>
+      </c>
+      <c r="L76">
+        <v>337485200</v>
+      </c>
+      <c r="M76">
+        <v>244600</v>
+      </c>
+      <c r="N76">
+        <v>12108614000</v>
+      </c>
+      <c r="O76">
+        <v>-15134700</v>
+      </c>
+      <c r="P76">
+        <v>-81956480000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1670936880000</v>
+      </c>
+      <c r="B77">
+        <v>3261900</v>
+      </c>
+      <c r="C77">
+        <v>1652500</v>
+      </c>
+      <c r="D77">
+        <v>16200</v>
+      </c>
+      <c r="E77">
+        <v>49929344000</v>
+      </c>
+      <c r="F77">
+        <v>32277016000</v>
+      </c>
+      <c r="G77">
+        <v>199020000</v>
+      </c>
+      <c r="H77">
+        <v>4930600</v>
+      </c>
+      <c r="I77">
+        <v>82405380000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2022-12-13T13:08:00.000Z</v>
+      </c>
+      <c r="K77">
+        <v>5824285457000</v>
+      </c>
+      <c r="L77">
+        <v>342415800</v>
+      </c>
+      <c r="M77">
+        <v>-1609400</v>
+      </c>
+      <c r="N77">
+        <v>-17652328000</v>
+      </c>
+      <c r="O77">
+        <v>-16744100</v>
+      </c>
+      <c r="P77">
+        <v>-99608808000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1670937000000</v>
+      </c>
+      <c r="B78">
+        <v>4753300</v>
+      </c>
+      <c r="C78">
+        <v>1279800</v>
+      </c>
+      <c r="D78">
+        <v>36500</v>
+      </c>
+      <c r="E78">
+        <v>73268200000</v>
+      </c>
+      <c r="F78">
+        <v>22956393000</v>
+      </c>
+      <c r="G78">
+        <v>182652000</v>
+      </c>
+      <c r="H78">
+        <v>6069600</v>
+      </c>
+      <c r="I78">
+        <v>96407245000</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2022-12-13T13:10:00.000Z</v>
+      </c>
+      <c r="K78">
+        <v>5920692702000</v>
+      </c>
+      <c r="L78">
+        <v>348485400</v>
+      </c>
+      <c r="M78">
+        <v>-3473500</v>
+      </c>
+      <c r="N78">
+        <v>-50311807000</v>
+      </c>
+      <c r="O78">
+        <v>-20217600</v>
+      </c>
+      <c r="P78">
+        <v>-149920615000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1670937120000</v>
+      </c>
+      <c r="B79">
+        <v>4718900</v>
+      </c>
+      <c r="C79">
+        <v>2305400</v>
+      </c>
+      <c r="D79">
+        <v>12300</v>
+      </c>
+      <c r="E79">
+        <v>61741401000</v>
+      </c>
+      <c r="F79">
+        <v>43326286000</v>
+      </c>
+      <c r="G79">
+        <v>310081000</v>
+      </c>
+      <c r="H79">
+        <v>7036600</v>
+      </c>
+      <c r="I79">
+        <v>105377768000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2022-12-13T13:12:00.000Z</v>
+      </c>
+      <c r="K79">
+        <v>6026070470000</v>
+      </c>
+      <c r="L79">
+        <v>355522000</v>
+      </c>
+      <c r="M79">
+        <v>-2413500</v>
+      </c>
+      <c r="N79">
+        <v>-18415115000</v>
+      </c>
+      <c r="O79">
+        <v>-22631100</v>
+      </c>
+      <c r="P79">
+        <v>-168335730000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1670937240000</v>
+      </c>
+      <c r="B80">
+        <v>3552200</v>
+      </c>
+      <c r="C80">
+        <v>2281200</v>
+      </c>
+      <c r="D80">
+        <v>22000</v>
+      </c>
+      <c r="E80">
+        <v>48373674000</v>
+      </c>
+      <c r="F80">
+        <v>39681634000</v>
+      </c>
+      <c r="G80">
+        <v>330222000</v>
+      </c>
+      <c r="H80">
+        <v>5855400</v>
+      </c>
+      <c r="I80">
+        <v>88385530000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2022-12-13T13:14:00.000Z</v>
+      </c>
+      <c r="K80">
+        <v>6114456000000</v>
+      </c>
+      <c r="L80">
+        <v>361377400</v>
+      </c>
+      <c r="M80">
+        <v>-1271000</v>
+      </c>
+      <c r="N80">
+        <v>-8692040000</v>
+      </c>
+      <c r="O80">
+        <v>-23902100</v>
+      </c>
+      <c r="P80">
+        <v>-177027770000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1670937360000</v>
+      </c>
+      <c r="B81">
+        <v>1912100</v>
+      </c>
+      <c r="C81">
+        <v>3152900</v>
+      </c>
+      <c r="D81">
+        <v>26100</v>
+      </c>
+      <c r="E81">
+        <v>30210713000</v>
+      </c>
+      <c r="F81">
+        <v>58320123000</v>
+      </c>
+      <c r="G81">
+        <v>559680000</v>
+      </c>
+      <c r="H81">
+        <v>5091100</v>
+      </c>
+      <c r="I81">
+        <v>89090516000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2022-12-13T13:16:00.000Z</v>
+      </c>
+      <c r="K81">
+        <v>6203546516000</v>
+      </c>
+      <c r="L81">
+        <v>366468500</v>
+      </c>
+      <c r="M81">
+        <v>1240800</v>
+      </c>
+      <c r="N81">
+        <v>28109410000</v>
+      </c>
+      <c r="O81">
+        <v>-22661300</v>
+      </c>
+      <c r="P81">
+        <v>-148918360000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1670937480000</v>
+      </c>
+      <c r="B82">
+        <v>1561900</v>
+      </c>
+      <c r="C82">
+        <v>3676700</v>
+      </c>
+      <c r="D82">
+        <v>22300</v>
+      </c>
+      <c r="E82">
+        <v>29009952000</v>
+      </c>
+      <c r="F82">
+        <v>60156429000</v>
+      </c>
+      <c r="G82">
+        <v>110661000</v>
+      </c>
+      <c r="H82">
+        <v>5260900</v>
+      </c>
+      <c r="I82">
+        <v>89277042000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2022-12-13T13:18:00.000Z</v>
+      </c>
+      <c r="K82">
+        <v>6292823558000</v>
+      </c>
+      <c r="L82">
+        <v>371729400</v>
+      </c>
+      <c r="M82">
+        <v>2114800</v>
+      </c>
+      <c r="N82">
+        <v>31146477000</v>
+      </c>
+      <c r="O82">
+        <v>-20546500</v>
+      </c>
+      <c r="P82">
+        <v>-117771883000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1670937600000</v>
+      </c>
+      <c r="B83">
+        <v>1496500</v>
+      </c>
+      <c r="C83">
+        <v>4112400</v>
+      </c>
+      <c r="D83">
+        <v>5900</v>
+      </c>
+      <c r="E83">
+        <v>27545481000</v>
+      </c>
+      <c r="F83">
+        <v>74450018000</v>
+      </c>
+      <c r="G83">
+        <v>69852000</v>
+      </c>
+      <c r="H83">
+        <v>5614800</v>
+      </c>
+      <c r="I83">
+        <v>102065351000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2022-12-13T13:20:00.000Z</v>
+      </c>
+      <c r="K83">
+        <v>6394888909000</v>
+      </c>
+      <c r="L83">
+        <v>377344200</v>
+      </c>
+      <c r="M83">
+        <v>2615900</v>
+      </c>
+      <c r="N83">
+        <v>46904537000</v>
+      </c>
+      <c r="O83">
+        <v>-17930600</v>
+      </c>
+      <c r="P83">
+        <v>-70867346000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1670937720000</v>
+      </c>
+      <c r="B84">
+        <v>1150400</v>
+      </c>
+      <c r="C84">
+        <v>4373600</v>
+      </c>
+      <c r="D84">
+        <v>23100</v>
+      </c>
+      <c r="E84">
+        <v>20770204000</v>
+      </c>
+      <c r="F84">
+        <v>71273093000</v>
+      </c>
+      <c r="G84">
+        <v>326122000</v>
+      </c>
+      <c r="H84">
+        <v>5547100</v>
+      </c>
+      <c r="I84">
+        <v>92369419000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2022-12-13T13:22:00.000Z</v>
+      </c>
+      <c r="K84">
+        <v>6487258328000</v>
+      </c>
+      <c r="L84">
+        <v>382891300</v>
+      </c>
+      <c r="M84">
+        <v>3223200</v>
+      </c>
+      <c r="N84">
+        <v>50502889000</v>
+      </c>
+      <c r="O84">
+        <v>-14707400</v>
+      </c>
+      <c r="P84">
+        <v>-20364457000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1670937840000</v>
+      </c>
+      <c r="B85">
+        <v>1610600</v>
+      </c>
+      <c r="C85">
+        <v>4681200</v>
+      </c>
+      <c r="D85">
+        <v>5500</v>
+      </c>
+      <c r="E85">
+        <v>27583380000</v>
+      </c>
+      <c r="F85">
+        <v>72455919000</v>
+      </c>
+      <c r="G85">
+        <v>78359000</v>
+      </c>
+      <c r="H85">
+        <v>6297300</v>
+      </c>
+      <c r="I85">
+        <v>100117658000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2022-12-13T13:24:00.000Z</v>
+      </c>
+      <c r="K85">
+        <v>6587375986000</v>
+      </c>
+      <c r="L85">
+        <v>389188600</v>
+      </c>
+      <c r="M85">
+        <v>3070600</v>
+      </c>
+      <c r="N85">
+        <v>44872539000</v>
+      </c>
+      <c r="O85">
+        <v>-11636800</v>
+      </c>
+      <c r="P85">
+        <v>24508082000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1670937960000</v>
+      </c>
+      <c r="B86">
+        <v>1477000</v>
+      </c>
+      <c r="C86">
+        <v>5880100</v>
+      </c>
+      <c r="D86">
+        <v>8000</v>
+      </c>
+      <c r="E86">
+        <v>23218685000</v>
+      </c>
+      <c r="F86">
+        <v>107775134000</v>
+      </c>
+      <c r="G86">
+        <v>202982000</v>
+      </c>
+      <c r="H86">
+        <v>7365100</v>
+      </c>
+      <c r="I86">
+        <v>131196801000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2022-12-13T13:26:00.000Z</v>
+      </c>
+      <c r="K86">
+        <v>6718572787000</v>
+      </c>
+      <c r="L86">
+        <v>396553700</v>
+      </c>
+      <c r="M86">
+        <v>4403100</v>
+      </c>
+      <c r="N86">
+        <v>84556449000</v>
+      </c>
+      <c r="O86">
+        <v>-7233700</v>
+      </c>
+      <c r="P86">
+        <v>109064531000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1670938080000</v>
+      </c>
+      <c r="B87">
+        <v>1141800</v>
+      </c>
+      <c r="C87">
+        <v>7110300</v>
+      </c>
+      <c r="D87">
+        <v>83400</v>
+      </c>
+      <c r="E87">
+        <v>23889674000</v>
+      </c>
+      <c r="F87">
+        <v>121296798000</v>
+      </c>
+      <c r="G87">
+        <v>1722145000</v>
+      </c>
+      <c r="H87">
+        <v>8335500</v>
+      </c>
+      <c r="I87">
+        <v>146908617000</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2022-12-13T13:28:00.000Z</v>
+      </c>
+      <c r="K87">
+        <v>6865481404000</v>
+      </c>
+      <c r="L87">
+        <v>404889200</v>
+      </c>
+      <c r="M87">
+        <v>5968500</v>
+      </c>
+      <c r="N87">
+        <v>97407124000</v>
+      </c>
+      <c r="O87">
+        <v>-1265200</v>
+      </c>
+      <c r="P87">
+        <v>206471655000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1670938200000</v>
+      </c>
+      <c r="B88">
+        <v>2535300</v>
+      </c>
+      <c r="C88">
+        <v>7078500</v>
+      </c>
+      <c r="D88">
+        <v>12400</v>
+      </c>
+      <c r="E88">
+        <v>43690722000</v>
+      </c>
+      <c r="F88">
+        <v>118470701000</v>
+      </c>
+      <c r="G88">
+        <v>242539000</v>
+      </c>
+      <c r="H88">
+        <v>9626200</v>
+      </c>
+      <c r="I88">
+        <v>162403962000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2022-12-13T13:30:00.000Z</v>
+      </c>
+      <c r="K88">
+        <v>7027885366000</v>
+      </c>
+      <c r="L88">
+        <v>414515400</v>
+      </c>
+      <c r="M88">
+        <v>4543200</v>
+      </c>
+      <c r="N88">
+        <v>74779979000</v>
+      </c>
+      <c r="O88">
+        <v>3278000</v>
+      </c>
+      <c r="P88">
+        <v>281251634000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1670938320000</v>
+      </c>
+      <c r="B89">
+        <v>3754300</v>
+      </c>
+      <c r="C89">
+        <v>9311500</v>
+      </c>
+      <c r="D89">
+        <v>31200</v>
+      </c>
+      <c r="E89">
+        <v>56070305000</v>
+      </c>
+      <c r="F89">
+        <v>131768592000</v>
+      </c>
+      <c r="G89">
+        <v>472090000</v>
+      </c>
+      <c r="H89">
+        <v>13097000</v>
+      </c>
+      <c r="I89">
+        <v>188310987000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2022-12-13T13:32:00.000Z</v>
+      </c>
+      <c r="K89">
+        <v>7216196353000</v>
+      </c>
+      <c r="L89">
+        <v>427612400</v>
+      </c>
+      <c r="M89">
+        <v>5557200</v>
+      </c>
+      <c r="N89">
+        <v>75698287000</v>
+      </c>
+      <c r="O89">
+        <v>8835200</v>
+      </c>
+      <c r="P89">
+        <v>356949921000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1670938440000</v>
+      </c>
+      <c r="B90">
+        <v>3884600</v>
+      </c>
+      <c r="C90">
+        <v>2741600</v>
+      </c>
+      <c r="D90">
+        <v>63900</v>
+      </c>
+      <c r="E90">
+        <v>63268744000</v>
+      </c>
+      <c r="F90">
+        <v>49480002000</v>
+      </c>
+      <c r="G90">
+        <v>1016463000</v>
+      </c>
+      <c r="H90">
+        <v>6690100</v>
+      </c>
+      <c r="I90">
+        <v>113765209000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2022-12-13T13:34:00.000Z</v>
+      </c>
+      <c r="K90">
+        <v>7329961562000</v>
+      </c>
+      <c r="L90">
+        <v>434302500</v>
+      </c>
+      <c r="M90">
+        <v>-1143000</v>
+      </c>
+      <c r="N90">
+        <v>-13788742000</v>
+      </c>
+      <c r="O90">
+        <v>7692200</v>
+      </c>
+      <c r="P90">
+        <v>343161179000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1670938560000</v>
+      </c>
+      <c r="B91">
+        <v>4162300</v>
+      </c>
+      <c r="C91">
+        <v>1878500</v>
+      </c>
+      <c r="D91">
+        <v>26200</v>
+      </c>
+      <c r="E91">
+        <v>67259936000</v>
+      </c>
+      <c r="F91">
+        <v>31941340000</v>
+      </c>
+      <c r="G91">
+        <v>378779000</v>
+      </c>
+      <c r="H91">
+        <v>6067000</v>
+      </c>
+      <c r="I91">
+        <v>99580055000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2022-12-13T13:36:00.000Z</v>
+      </c>
+      <c r="K91">
+        <v>7429541617000</v>
+      </c>
+      <c r="L91">
+        <v>440369500</v>
+      </c>
+      <c r="M91">
+        <v>-2283800</v>
+      </c>
+      <c r="N91">
+        <v>-35318596000</v>
+      </c>
+      <c r="O91">
+        <v>5408400</v>
+      </c>
+      <c r="P91">
+        <v>307842583000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1670938680000</v>
+      </c>
+      <c r="B92">
+        <v>3977300</v>
+      </c>
+      <c r="C92">
+        <v>1381500</v>
+      </c>
+      <c r="D92">
+        <v>57900</v>
+      </c>
+      <c r="E92">
+        <v>65736956000</v>
+      </c>
+      <c r="F92">
+        <v>24252717000</v>
+      </c>
+      <c r="G92">
+        <v>1110039000</v>
+      </c>
+      <c r="H92">
+        <v>5416700</v>
+      </c>
+      <c r="I92">
+        <v>91099712000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2022-12-13T13:38:00.000Z</v>
+      </c>
+      <c r="K92">
+        <v>7520641329000</v>
+      </c>
+      <c r="L92">
+        <v>445786200</v>
+      </c>
+      <c r="M92">
+        <v>-2595800</v>
+      </c>
+      <c r="N92">
+        <v>-41484239000</v>
+      </c>
+      <c r="O92">
+        <v>2812600</v>
+      </c>
+      <c r="P92">
+        <v>266358344000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1670938800000</v>
+      </c>
+      <c r="B93">
+        <v>2232800</v>
+      </c>
+      <c r="C93">
+        <v>1977300</v>
+      </c>
+      <c r="D93">
+        <v>22000</v>
+      </c>
+      <c r="E93">
+        <v>41168529000</v>
+      </c>
+      <c r="F93">
+        <v>31881034000</v>
+      </c>
+      <c r="G93">
+        <v>227832000</v>
+      </c>
+      <c r="H93">
+        <v>4232100</v>
+      </c>
+      <c r="I93">
+        <v>73277395000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2022-12-13T13:40:00.000Z</v>
+      </c>
+      <c r="K93">
+        <v>7593918724000</v>
+      </c>
+      <c r="L93">
+        <v>450018300</v>
+      </c>
+      <c r="M93">
+        <v>-255500</v>
+      </c>
+      <c r="N93">
+        <v>-9287495000</v>
+      </c>
+      <c r="O93">
+        <v>2557100</v>
+      </c>
+      <c r="P93">
+        <v>257070849000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1670938920000</v>
+      </c>
+      <c r="B94">
+        <v>2547500</v>
+      </c>
+      <c r="C94">
+        <v>1525700</v>
+      </c>
+      <c r="D94">
+        <v>8700</v>
+      </c>
+      <c r="E94">
+        <v>43841157000</v>
+      </c>
+      <c r="F94">
+        <v>31286841000</v>
+      </c>
+      <c r="G94">
+        <v>113990000</v>
+      </c>
+      <c r="H94">
+        <v>4081900</v>
+      </c>
+      <c r="I94">
+        <v>75241988000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2022-12-13T13:42:00.000Z</v>
+      </c>
+      <c r="K94">
+        <v>7669160712000</v>
+      </c>
+      <c r="L94">
+        <v>454100200</v>
+      </c>
+      <c r="M94">
+        <v>-1021800</v>
+      </c>
+      <c r="N94">
+        <v>-12554316000</v>
+      </c>
+      <c r="O94">
+        <v>1535300</v>
+      </c>
+      <c r="P94">
+        <v>244516533000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1670939040000</v>
+      </c>
+      <c r="B95">
+        <v>1603600</v>
+      </c>
+      <c r="C95">
+        <v>2511600</v>
+      </c>
+      <c r="D95">
+        <v>15300</v>
+      </c>
+      <c r="E95">
+        <v>24578797000</v>
+      </c>
+      <c r="F95">
+        <v>48649834000</v>
+      </c>
+      <c r="G95">
+        <v>176529000</v>
+      </c>
+      <c r="H95">
+        <v>4130500</v>
+      </c>
+      <c r="I95">
+        <v>73405160000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2022-12-13T13:44:00.000Z</v>
+      </c>
+      <c r="K95">
+        <v>7742565872000</v>
+      </c>
+      <c r="L95">
+        <v>458230700</v>
+      </c>
+      <c r="M95">
+        <v>908000</v>
+      </c>
+      <c r="N95">
+        <v>24071037000</v>
+      </c>
+      <c r="O95">
+        <v>2443300</v>
+      </c>
+      <c r="P95">
+        <v>268587570000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1670939160000</v>
+      </c>
+      <c r="B96">
+        <v>2105700</v>
+      </c>
+      <c r="C96">
+        <v>2213500</v>
+      </c>
+      <c r="D96">
+        <v>27100</v>
+      </c>
+      <c r="E96">
+        <v>37088002000</v>
+      </c>
+      <c r="F96">
+        <v>40619788000</v>
+      </c>
+      <c r="G96">
+        <v>326106000</v>
+      </c>
+      <c r="H96">
+        <v>4346300</v>
+      </c>
+      <c r="I96">
+        <v>78033896000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2022-12-13T13:46:00.000Z</v>
+      </c>
+      <c r="K96">
+        <v>7820599768000</v>
+      </c>
+      <c r="L96">
+        <v>462577000</v>
+      </c>
+      <c r="M96">
+        <v>107800</v>
+      </c>
+      <c r="N96">
+        <v>3531786000</v>
+      </c>
+      <c r="O96">
+        <v>2551100</v>
+      </c>
+      <c r="P96">
+        <v>272119356000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1670939280000</v>
+      </c>
+      <c r="B97">
+        <v>4225000</v>
+      </c>
+      <c r="C97">
+        <v>1731600</v>
+      </c>
+      <c r="D97">
+        <v>51300</v>
+      </c>
+      <c r="E97">
+        <v>77793154000</v>
+      </c>
+      <c r="F97">
+        <v>29828396000</v>
+      </c>
+      <c r="G97">
+        <v>1286478000</v>
+      </c>
+      <c r="H97">
+        <v>6007900</v>
+      </c>
+      <c r="I97">
+        <v>108908028000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2022-12-13T13:48:00.000Z</v>
+      </c>
+      <c r="K97">
+        <v>7929507796000</v>
+      </c>
+      <c r="L97">
+        <v>468584900</v>
+      </c>
+      <c r="M97">
+        <v>-2493400</v>
+      </c>
+      <c r="N97">
+        <v>-47964758000</v>
+      </c>
+      <c r="O97">
+        <v>57700</v>
+      </c>
+      <c r="P97">
+        <v>224154598000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1670939400000</v>
+      </c>
+      <c r="B98">
+        <v>5931300</v>
+      </c>
+      <c r="C98">
+        <v>1660100</v>
+      </c>
+      <c r="D98">
+        <v>27400</v>
+      </c>
+      <c r="E98">
+        <v>99471843000</v>
+      </c>
+      <c r="F98">
+        <v>34238552000</v>
+      </c>
+      <c r="G98">
+        <v>430892000</v>
+      </c>
+      <c r="H98">
+        <v>7618800</v>
+      </c>
+      <c r="I98">
+        <v>134141287000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2022-12-13T13:50:00.000Z</v>
+      </c>
+      <c r="K98">
+        <v>8063649083000</v>
+      </c>
+      <c r="L98">
+        <v>476203700</v>
+      </c>
+      <c r="M98">
+        <v>-4271200</v>
+      </c>
+      <c r="N98">
+        <v>-65233291000</v>
+      </c>
+      <c r="O98">
+        <v>-4213500</v>
+      </c>
+      <c r="P98">
+        <v>158921307000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1670939520000</v>
+      </c>
+      <c r="B99">
+        <v>2678000</v>
+      </c>
+      <c r="C99">
+        <v>3224400</v>
+      </c>
+      <c r="D99">
+        <v>23700</v>
+      </c>
+      <c r="E99">
+        <v>42501659000</v>
+      </c>
+      <c r="F99">
+        <v>67256856000</v>
+      </c>
+      <c r="G99">
+        <v>289796000</v>
+      </c>
+      <c r="H99">
+        <v>5926100</v>
+      </c>
+      <c r="I99">
+        <v>110048311000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2022-12-13T13:52:00.000Z</v>
+      </c>
+      <c r="K99">
+        <v>8173697394000</v>
+      </c>
+      <c r="L99">
+        <v>482129800</v>
+      </c>
+      <c r="M99">
+        <v>546400</v>
+      </c>
+      <c r="N99">
+        <v>24755197000</v>
+      </c>
+      <c r="O99">
+        <v>-3667100</v>
+      </c>
+      <c r="P99">
+        <v>183676504000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1670939640000</v>
+      </c>
+      <c r="B100">
+        <v>1558100</v>
+      </c>
+      <c r="C100">
+        <v>1822700</v>
+      </c>
+      <c r="D100">
+        <v>25200</v>
+      </c>
+      <c r="E100">
+        <v>29222199000</v>
+      </c>
+      <c r="F100">
+        <v>32493031000</v>
+      </c>
+      <c r="G100">
+        <v>366080000</v>
+      </c>
+      <c r="H100">
+        <v>3406000</v>
+      </c>
+      <c r="I100">
+        <v>62081310000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>2022-12-13T13:54:00.000Z</v>
+      </c>
+      <c r="K100">
+        <v>8235778704000</v>
+      </c>
+      <c r="L100">
+        <v>485535800</v>
+      </c>
+      <c r="M100">
+        <v>264600</v>
+      </c>
+      <c r="N100">
+        <v>3270832000</v>
+      </c>
+      <c r="O100">
+        <v>-3402500</v>
+      </c>
+      <c r="P100">
+        <v>186947336000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1670939760000</v>
+      </c>
+      <c r="B101">
+        <v>3026700</v>
+      </c>
+      <c r="C101">
+        <v>1428700</v>
+      </c>
+      <c r="D101">
+        <v>10600</v>
+      </c>
+      <c r="E101">
+        <v>59746584000</v>
+      </c>
+      <c r="F101">
+        <v>30910625000</v>
+      </c>
+      <c r="G101">
+        <v>387165000</v>
+      </c>
+      <c r="H101">
+        <v>4466000</v>
+      </c>
+      <c r="I101">
+        <v>91044374000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2022-12-13T13:56:00.000Z</v>
+      </c>
+      <c r="K101">
+        <v>8326823078000</v>
+      </c>
+      <c r="L101">
+        <v>490001800</v>
+      </c>
+      <c r="M101">
+        <v>-1598000</v>
+      </c>
+      <c r="N101">
+        <v>-28835959000</v>
+      </c>
+      <c r="O101">
+        <v>-5000500</v>
+      </c>
+      <c r="P101">
+        <v>158111377000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1670939880000</v>
+      </c>
+      <c r="B102">
+        <v>2216000</v>
+      </c>
+      <c r="C102">
+        <v>2162300</v>
+      </c>
+      <c r="D102">
+        <v>8300</v>
+      </c>
+      <c r="E102">
+        <v>41735362000</v>
+      </c>
+      <c r="F102">
+        <v>43501564000</v>
+      </c>
+      <c r="G102">
+        <v>178498000</v>
+      </c>
+      <c r="H102">
+        <v>4386600</v>
+      </c>
+      <c r="I102">
+        <v>85415424000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>2022-12-13T13:58:00.000Z</v>
+      </c>
+      <c r="K102">
+        <v>8412238502000</v>
+      </c>
+      <c r="L102">
+        <v>494388400</v>
+      </c>
+      <c r="M102">
+        <v>-53700</v>
+      </c>
+      <c r="N102">
+        <v>1766202000</v>
+      </c>
+      <c r="O102">
+        <v>-5054200</v>
+      </c>
+      <c r="P102">
+        <v>159877579000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1670940000000</v>
+      </c>
+      <c r="B103">
+        <v>1903800</v>
+      </c>
+      <c r="C103">
+        <v>1700500</v>
+      </c>
+      <c r="D103">
+        <v>27900</v>
+      </c>
+      <c r="E103">
+        <v>35569469000</v>
+      </c>
+      <c r="F103">
+        <v>36672373000</v>
+      </c>
+      <c r="G103">
+        <v>463639000</v>
+      </c>
+      <c r="H103">
+        <v>3632200</v>
+      </c>
+      <c r="I103">
+        <v>72705481000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2022-12-13T14:00:00.000Z</v>
+      </c>
+      <c r="K103">
+        <v>8484943983000</v>
+      </c>
+      <c r="L103">
+        <v>498020600</v>
+      </c>
+      <c r="M103">
+        <v>-203300</v>
+      </c>
+      <c r="N103">
+        <v>1102904000</v>
+      </c>
+      <c r="O103">
+        <v>-5257500</v>
+      </c>
+      <c r="P103">
+        <v>160980483000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1670940120000</v>
+      </c>
+      <c r="B104">
+        <v>1843700</v>
+      </c>
+      <c r="C104">
+        <v>2708100</v>
+      </c>
+      <c r="D104">
+        <v>6100</v>
+      </c>
+      <c r="E104">
+        <v>36955576000</v>
+      </c>
+      <c r="F104">
+        <v>54166225000</v>
+      </c>
+      <c r="G104">
+        <v>109890000</v>
+      </c>
+      <c r="H104">
+        <v>4557900</v>
+      </c>
+      <c r="I104">
+        <v>91231691000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>2022-12-13T14:02:00.000Z</v>
+      </c>
+      <c r="K104">
+        <v>8576175674000</v>
+      </c>
+      <c r="L104">
+        <v>502578500</v>
+      </c>
+      <c r="M104">
+        <v>864400</v>
+      </c>
+      <c r="N104">
+        <v>17210649000</v>
+      </c>
+      <c r="O104">
+        <v>-4393100</v>
+      </c>
+      <c r="P104">
+        <v>178191132000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1670940240000</v>
+      </c>
+      <c r="B105">
+        <v>4599000</v>
+      </c>
+      <c r="C105">
+        <v>1947500</v>
+      </c>
+      <c r="D105">
+        <v>23300</v>
+      </c>
+      <c r="E105">
+        <v>83730198000</v>
+      </c>
+      <c r="F105">
+        <v>39875268000</v>
+      </c>
+      <c r="G105">
+        <v>386017000</v>
+      </c>
+      <c r="H105">
+        <v>6569800</v>
+      </c>
+      <c r="I105">
+        <v>123991483000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>2022-12-13T14:04:00.000Z</v>
+      </c>
+      <c r="K105">
+        <v>8700167157000</v>
+      </c>
+      <c r="L105">
+        <v>509148300</v>
+      </c>
+      <c r="M105">
+        <v>-2651500</v>
+      </c>
+      <c r="N105">
+        <v>-43854930000</v>
+      </c>
+      <c r="O105">
+        <v>-7044600</v>
+      </c>
+      <c r="P105">
+        <v>134336202000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1670940360000</v>
+      </c>
+      <c r="B106">
+        <v>2833200</v>
+      </c>
+      <c r="C106">
+        <v>1975300</v>
+      </c>
+      <c r="D106">
+        <v>27300</v>
+      </c>
+      <c r="E106">
+        <v>50638110000</v>
+      </c>
+      <c r="F106">
+        <v>39090252000</v>
+      </c>
+      <c r="G106">
+        <v>463643000</v>
+      </c>
+      <c r="H106">
+        <v>4835800</v>
+      </c>
+      <c r="I106">
+        <v>90192005000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>2022-12-13T14:06:00.000Z</v>
+      </c>
+      <c r="K106">
+        <v>8790359162000</v>
+      </c>
+      <c r="L106">
+        <v>513984100</v>
+      </c>
+      <c r="M106">
+        <v>-857900</v>
+      </c>
+      <c r="N106">
+        <v>-11547858000</v>
+      </c>
+      <c r="O106">
+        <v>-7902500</v>
+      </c>
+      <c r="P106">
+        <v>122788344000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1670940480000</v>
+      </c>
+      <c r="B107">
+        <v>7123000</v>
+      </c>
+      <c r="C107">
+        <v>2394800</v>
+      </c>
+      <c r="D107">
+        <v>64000</v>
+      </c>
+      <c r="E107">
+        <v>107998722000</v>
+      </c>
+      <c r="F107">
+        <v>39215477000</v>
+      </c>
+      <c r="G107">
+        <v>596133000</v>
+      </c>
+      <c r="H107">
+        <v>9581800</v>
+      </c>
+      <c r="I107">
+        <v>147810332000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>2022-12-13T14:08:00.000Z</v>
+      </c>
+      <c r="K107">
+        <v>8938169494000</v>
+      </c>
+      <c r="L107">
+        <v>523565900</v>
+      </c>
+      <c r="M107">
+        <v>-4728200</v>
+      </c>
+      <c r="N107">
+        <v>-68783245000</v>
+      </c>
+      <c r="O107">
+        <v>-12630700</v>
+      </c>
+      <c r="P107">
+        <v>54005099000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1670940600000</v>
+      </c>
+      <c r="B108">
+        <v>14314400</v>
+      </c>
+      <c r="C108">
+        <v>2529000</v>
+      </c>
+      <c r="D108">
+        <v>71300</v>
+      </c>
+      <c r="E108">
+        <v>214922224000</v>
+      </c>
+      <c r="F108">
+        <v>43015047000</v>
+      </c>
+      <c r="G108">
+        <v>937223000</v>
+      </c>
+      <c r="H108">
+        <v>16914700</v>
+      </c>
+      <c r="I108">
+        <v>258874494000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>2022-12-13T14:10:00.000Z</v>
+      </c>
+      <c r="K108">
+        <v>9197043988000</v>
+      </c>
+      <c r="L108">
+        <v>540480600</v>
+      </c>
+      <c r="M108">
+        <v>-11785400</v>
+      </c>
+      <c r="N108">
+        <v>-171907177000</v>
+      </c>
+      <c r="O108">
+        <v>-24416100</v>
+      </c>
+      <c r="P108">
+        <v>-117902078000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1670940720000</v>
+      </c>
+      <c r="B109">
+        <v>9001600</v>
+      </c>
+      <c r="C109">
+        <v>3970800</v>
+      </c>
+      <c r="D109">
+        <v>94600</v>
+      </c>
+      <c r="E109">
+        <v>133382527000</v>
+      </c>
+      <c r="F109">
+        <v>74487859000</v>
+      </c>
+      <c r="G109">
+        <v>1849112000</v>
+      </c>
+      <c r="H109">
+        <v>13067000</v>
+      </c>
+      <c r="I109">
+        <v>209719498000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>2022-12-13T14:12:00.000Z</v>
+      </c>
+      <c r="K109">
+        <v>9406763486000</v>
+      </c>
+      <c r="L109">
+        <v>553547600</v>
+      </c>
+      <c r="M109">
+        <v>-5030800</v>
+      </c>
+      <c r="N109">
+        <v>-58894668000</v>
+      </c>
+      <c r="O109">
+        <v>-29446900</v>
+      </c>
+      <c r="P109">
+        <v>-176796746000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1670940840000</v>
+      </c>
+      <c r="B110">
+        <v>2287600</v>
+      </c>
+      <c r="C110">
+        <v>4770100</v>
+      </c>
+      <c r="D110">
+        <v>22800</v>
+      </c>
+      <c r="E110">
+        <v>34357759000</v>
+      </c>
+      <c r="F110">
+        <v>79730157000</v>
+      </c>
+      <c r="G110">
+        <v>577700000</v>
+      </c>
+      <c r="H110">
+        <v>7080500</v>
+      </c>
+      <c r="I110">
+        <v>114665616000</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2022-12-13T14:14:00.000Z</v>
+      </c>
+      <c r="K110">
+        <v>9521429102000</v>
+      </c>
+      <c r="L110">
+        <v>560628100</v>
+      </c>
+      <c r="M110">
+        <v>2482500</v>
+      </c>
+      <c r="N110">
+        <v>45372398000</v>
+      </c>
+      <c r="O110">
+        <v>-26964400</v>
+      </c>
+      <c r="P110">
+        <v>-131424348000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1670940960000</v>
+      </c>
+      <c r="B111">
+        <v>1664200</v>
+      </c>
+      <c r="C111">
+        <v>5438400</v>
+      </c>
+      <c r="D111">
+        <v>47400</v>
+      </c>
+      <c r="E111">
+        <v>31568928000</v>
+      </c>
+      <c r="F111">
+        <v>97649514000</v>
+      </c>
+      <c r="G111">
+        <v>626059000</v>
+      </c>
+      <c r="H111">
+        <v>7150000</v>
+      </c>
+      <c r="I111">
+        <v>129844501000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>2022-12-13T14:16:00.000Z</v>
+      </c>
+      <c r="K111">
+        <v>9651273603000</v>
+      </c>
+      <c r="L111">
+        <v>567778100</v>
+      </c>
+      <c r="M111">
+        <v>3774200</v>
+      </c>
+      <c r="N111">
+        <v>66080586000</v>
+      </c>
+      <c r="O111">
+        <v>-23190200</v>
+      </c>
+      <c r="P111">
+        <v>-65343762000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1670941080000</v>
+      </c>
+      <c r="B112">
+        <v>1183000</v>
+      </c>
+      <c r="C112">
+        <v>6078600</v>
+      </c>
+      <c r="D112">
+        <v>10300</v>
+      </c>
+      <c r="E112">
+        <v>21998977000</v>
+      </c>
+      <c r="F112">
+        <v>110759036000</v>
+      </c>
+      <c r="G112">
+        <v>172494000</v>
+      </c>
+      <c r="H112">
+        <v>7271900</v>
+      </c>
+      <c r="I112">
+        <v>132930507000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>2022-12-13T14:18:00.000Z</v>
+      </c>
+      <c r="K112">
+        <v>9784204110000</v>
+      </c>
+      <c r="L112">
+        <v>575050000</v>
+      </c>
+      <c r="M112">
+        <v>4895600</v>
+      </c>
+      <c r="N112">
+        <v>88760059000</v>
+      </c>
+      <c r="O112">
+        <v>-18294600</v>
+      </c>
+      <c r="P112">
+        <v>23416297000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1670941200000</v>
+      </c>
+      <c r="B113">
+        <v>1869900</v>
+      </c>
+      <c r="C113">
+        <v>8595400</v>
+      </c>
+      <c r="D113">
+        <v>39500</v>
+      </c>
+      <c r="E113">
+        <v>33078839000</v>
+      </c>
+      <c r="F113">
+        <v>170741545000</v>
+      </c>
+      <c r="G113">
+        <v>539027000</v>
+      </c>
+      <c r="H113">
+        <v>10504800</v>
+      </c>
+      <c r="I113">
+        <v>204359411000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2022-12-13T14:20:00.000Z</v>
+      </c>
+      <c r="K113">
+        <v>9988563521000</v>
+      </c>
+      <c r="L113">
+        <v>585554800</v>
+      </c>
+      <c r="M113">
+        <v>6725500</v>
+      </c>
+      <c r="N113">
+        <v>137662706000</v>
+      </c>
+      <c r="O113">
+        <v>-11569100</v>
+      </c>
+      <c r="P113">
+        <v>161079003000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1670941320000</v>
+      </c>
+      <c r="B114">
+        <v>2421600</v>
+      </c>
+      <c r="C114">
+        <v>11709300</v>
+      </c>
+      <c r="D114">
+        <v>131100</v>
+      </c>
+      <c r="E114">
+        <v>41296705000</v>
+      </c>
+      <c r="F114">
+        <v>200532702000</v>
+      </c>
+      <c r="G114">
+        <v>2464344000</v>
+      </c>
+      <c r="H114">
+        <v>14262000</v>
+      </c>
+      <c r="I114">
+        <v>244293751000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2022-12-13T14:22:00.000Z</v>
+      </c>
+      <c r="K114">
+        <v>10232857272000</v>
+      </c>
+      <c r="L114">
+        <v>599816800</v>
+      </c>
+      <c r="M114">
+        <v>9287700</v>
+      </c>
+      <c r="N114">
+        <v>159235997000</v>
+      </c>
+      <c r="O114">
+        <v>-2281400</v>
+      </c>
+      <c r="P114">
+        <v>320315000000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1670941440000</v>
+      </c>
+      <c r="B115">
+        <v>3320600</v>
+      </c>
+      <c r="C115">
+        <v>12741800</v>
+      </c>
+      <c r="D115">
+        <v>147400</v>
+      </c>
+      <c r="E115">
+        <v>52783655000</v>
+      </c>
+      <c r="F115">
+        <v>178543392000</v>
+      </c>
+      <c r="G115">
+        <v>1965089000</v>
+      </c>
+      <c r="H115">
+        <v>16209800</v>
+      </c>
+      <c r="I115">
+        <v>233292136000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>2022-12-13T14:24:00.000Z</v>
+      </c>
+      <c r="K115">
+        <v>10466149408000</v>
+      </c>
+      <c r="L115">
+        <v>616026600</v>
+      </c>
+      <c r="M115">
+        <v>9421200</v>
+      </c>
+      <c r="N115">
+        <v>125759737000</v>
+      </c>
+      <c r="O115">
+        <v>7139800</v>
+      </c>
+      <c r="P115">
+        <v>446074737000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1670941560000</v>
+      </c>
+      <c r="B116">
+        <v>4024200</v>
+      </c>
+      <c r="C116">
+        <v>13741200</v>
+      </c>
+      <c r="D116">
+        <v>68900</v>
+      </c>
+      <c r="E116">
+        <v>57751853000</v>
+      </c>
+      <c r="F116">
+        <v>205148047000</v>
+      </c>
+      <c r="G116">
+        <v>964898000</v>
+      </c>
+      <c r="H116">
+        <v>17834300</v>
+      </c>
+      <c r="I116">
+        <v>263864798000</v>
+      </c>
+      <c r="J116" t="str">
+        <v>2022-12-13T14:26:00.000Z</v>
+      </c>
+      <c r="K116">
+        <v>10730014206000</v>
+      </c>
+      <c r="L116">
+        <v>633860900</v>
+      </c>
+      <c r="M116">
+        <v>9717000</v>
+      </c>
+      <c r="N116">
+        <v>147396194000</v>
+      </c>
+      <c r="O116">
+        <v>16856800</v>
+      </c>
+      <c r="P116">
+        <v>593470931000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>1670941680000</v>
+      </c>
+      <c r="B117">
+        <v>3365300</v>
+      </c>
+      <c r="C117">
+        <v>10320000</v>
+      </c>
+      <c r="D117">
+        <v>117900</v>
+      </c>
+      <c r="E117">
+        <v>54101421000</v>
+      </c>
+      <c r="F117">
+        <v>176957422000</v>
+      </c>
+      <c r="G117">
+        <v>1622992000</v>
+      </c>
+      <c r="H117">
+        <v>13803200</v>
+      </c>
+      <c r="I117">
+        <v>232681835000</v>
+      </c>
+      <c r="J117" t="str">
+        <v>2022-12-13T14:28:00.000Z</v>
+      </c>
+      <c r="K117">
+        <v>10962696041000</v>
+      </c>
+      <c r="L117">
+        <v>647664100</v>
+      </c>
+      <c r="M117">
+        <v>6954700</v>
+      </c>
+      <c r="N117">
+        <v>122856001000</v>
+      </c>
+      <c r="O117">
+        <v>23811500</v>
+      </c>
+      <c r="P117">
+        <v>716326932000</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>1670941800000</v>
+      </c>
+      <c r="B118">
+        <v>1100</v>
+      </c>
+      <c r="C118">
+        <v>53300</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>13041000</v>
+      </c>
+      <c r="F118">
+        <v>1014903000</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>54400</v>
+      </c>
+      <c r="I118">
+        <v>1027944000</v>
+      </c>
+      <c r="J118" t="str">
+        <v>2022-12-13T14:30:00.000Z</v>
+      </c>
+      <c r="K118">
+        <v>10963723985000</v>
+      </c>
+      <c r="L118">
+        <v>647718500</v>
+      </c>
+      <c r="M118">
+        <v>52200</v>
+      </c>
+      <c r="N118">
+        <v>1001862000</v>
+      </c>
+      <c r="O118">
+        <v>23863700</v>
+      </c>
+      <c r="P118">
+        <v>717328794000</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>1670942160000</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>100</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>1019999.9999999999</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>100</v>
+      </c>
+      <c r="I119">
+        <v>1019999.9999999999</v>
+      </c>
+      <c r="J119" t="str">
+        <v>2022-12-13T14:36:00.000Z</v>
+      </c>
+      <c r="K119">
+        <v>10963725005000</v>
+      </c>
+      <c r="L119">
+        <v>647718600</v>
+      </c>
+      <c r="M119">
+        <v>100</v>
+      </c>
+      <c r="N119">
+        <v>1019999.9999999999</v>
+      </c>
+      <c r="O119">
+        <v>23863800</v>
+      </c>
+      <c r="P119">
+        <v>717329814000</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>1670942280000</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>500</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>5100000</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>500</v>
+      </c>
+      <c r="I120">
+        <v>5100000</v>
+      </c>
+      <c r="J120" t="str">
+        <v>2022-12-13T14:38:00.000Z</v>
+      </c>
+      <c r="K120">
+        <v>10963730105000</v>
+      </c>
+      <c r="L120">
+        <v>647719100</v>
+      </c>
+      <c r="M120">
+        <v>500</v>
+      </c>
+      <c r="N120">
+        <v>5100000</v>
+      </c>
+      <c r="O120">
+        <v>23864300</v>
+      </c>
+      <c r="P120">
+        <v>717334914000</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>1670942640000</v>
+      </c>
+      <c r="B121">
+        <v>5196700</v>
+      </c>
+      <c r="C121">
+        <v>15786600</v>
+      </c>
+      <c r="D121">
+        <v>33067300</v>
+      </c>
+      <c r="E121">
+        <v>152817105000</v>
+      </c>
+      <c r="F121">
+        <v>298891010000</v>
+      </c>
+      <c r="G121">
+        <v>593512007000</v>
+      </c>
+      <c r="H121">
+        <v>54050600</v>
+      </c>
+      <c r="I121">
+        <v>1045220122000</v>
+      </c>
+      <c r="J121" t="str">
+        <v>2022-12-13T14:44:00.000Z</v>
+      </c>
+      <c r="K121">
+        <v>12008950227000</v>
+      </c>
+      <c r="L121">
+        <v>701769700</v>
+      </c>
+      <c r="M121">
+        <v>10589900</v>
+      </c>
+      <c r="N121">
+        <v>146073905000</v>
+      </c>
+      <c r="O121">
+        <v>34454200</v>
+      </c>
+      <c r="P121">
+        <v>863408819000</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>1670942760000</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>1400</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>14140000</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>1400</v>
+      </c>
+      <c r="I122">
+        <v>14140000</v>
+      </c>
+      <c r="J122" t="str">
+        <v>2022-12-13T14:46:00.000Z</v>
+      </c>
+      <c r="K122">
+        <v>12008964367000</v>
+      </c>
+      <c r="L122">
+        <v>701771100</v>
+      </c>
+      <c r="M122">
+        <v>1400</v>
+      </c>
+      <c r="N122">
+        <v>14140000</v>
+      </c>
+      <c r="O122">
+        <v>34455600</v>
+      </c>
+      <c r="P122">
+        <v>863422959000</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>1670942880000</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>2600</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>26260000</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>2600</v>
+      </c>
+      <c r="I123">
+        <v>26260000</v>
+      </c>
+      <c r="J123" t="str">
+        <v>2022-12-13T14:48:00.000Z</v>
+      </c>
+      <c r="K123">
+        <v>12008990627000</v>
+      </c>
+      <c r="L123">
+        <v>701773700</v>
+      </c>
+      <c r="M123">
+        <v>2600</v>
+      </c>
+      <c r="N123">
+        <v>26260000</v>
+      </c>
+      <c r="O123">
+        <v>34458200</v>
+      </c>
+      <c r="P123">
+        <v>863449219000</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>1670943000000</v>
+      </c>
+      <c r="B124">
+        <v>1500</v>
+      </c>
+      <c r="C124">
+        <v>9500</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>15299999.999999998</v>
+      </c>
+      <c r="F124">
+        <v>96800000</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>11000</v>
+      </c>
+      <c r="I124">
+        <v>112100000</v>
+      </c>
+      <c r="J124" t="str">
+        <v>2022-12-13T14:50:00.000Z</v>
+      </c>
+      <c r="K124">
+        <v>12009102727000</v>
+      </c>
+      <c r="L124">
+        <v>701784700</v>
+      </c>
+      <c r="M124">
+        <v>8000</v>
+      </c>
+      <c r="N124">
+        <v>81500000</v>
+      </c>
+      <c r="O124">
+        <v>34466200</v>
+      </c>
+      <c r="P124">
+        <v>863530719000</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>1670943120000</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>1000</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>10200000</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>1000</v>
+      </c>
+      <c r="I125">
+        <v>10200000</v>
+      </c>
+      <c r="J125" t="str">
+        <v>2022-12-13T14:52:00.000Z</v>
+      </c>
+      <c r="K125">
+        <v>12009112927000</v>
+      </c>
+      <c r="L125">
+        <v>701785700</v>
+      </c>
+      <c r="M125">
+        <v>1000</v>
+      </c>
+      <c r="N125">
+        <v>10200000</v>
+      </c>
+      <c r="O125">
+        <v>34467200</v>
+      </c>
+      <c r="P125">
+        <v>863540919000</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>1670943480000</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
         <v>700</v>
       </c>
-      <c r="E53">
+      <c r="E126">
         <v>0</v>
       </c>
-      <c r="F53">
+      <c r="F126">
         <v>0</v>
       </c>
-      <c r="G53">
+      <c r="G126">
         <v>7050000</v>
       </c>
-      <c r="H53">
+      <c r="H126">
         <v>700</v>
       </c>
-      <c r="I53">
+      <c r="I126">
         <v>7050000</v>
       </c>
-      <c r="J53" t="str">
-        <v>2022-12-13T14:55:00.000Z</v>
-      </c>
-      <c r="K53">
+      <c r="J126" t="str">
+        <v>2022-12-13T14:58:00.000Z</v>
+      </c>
+      <c r="K126">
         <v>12009119977000</v>
       </c>
-      <c r="L53">
+      <c r="L126">
         <v>701786400</v>
       </c>
-      <c r="M53">
+      <c r="M126">
         <v>0</v>
       </c>
-      <c r="N53">
+      <c r="N126">
         <v>0</v>
       </c>
-      <c r="O53">
+      <c r="O126">
         <v>34467200</v>
       </c>
-      <c r="P53">
+      <c r="P126">
         <v>863540919000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P53"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P126"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20221213/VNINDEX_HOSE_5p_20221213.xlsx
+++ b/name/vnindex/20221213/VNINDEX_HOSE_5p_20221213.xlsx
@@ -566,25 +566,25 @@
         <v>18741400</v>
       </c>
       <c r="E4">
-        <v>46507218000</v>
+        <v>42760768200</v>
       </c>
       <c r="F4">
-        <v>49712881000</v>
+        <v>40189014400</v>
       </c>
       <c r="G4">
-        <v>324848624000</v>
+        <v>93353750600</v>
       </c>
       <c r="H4">
         <v>24760800</v>
       </c>
       <c r="I4">
-        <v>421068723000</v>
+        <v>176303533200</v>
       </c>
       <c r="J4" t="str">
         <v>2022-12-13T09:14:00.000Z</v>
       </c>
       <c r="K4">
-        <v>421082863000</v>
+        <v>176317673200</v>
       </c>
       <c r="L4">
         <v>24762200</v>
@@ -593,13 +593,13 @@
         <v>-373000</v>
       </c>
       <c r="N4">
-        <v>3205663000</v>
+        <v>-2571753800</v>
       </c>
       <c r="O4">
         <v>-372600</v>
       </c>
       <c r="P4">
-        <v>3209703000</v>
+        <v>-2567713800</v>
       </c>
     </row>
     <row r="5">
@@ -616,10 +616,10 @@
         <v>79600</v>
       </c>
       <c r="E5">
-        <v>65972741000</v>
+        <v>62956760000</v>
       </c>
       <c r="F5">
-        <v>62549061000</v>
+        <v>54064953600</v>
       </c>
       <c r="G5">
         <v>1101736000</v>
@@ -628,13 +628,13 @@
         <v>7806300</v>
       </c>
       <c r="I5">
-        <v>129623538000</v>
+        <v>118123449600</v>
       </c>
       <c r="J5" t="str">
         <v>2022-12-13T09:16:00.000Z</v>
       </c>
       <c r="K5">
-        <v>550706401000</v>
+        <v>294441122800</v>
       </c>
       <c r="L5">
         <v>32568500</v>
@@ -643,13 +643,13 @@
         <v>-8500</v>
       </c>
       <c r="N5">
-        <v>-3423680000</v>
+        <v>-8891806400</v>
       </c>
       <c r="O5">
         <v>-381100</v>
       </c>
       <c r="P5">
-        <v>-213977000</v>
+        <v>-11459520200</v>
       </c>
     </row>
     <row r="6">
@@ -666,10 +666,10 @@
         <v>45700</v>
       </c>
       <c r="E6">
-        <v>64699592000</v>
+        <v>61844050400</v>
       </c>
       <c r="F6">
-        <v>55284058000</v>
+        <v>51426219700</v>
       </c>
       <c r="G6">
         <v>737081000</v>
@@ -678,13 +678,13 @@
         <v>7503500</v>
       </c>
       <c r="I6">
-        <v>120720731000</v>
+        <v>114007351100</v>
       </c>
       <c r="J6" t="str">
         <v>2022-12-13T09:18:00.000Z</v>
       </c>
       <c r="K6">
-        <v>671427132000</v>
+        <v>408448473900</v>
       </c>
       <c r="L6">
         <v>40072000</v>
@@ -693,13 +693,13 @@
         <v>-534400</v>
       </c>
       <c r="N6">
-        <v>-9415534000</v>
+        <v>-10417830700</v>
       </c>
       <c r="O6">
         <v>-915500</v>
       </c>
       <c r="P6">
-        <v>-9629511000</v>
+        <v>-21877350900</v>
       </c>
     </row>
     <row r="7">
@@ -716,10 +716,10 @@
         <v>59700</v>
       </c>
       <c r="E7">
-        <v>55270255000</v>
+        <v>49211919400</v>
       </c>
       <c r="F7">
-        <v>42497110000</v>
+        <v>41291416900</v>
       </c>
       <c r="G7">
         <v>892517000</v>
@@ -728,13 +728,13 @@
         <v>6451500</v>
       </c>
       <c r="I7">
-        <v>98659882000</v>
+        <v>91395853300</v>
       </c>
       <c r="J7" t="str">
         <v>2022-12-13T09:20:00.000Z</v>
       </c>
       <c r="K7">
-        <v>770087014000</v>
+        <v>499844327200</v>
       </c>
       <c r="L7">
         <v>46523500</v>
@@ -743,13 +743,13 @@
         <v>-1030400</v>
       </c>
       <c r="N7">
-        <v>-12773145000</v>
+        <v>-7920502500</v>
       </c>
       <c r="O7">
         <v>-1945900</v>
       </c>
       <c r="P7">
-        <v>-22402656000</v>
+        <v>-29797853400</v>
       </c>
     </row>
     <row r="8">
@@ -766,25 +766,25 @@
         <v>138400</v>
       </c>
       <c r="E8">
-        <v>89529153000</v>
+        <v>82335254100</v>
       </c>
       <c r="F8">
-        <v>32036489000</v>
+        <v>30156570800</v>
       </c>
       <c r="G8">
-        <v>2156643000</v>
+        <v>2120279400</v>
       </c>
       <c r="H8">
         <v>7811300</v>
       </c>
       <c r="I8">
-        <v>123722285000</v>
+        <v>114612104300</v>
       </c>
       <c r="J8" t="str">
         <v>2022-12-13T09:22:00.000Z</v>
       </c>
       <c r="K8">
-        <v>893809299000</v>
+        <v>614456431500</v>
       </c>
       <c r="L8">
         <v>54334800</v>
@@ -793,13 +793,13 @@
         <v>-3873100</v>
       </c>
       <c r="N8">
-        <v>-57492664000</v>
+        <v>-52178683300</v>
       </c>
       <c r="O8">
         <v>-5819000</v>
       </c>
       <c r="P8">
-        <v>-79895320000</v>
+        <v>-81976536700</v>
       </c>
     </row>
     <row r="9">
@@ -816,25 +816,25 @@
         <v>108400</v>
       </c>
       <c r="E9">
-        <v>119510745000</v>
+        <v>104969500800</v>
       </c>
       <c r="F9">
-        <v>33235022000</v>
+        <v>29304056900</v>
       </c>
       <c r="G9">
-        <v>1099871000</v>
+        <v>649421900</v>
       </c>
       <c r="H9">
         <v>9807500</v>
       </c>
       <c r="I9">
-        <v>153845638000</v>
+        <v>134922979600</v>
       </c>
       <c r="J9" t="str">
         <v>2022-12-13T09:24:00.000Z</v>
       </c>
       <c r="K9">
-        <v>1047654937000</v>
+        <v>749379411100</v>
       </c>
       <c r="L9">
         <v>64142300</v>
@@ -843,13 +843,13 @@
         <v>-5390100</v>
       </c>
       <c r="N9">
-        <v>-86275723000</v>
+        <v>-75665443900</v>
       </c>
       <c r="O9">
         <v>-11209100</v>
       </c>
       <c r="P9">
-        <v>-166171043000</v>
+        <v>-157641980600</v>
       </c>
     </row>
     <row r="10">
@@ -866,10 +866,10 @@
         <v>45300</v>
       </c>
       <c r="E10">
-        <v>77464762000</v>
+        <v>72907723600</v>
       </c>
       <c r="F10">
-        <v>64290915000</v>
+        <v>57045467700</v>
       </c>
       <c r="G10">
         <v>694577000</v>
@@ -878,13 +878,13 @@
         <v>8770000</v>
       </c>
       <c r="I10">
-        <v>142450254000</v>
+        <v>130647768300</v>
       </c>
       <c r="J10" t="str">
         <v>2022-12-13T09:26:00.000Z</v>
       </c>
       <c r="K10">
-        <v>1190105191000</v>
+        <v>880027179400</v>
       </c>
       <c r="L10">
         <v>72912300</v>
@@ -893,13 +893,13 @@
         <v>-1289500</v>
       </c>
       <c r="N10">
-        <v>-13173847000</v>
+        <v>-15862255900</v>
       </c>
       <c r="O10">
         <v>-12498600</v>
       </c>
       <c r="P10">
-        <v>-179344890000</v>
+        <v>-173504236500</v>
       </c>
     </row>
     <row r="11">
@@ -916,25 +916,25 @@
         <v>40700</v>
       </c>
       <c r="E11">
-        <v>33091650000</v>
+        <v>28854291600</v>
       </c>
       <c r="F11">
-        <v>64861295000</v>
+        <v>57434029700</v>
       </c>
       <c r="G11">
-        <v>513180000</v>
+        <v>419274000</v>
       </c>
       <c r="H11">
         <v>6056100</v>
       </c>
       <c r="I11">
-        <v>98466125000</v>
+        <v>86707595300</v>
       </c>
       <c r="J11" t="str">
         <v>2022-12-13T09:28:00.000Z</v>
       </c>
       <c r="K11">
-        <v>1288571316000</v>
+        <v>966734774700</v>
       </c>
       <c r="L11">
         <v>78968400</v>
@@ -943,13 +943,13 @@
         <v>1847200</v>
       </c>
       <c r="N11">
-        <v>31769645000</v>
+        <v>28579738100</v>
       </c>
       <c r="O11">
         <v>-10651400</v>
       </c>
       <c r="P11">
-        <v>-147575245000</v>
+        <v>-144924498400</v>
       </c>
     </row>
     <row r="12">
@@ -966,10 +966,10 @@
         <v>63700</v>
       </c>
       <c r="E12">
-        <v>28279534000</v>
+        <v>26664950200</v>
       </c>
       <c r="F12">
-        <v>53930647000</v>
+        <v>40015076500</v>
       </c>
       <c r="G12">
         <v>658734000</v>
@@ -978,13 +978,13 @@
         <v>5226100</v>
       </c>
       <c r="I12">
-        <v>82868915000</v>
+        <v>67338760700</v>
       </c>
       <c r="J12" t="str">
         <v>2022-12-13T09:30:00.000Z</v>
       </c>
       <c r="K12">
-        <v>1371440231000</v>
+        <v>1034073535400</v>
       </c>
       <c r="L12">
         <v>84194500</v>
@@ -993,13 +993,13 @@
         <v>2189200</v>
       </c>
       <c r="N12">
-        <v>25651113000</v>
+        <v>13350126300</v>
       </c>
       <c r="O12">
         <v>-8462200</v>
       </c>
       <c r="P12">
-        <v>-121924132000</v>
+        <v>-131574372100</v>
       </c>
     </row>
     <row r="13">
@@ -1016,10 +1016,10 @@
         <v>19900</v>
       </c>
       <c r="E13">
-        <v>27931924000</v>
+        <v>26660496700</v>
       </c>
       <c r="F13">
-        <v>51417372000</v>
+        <v>44125770900</v>
       </c>
       <c r="G13">
         <v>283403000</v>
@@ -1028,13 +1028,13 @@
         <v>4577700</v>
       </c>
       <c r="I13">
-        <v>79632699000</v>
+        <v>71069670600</v>
       </c>
       <c r="J13" t="str">
         <v>2022-12-13T09:32:00.000Z</v>
       </c>
       <c r="K13">
-        <v>1451072930000</v>
+        <v>1105143206000</v>
       </c>
       <c r="L13">
         <v>88772200</v>
@@ -1043,13 +1043,13 @@
         <v>1312800</v>
       </c>
       <c r="N13">
-        <v>23485448000</v>
+        <v>17465274200</v>
       </c>
       <c r="O13">
         <v>-7149400</v>
       </c>
       <c r="P13">
-        <v>-98438684000</v>
+        <v>-114109097900</v>
       </c>
     </row>
     <row r="14">
@@ -1066,10 +1066,10 @@
         <v>3400</v>
       </c>
       <c r="E14">
-        <v>34250503000</v>
+        <v>28720838200</v>
       </c>
       <c r="F14">
-        <v>35679172000</v>
+        <v>33373280200</v>
       </c>
       <c r="G14">
         <v>17325000</v>
@@ -1078,13 +1078,13 @@
         <v>4262300</v>
       </c>
       <c r="I14">
-        <v>69947000000</v>
+        <v>62111443400</v>
       </c>
       <c r="J14" t="str">
         <v>2022-12-13T09:34:00.000Z</v>
       </c>
       <c r="K14">
-        <v>1521019930000</v>
+        <v>1167254649400</v>
       </c>
       <c r="L14">
         <v>93034500</v>
@@ -1093,13 +1093,13 @@
         <v>117500</v>
       </c>
       <c r="N14">
-        <v>1428669000</v>
+        <v>4652442000</v>
       </c>
       <c r="O14">
         <v>-7031900</v>
       </c>
       <c r="P14">
-        <v>-97010015000</v>
+        <v>-109456655900</v>
       </c>
     </row>
     <row r="15">
@@ -1116,10 +1116,10 @@
         <v>35500</v>
       </c>
       <c r="E15">
-        <v>41421586000</v>
+        <v>37682828500</v>
       </c>
       <c r="F15">
-        <v>19386406000</v>
+        <v>17627866300</v>
       </c>
       <c r="G15">
         <v>688556000</v>
@@ -1128,13 +1128,13 @@
         <v>3974300</v>
       </c>
       <c r="I15">
-        <v>61496548000</v>
+        <v>55999250800</v>
       </c>
       <c r="J15" t="str">
         <v>2022-12-13T09:36:00.000Z</v>
       </c>
       <c r="K15">
-        <v>1582516478000</v>
+        <v>1223253900200</v>
       </c>
       <c r="L15">
         <v>97008800</v>
@@ -1143,13 +1143,13 @@
         <v>-1457200</v>
       </c>
       <c r="N15">
-        <v>-22035180000</v>
+        <v>-20054962200</v>
       </c>
       <c r="O15">
         <v>-8489100</v>
       </c>
       <c r="P15">
-        <v>-119045195000</v>
+        <v>-129511618100</v>
       </c>
     </row>
     <row r="16">
@@ -1166,10 +1166,10 @@
         <v>42000</v>
       </c>
       <c r="E16">
-        <v>36399219000</v>
+        <v>35758760100</v>
       </c>
       <c r="F16">
-        <v>24627896000</v>
+        <v>21950276300</v>
       </c>
       <c r="G16">
         <v>368729000</v>
@@ -1178,13 +1178,13 @@
         <v>3699100</v>
       </c>
       <c r="I16">
-        <v>61395844000</v>
+        <v>58077765400</v>
       </c>
       <c r="J16" t="str">
         <v>2022-12-13T09:38:00.000Z</v>
       </c>
       <c r="K16">
-        <v>1643912322000</v>
+        <v>1281331665600</v>
       </c>
       <c r="L16">
         <v>100707900</v>
@@ -1193,13 +1193,13 @@
         <v>-891100</v>
       </c>
       <c r="N16">
-        <v>-11771323000</v>
+        <v>-13808483800</v>
       </c>
       <c r="O16">
         <v>-9380200</v>
       </c>
       <c r="P16">
-        <v>-130816518000</v>
+        <v>-143320101900</v>
       </c>
     </row>
     <row r="17">
@@ -1216,10 +1216,10 @@
         <v>5700</v>
       </c>
       <c r="E17">
-        <v>22334569000</v>
+        <v>20104201600</v>
       </c>
       <c r="F17">
-        <v>38931694000</v>
+        <v>35996332300</v>
       </c>
       <c r="G17">
         <v>140971000</v>
@@ -1228,13 +1228,13 @@
         <v>3647100</v>
       </c>
       <c r="I17">
-        <v>61407234000</v>
+        <v>56241504900</v>
       </c>
       <c r="J17" t="str">
         <v>2022-12-13T09:40:00.000Z</v>
       </c>
       <c r="K17">
-        <v>1705319556000</v>
+        <v>1337573170500</v>
       </c>
       <c r="L17">
         <v>104355000</v>
@@ -1243,13 +1243,13 @@
         <v>776600</v>
       </c>
       <c r="N17">
-        <v>16597125000</v>
+        <v>15892130700</v>
       </c>
       <c r="O17">
         <v>-8603600</v>
       </c>
       <c r="P17">
-        <v>-114219393000</v>
+        <v>-127427971200</v>
       </c>
     </row>
     <row r="18">
@@ -1266,10 +1266,10 @@
         <v>1700</v>
       </c>
       <c r="E18">
-        <v>19474699000</v>
+        <v>19063510600</v>
       </c>
       <c r="F18">
-        <v>32695164000</v>
+        <v>31632527700</v>
       </c>
       <c r="G18">
         <v>10858000</v>
@@ -1278,13 +1278,13 @@
         <v>3469800</v>
       </c>
       <c r="I18">
-        <v>52180721000</v>
+        <v>50706896300</v>
       </c>
       <c r="J18" t="str">
         <v>2022-12-13T09:42:00.000Z</v>
       </c>
       <c r="K18">
-        <v>1757500277000</v>
+        <v>1388280066800</v>
       </c>
       <c r="L18">
         <v>107824800</v>
@@ -1293,13 +1293,13 @@
         <v>675100</v>
       </c>
       <c r="N18">
-        <v>13220465000</v>
+        <v>12569017100</v>
       </c>
       <c r="O18">
         <v>-7928500</v>
       </c>
       <c r="P18">
-        <v>-100998928000</v>
+        <v>-114858954100</v>
       </c>
     </row>
     <row r="19">
@@ -1316,10 +1316,10 @@
         <v>59000</v>
       </c>
       <c r="E19">
-        <v>23306417000</v>
+        <v>22281942500</v>
       </c>
       <c r="F19">
-        <v>39667067000</v>
+        <v>32921019800</v>
       </c>
       <c r="G19">
         <v>961851999.9999999</v>
@@ -1328,13 +1328,13 @@
         <v>3928800</v>
       </c>
       <c r="I19">
-        <v>63935336000</v>
+        <v>56164814300</v>
       </c>
       <c r="J19" t="str">
         <v>2022-12-13T09:44:00.000Z</v>
       </c>
       <c r="K19">
-        <v>1821435613000</v>
+        <v>1444444881100</v>
       </c>
       <c r="L19">
         <v>111753600</v>
@@ -1343,13 +1343,13 @@
         <v>1038200</v>
       </c>
       <c r="N19">
-        <v>16360650000</v>
+        <v>10639077300</v>
       </c>
       <c r="O19">
         <v>-6890300</v>
       </c>
       <c r="P19">
-        <v>-84638278000</v>
+        <v>-104219876800</v>
       </c>
     </row>
     <row r="20">
@@ -1366,25 +1366,25 @@
         <v>41900</v>
       </c>
       <c r="E20">
-        <v>18343294000</v>
+        <v>17876161600</v>
       </c>
       <c r="F20">
-        <v>45395979000</v>
+        <v>41735243400</v>
       </c>
       <c r="G20">
-        <v>539266000</v>
+        <v>26279500</v>
       </c>
       <c r="H20">
         <v>3747100</v>
       </c>
       <c r="I20">
-        <v>64278539000</v>
+        <v>59637684500</v>
       </c>
       <c r="J20" t="str">
         <v>2022-12-13T09:46:00.000Z</v>
       </c>
       <c r="K20">
-        <v>1885714152000</v>
+        <v>1504082565600</v>
       </c>
       <c r="L20">
         <v>115500700</v>
@@ -1393,13 +1393,13 @@
         <v>1481400</v>
       </c>
       <c r="N20">
-        <v>27052685000</v>
+        <v>23859081800</v>
       </c>
       <c r="O20">
         <v>-5408900</v>
       </c>
       <c r="P20">
-        <v>-57585593000</v>
+        <v>-80360795000</v>
       </c>
     </row>
     <row r="21">
@@ -1416,10 +1416,10 @@
         <v>50600</v>
       </c>
       <c r="E21">
-        <v>13795750000</v>
+        <v>12626220700</v>
       </c>
       <c r="F21">
-        <v>66624495000</v>
+        <v>62774948400</v>
       </c>
       <c r="G21">
         <v>508347000</v>
@@ -1428,13 +1428,13 @@
         <v>5059000</v>
       </c>
       <c r="I21">
-        <v>80928592000</v>
+        <v>75909516100</v>
       </c>
       <c r="J21" t="str">
         <v>2022-12-13T09:48:00.000Z</v>
       </c>
       <c r="K21">
-        <v>1966642744000</v>
+        <v>1579992081700</v>
       </c>
       <c r="L21">
         <v>120559700</v>
@@ -1443,13 +1443,13 @@
         <v>3244000</v>
       </c>
       <c r="N21">
-        <v>52828745000</v>
+        <v>50148727700</v>
       </c>
       <c r="O21">
         <v>-2164900</v>
       </c>
       <c r="P21">
-        <v>-4756848000</v>
+        <v>-30212067300</v>
       </c>
     </row>
     <row r="22">
@@ -1466,10 +1466,10 @@
         <v>9400</v>
       </c>
       <c r="E22">
-        <v>24548234000</v>
+        <v>23579204000</v>
       </c>
       <c r="F22">
-        <v>67792588000</v>
+        <v>61749437200</v>
       </c>
       <c r="G22">
         <v>84256000</v>
@@ -1478,13 +1478,13 @@
         <v>5885300</v>
       </c>
       <c r="I22">
-        <v>92425078000</v>
+        <v>85412897200</v>
       </c>
       <c r="J22" t="str">
         <v>2022-12-13T09:50:00.000Z</v>
       </c>
       <c r="K22">
-        <v>2059067822000</v>
+        <v>1665404978900</v>
       </c>
       <c r="L22">
         <v>126445000</v>
@@ -1493,13 +1493,13 @@
         <v>3144900</v>
       </c>
       <c r="N22">
-        <v>43244354000</v>
+        <v>38170233200</v>
       </c>
       <c r="O22">
         <v>980000</v>
       </c>
       <c r="P22">
-        <v>38487506000</v>
+        <v>7958165900</v>
       </c>
     </row>
     <row r="23">
@@ -1516,25 +1516,25 @@
         <v>48200</v>
       </c>
       <c r="E23">
-        <v>51468071000</v>
+        <v>49139601800</v>
       </c>
       <c r="F23">
-        <v>33109261000</v>
+        <v>27760714900</v>
       </c>
       <c r="G23">
-        <v>559358000</v>
+        <v>529587800</v>
       </c>
       <c r="H23">
         <v>5357700</v>
       </c>
       <c r="I23">
-        <v>85136690000</v>
+        <v>77429904500</v>
       </c>
       <c r="J23" t="str">
         <v>2022-12-13T09:52:00.000Z</v>
       </c>
       <c r="K23">
-        <v>2144204512000</v>
+        <v>1742834883400</v>
       </c>
       <c r="L23">
         <v>131802700</v>
@@ -1543,13 +1543,13 @@
         <v>-630500</v>
       </c>
       <c r="N23">
-        <v>-18358810000</v>
+        <v>-21378886900</v>
       </c>
       <c r="O23">
         <v>349500</v>
       </c>
       <c r="P23">
-        <v>20128696000</v>
+        <v>-13420721000</v>
       </c>
     </row>
     <row r="24">
@@ -1566,25 +1566,25 @@
         <v>15400</v>
       </c>
       <c r="E24">
-        <v>51066095000</v>
+        <v>43290378500</v>
       </c>
       <c r="F24">
-        <v>31048776000</v>
+        <v>24418712700</v>
       </c>
       <c r="G24">
-        <v>442593000</v>
+        <v>429306300</v>
       </c>
       <c r="H24">
         <v>5175300</v>
       </c>
       <c r="I24">
-        <v>82557464000</v>
+        <v>68138397500</v>
       </c>
       <c r="J24" t="str">
         <v>2022-12-13T09:54:00.000Z</v>
       </c>
       <c r="K24">
-        <v>2226761976000</v>
+        <v>1810973280900</v>
       </c>
       <c r="L24">
         <v>136978000</v>
@@ -1593,13 +1593,13 @@
         <v>-976500</v>
       </c>
       <c r="N24">
-        <v>-20017319000</v>
+        <v>-18871665800</v>
       </c>
       <c r="O24">
         <v>-627000</v>
       </c>
       <c r="P24">
-        <v>111377000</v>
+        <v>-32292386800</v>
       </c>
     </row>
     <row r="25">
@@ -1616,10 +1616,10 @@
         <v>111600</v>
       </c>
       <c r="E25">
-        <v>119509500000</v>
+        <v>113746269000</v>
       </c>
       <c r="F25">
-        <v>23412590000</v>
+        <v>22541062400</v>
       </c>
       <c r="G25">
         <v>1888097000</v>
@@ -1628,13 +1628,13 @@
         <v>8299300</v>
       </c>
       <c r="I25">
-        <v>144810187000</v>
+        <v>138175428400</v>
       </c>
       <c r="J25" t="str">
         <v>2022-12-13T09:56:00.000Z</v>
       </c>
       <c r="K25">
-        <v>2371572163000</v>
+        <v>1949148709300</v>
       </c>
       <c r="L25">
         <v>145277300</v>
@@ -1643,13 +1643,13 @@
         <v>-5096300</v>
       </c>
       <c r="N25">
-        <v>-96096910000</v>
+        <v>-91205206600</v>
       </c>
       <c r="O25">
         <v>-5723300</v>
       </c>
       <c r="P25">
-        <v>-95985533000</v>
+        <v>-123497593400</v>
       </c>
     </row>
     <row r="26">
@@ -1666,25 +1666,25 @@
         <v>91800</v>
       </c>
       <c r="E26">
-        <v>105256634000</v>
+        <v>95232368300</v>
       </c>
       <c r="F26">
-        <v>38556654000</v>
+        <v>36411900900</v>
       </c>
       <c r="G26">
-        <v>1171861000</v>
+        <v>1150182700</v>
       </c>
       <c r="H26">
         <v>9179600</v>
       </c>
       <c r="I26">
-        <v>144985149000</v>
+        <v>132794451900</v>
       </c>
       <c r="J26" t="str">
         <v>2022-12-13T09:58:00.000Z</v>
       </c>
       <c r="K26">
-        <v>2516557312000</v>
+        <v>2081943161200</v>
       </c>
       <c r="L26">
         <v>154456900</v>
@@ -1693,13 +1693,13 @@
         <v>-4401200</v>
       </c>
       <c r="N26">
-        <v>-66699980000</v>
+        <v>-58820467400</v>
       </c>
       <c r="O26">
         <v>-10124500</v>
       </c>
       <c r="P26">
-        <v>-162685513000</v>
+        <v>-182318060800</v>
       </c>
     </row>
     <row r="27">
@@ -1716,10 +1716,10 @@
         <v>21100</v>
       </c>
       <c r="E27">
-        <v>68010517000</v>
+        <v>58694142700</v>
       </c>
       <c r="F27">
-        <v>52622242000</v>
+        <v>49291476100</v>
       </c>
       <c r="G27">
         <v>439036000</v>
@@ -1728,13 +1728,13 @@
         <v>7480000</v>
       </c>
       <c r="I27">
-        <v>121071795000</v>
+        <v>108424654800</v>
       </c>
       <c r="J27" t="str">
         <v>2022-12-13T10:00:00.000Z</v>
       </c>
       <c r="K27">
-        <v>2637629107000</v>
+        <v>2190367816000</v>
       </c>
       <c r="L27">
         <v>161936900</v>
@@ -1743,13 +1743,13 @@
         <v>-1890500</v>
       </c>
       <c r="N27">
-        <v>-15388275000</v>
+        <v>-9402666600</v>
       </c>
       <c r="O27">
         <v>-12015000</v>
       </c>
       <c r="P27">
-        <v>-178073788000</v>
+        <v>-191720727400</v>
       </c>
     </row>
     <row r="28">
@@ -1766,25 +1766,25 @@
         <v>10600</v>
       </c>
       <c r="E28">
-        <v>54832937000</v>
+        <v>44772707300</v>
       </c>
       <c r="F28">
-        <v>38601198000</v>
+        <v>31251055500</v>
       </c>
       <c r="G28">
-        <v>299050000</v>
+        <v>289559500</v>
       </c>
       <c r="H28">
         <v>5840500</v>
       </c>
       <c r="I28">
-        <v>93733185000</v>
+        <v>76313322300</v>
       </c>
       <c r="J28" t="str">
         <v>2022-12-13T10:02:00.000Z</v>
       </c>
       <c r="K28">
-        <v>2731362292000</v>
+        <v>2266681138300</v>
       </c>
       <c r="L28">
         <v>167777400</v>
@@ -1793,13 +1793,13 @@
         <v>-1092100</v>
       </c>
       <c r="N28">
-        <v>-16231739000</v>
+        <v>-13521651800</v>
       </c>
       <c r="O28">
         <v>-13107100</v>
       </c>
       <c r="P28">
-        <v>-194305527000</v>
+        <v>-205242379200</v>
       </c>
     </row>
     <row r="29">
@@ -1816,25 +1816,25 @@
         <v>11000</v>
       </c>
       <c r="E29">
-        <v>35814032000</v>
+        <v>32328121400</v>
       </c>
       <c r="F29">
-        <v>32691234000</v>
+        <v>29105823000</v>
       </c>
       <c r="G29">
-        <v>160438000</v>
+        <v>109289200</v>
       </c>
       <c r="H29">
         <v>4195400</v>
       </c>
       <c r="I29">
-        <v>68665704000</v>
+        <v>61543233600</v>
       </c>
       <c r="J29" t="str">
         <v>2022-12-13T10:04:00.000Z</v>
       </c>
       <c r="K29">
-        <v>2800027996000</v>
+        <v>2328224371900</v>
       </c>
       <c r="L29">
         <v>171972800</v>
@@ -1843,13 +1843,13 @@
         <v>-527200</v>
       </c>
       <c r="N29">
-        <v>-3122798000</v>
+        <v>-3222298400</v>
       </c>
       <c r="O29">
         <v>-13634300</v>
       </c>
       <c r="P29">
-        <v>-197428325000</v>
+        <v>-208464677600</v>
       </c>
     </row>
     <row r="30">
@@ -1866,10 +1866,10 @@
         <v>13800</v>
       </c>
       <c r="E30">
-        <v>20330621000</v>
+        <v>17970283700</v>
       </c>
       <c r="F30">
-        <v>30151229000</v>
+        <v>26736746900</v>
       </c>
       <c r="G30">
         <v>152291000</v>
@@ -1878,13 +1878,13 @@
         <v>2913600</v>
       </c>
       <c r="I30">
-        <v>50634141000</v>
+        <v>44859321600</v>
       </c>
       <c r="J30" t="str">
         <v>2022-12-13T10:06:00.000Z</v>
       </c>
       <c r="K30">
-        <v>2850662137000</v>
+        <v>2373083693500</v>
       </c>
       <c r="L30">
         <v>174886400</v>
@@ -1893,13 +1893,13 @@
         <v>319600</v>
       </c>
       <c r="N30">
-        <v>9820608000</v>
+        <v>8766463200</v>
       </c>
       <c r="O30">
         <v>-13314700</v>
       </c>
       <c r="P30">
-        <v>-187607717000</v>
+        <v>-199698214400</v>
       </c>
     </row>
     <row r="31">
@@ -1916,10 +1916,10 @@
         <v>3300</v>
       </c>
       <c r="E31">
-        <v>20619701000</v>
+        <v>17848874600</v>
       </c>
       <c r="F31">
-        <v>25980167000</v>
+        <v>24528719900</v>
       </c>
       <c r="G31">
         <v>51944000</v>
@@ -1928,13 +1928,13 @@
         <v>2639000</v>
       </c>
       <c r="I31">
-        <v>46651812000</v>
+        <v>42429538500</v>
       </c>
       <c r="J31" t="str">
         <v>2022-12-13T10:08:00.000Z</v>
       </c>
       <c r="K31">
-        <v>2897313949000</v>
+        <v>2415513232000</v>
       </c>
       <c r="L31">
         <v>177525400</v>
@@ -1943,13 +1943,13 @@
         <v>274300</v>
       </c>
       <c r="N31">
-        <v>5360466000</v>
+        <v>6679845300</v>
       </c>
       <c r="O31">
         <v>-13040400</v>
       </c>
       <c r="P31">
-        <v>-182247251000</v>
+        <v>-193018369100</v>
       </c>
     </row>
     <row r="32">
@@ -1966,10 +1966,10 @@
         <v>6000</v>
       </c>
       <c r="E32">
-        <v>21773060000</v>
+        <v>18213722900</v>
       </c>
       <c r="F32">
-        <v>64378411000</v>
+        <v>60566826400</v>
       </c>
       <c r="G32">
         <v>99804000</v>
@@ -1978,13 +1978,13 @@
         <v>5112600</v>
       </c>
       <c r="I32">
-        <v>86251275000</v>
+        <v>78880353300</v>
       </c>
       <c r="J32" t="str">
         <v>2022-12-13T10:10:00.000Z</v>
       </c>
       <c r="K32">
-        <v>2983565224000</v>
+        <v>2494393585300</v>
       </c>
       <c r="L32">
         <v>182638000</v>
@@ -1993,13 +1993,13 @@
         <v>2756200</v>
       </c>
       <c r="N32">
-        <v>42605351000</v>
+        <v>42353103500</v>
       </c>
       <c r="O32">
         <v>-10284200</v>
       </c>
       <c r="P32">
-        <v>-139641900000</v>
+        <v>-150665265600</v>
       </c>
     </row>
     <row r="33">
@@ -2016,10 +2016,10 @@
         <v>5200</v>
       </c>
       <c r="E33">
-        <v>19868019000</v>
+        <v>17058231600</v>
       </c>
       <c r="F33">
-        <v>27127123000</v>
+        <v>24568783900</v>
       </c>
       <c r="G33">
         <v>114810000</v>
@@ -2028,13 +2028,13 @@
         <v>2573500</v>
       </c>
       <c r="I33">
-        <v>47109952000</v>
+        <v>41741825500</v>
       </c>
       <c r="J33" t="str">
         <v>2022-12-13T10:12:00.000Z</v>
       </c>
       <c r="K33">
-        <v>3030675176000</v>
+        <v>2536135410800</v>
       </c>
       <c r="L33">
         <v>185211500</v>
@@ -2043,13 +2043,13 @@
         <v>427500</v>
       </c>
       <c r="N33">
-        <v>7259104000</v>
+        <v>7510552300</v>
       </c>
       <c r="O33">
         <v>-9856700</v>
       </c>
       <c r="P33">
-        <v>-132382796000</v>
+        <v>-143154713300</v>
       </c>
     </row>
     <row r="34">
@@ -2066,10 +2066,10 @@
         <v>6500</v>
       </c>
       <c r="E34">
-        <v>21480069000</v>
+        <v>20158192200</v>
       </c>
       <c r="F34">
-        <v>29644293000</v>
+        <v>18887160900</v>
       </c>
       <c r="G34">
         <v>73266000</v>
@@ -2078,13 +2078,13 @@
         <v>2911800</v>
       </c>
       <c r="I34">
-        <v>51197628000</v>
+        <v>39118619100</v>
       </c>
       <c r="J34" t="str">
         <v>2022-12-13T10:14:00.000Z</v>
       </c>
       <c r="K34">
-        <v>3081872804000</v>
+        <v>2575254029900</v>
       </c>
       <c r="L34">
         <v>188123300</v>
@@ -2093,13 +2093,13 @@
         <v>613300</v>
       </c>
       <c r="N34">
-        <v>8164224000</v>
+        <v>-1271031300</v>
       </c>
       <c r="O34">
         <v>-9243400</v>
       </c>
       <c r="P34">
-        <v>-124218572000</v>
+        <v>-144425744600</v>
       </c>
     </row>
     <row r="35">
@@ -2116,10 +2116,10 @@
         <v>23800</v>
       </c>
       <c r="E35">
-        <v>36779424000</v>
+        <v>34132573500</v>
       </c>
       <c r="F35">
-        <v>19465878000</v>
+        <v>17025820500</v>
       </c>
       <c r="G35">
         <v>362723000</v>
@@ -2128,13 +2128,13 @@
         <v>3197100</v>
       </c>
       <c r="I35">
-        <v>56608025000</v>
+        <v>51521117000</v>
       </c>
       <c r="J35" t="str">
         <v>2022-12-13T10:16:00.000Z</v>
       </c>
       <c r="K35">
-        <v>3138480829000</v>
+        <v>2626775146900</v>
       </c>
       <c r="L35">
         <v>191320400</v>
@@ -2143,13 +2143,13 @@
         <v>-1040300</v>
       </c>
       <c r="N35">
-        <v>-17313546000</v>
+        <v>-17106753000</v>
       </c>
       <c r="O35">
         <v>-10283700</v>
       </c>
       <c r="P35">
-        <v>-141532118000</v>
+        <v>-161532497600</v>
       </c>
     </row>
     <row r="36">
@@ -2166,10 +2166,10 @@
         <v>47900</v>
       </c>
       <c r="E36">
-        <v>71968761000</v>
+        <v>67083251400</v>
       </c>
       <c r="F36">
-        <v>14601316000</v>
+        <v>13643474800</v>
       </c>
       <c r="G36">
         <v>692464000</v>
@@ -2178,13 +2178,13 @@
         <v>5211100</v>
       </c>
       <c r="I36">
-        <v>87262541000</v>
+        <v>81419190200</v>
       </c>
       <c r="J36" t="str">
         <v>2022-12-13T10:18:00.000Z</v>
       </c>
       <c r="K36">
-        <v>3225743370000</v>
+        <v>2708194337100</v>
       </c>
       <c r="L36">
         <v>196531500</v>
@@ -2193,13 +2193,13 @@
         <v>-3408400</v>
       </c>
       <c r="N36">
-        <v>-57367445000</v>
+        <v>-53439776600</v>
       </c>
       <c r="O36">
         <v>-13692100</v>
       </c>
       <c r="P36">
-        <v>-198899563000</v>
+        <v>-214972274200</v>
       </c>
     </row>
     <row r="37">
@@ -2216,25 +2216,25 @@
         <v>47600</v>
       </c>
       <c r="E37">
-        <v>85120607000</v>
+        <v>76731005000</v>
       </c>
       <c r="F37">
-        <v>21059059000</v>
+        <v>19484335300</v>
       </c>
       <c r="G37">
-        <v>854904000</v>
+        <v>682176900</v>
       </c>
       <c r="H37">
         <v>6235100</v>
       </c>
       <c r="I37">
-        <v>107034570000</v>
+        <v>96897517200</v>
       </c>
       <c r="J37" t="str">
         <v>2022-12-13T10:20:00.000Z</v>
       </c>
       <c r="K37">
-        <v>3332777940000</v>
+        <v>2805091854300</v>
       </c>
       <c r="L37">
         <v>202766600</v>
@@ -2243,13 +2243,13 @@
         <v>-4090500</v>
       </c>
       <c r="N37">
-        <v>-64061548000</v>
+        <v>-57246669700</v>
       </c>
       <c r="O37">
         <v>-17782600</v>
       </c>
       <c r="P37">
-        <v>-262961111000</v>
+        <v>-272218943900</v>
       </c>
     </row>
     <row r="38">
@@ -2266,25 +2266,25 @@
         <v>56900</v>
       </c>
       <c r="E38">
-        <v>56246278000</v>
+        <v>52688639200</v>
       </c>
       <c r="F38">
-        <v>19585811000</v>
+        <v>19414382600</v>
       </c>
       <c r="G38">
-        <v>713787000</v>
+        <v>710989800</v>
       </c>
       <c r="H38">
         <v>4769200</v>
       </c>
       <c r="I38">
-        <v>76545876000</v>
+        <v>72814011600</v>
       </c>
       <c r="J38" t="str">
         <v>2022-12-13T10:22:00.000Z</v>
       </c>
       <c r="K38">
-        <v>3409323816000</v>
+        <v>2877905865900</v>
       </c>
       <c r="L38">
         <v>207535800</v>
@@ -2293,13 +2293,13 @@
         <v>-2556900</v>
       </c>
       <c r="N38">
-        <v>-36660467000</v>
+        <v>-33274256600</v>
       </c>
       <c r="O38">
         <v>-20339500</v>
       </c>
       <c r="P38">
-        <v>-299621578000</v>
+        <v>-305493200500</v>
       </c>
     </row>
     <row r="39">
@@ -2316,10 +2316,10 @@
         <v>33200</v>
       </c>
       <c r="E39">
-        <v>55140494000</v>
+        <v>49723916000</v>
       </c>
       <c r="F39">
-        <v>22207249000</v>
+        <v>20498159800</v>
       </c>
       <c r="G39">
         <v>490382000</v>
@@ -2328,13 +2328,13 @@
         <v>4802300</v>
       </c>
       <c r="I39">
-        <v>77838125000</v>
+        <v>70712457800</v>
       </c>
       <c r="J39" t="str">
         <v>2022-12-13T10:24:00.000Z</v>
       </c>
       <c r="K39">
-        <v>3487161941000</v>
+        <v>2948618323700</v>
       </c>
       <c r="L39">
         <v>212338100</v>
@@ -2343,13 +2343,13 @@
         <v>-2293300</v>
       </c>
       <c r="N39">
-        <v>-32933245000</v>
+        <v>-29225756200</v>
       </c>
       <c r="O39">
         <v>-22632800</v>
       </c>
       <c r="P39">
-        <v>-332554823000</v>
+        <v>-334718956700</v>
       </c>
     </row>
     <row r="40">
@@ -2366,25 +2366,25 @@
         <v>42200</v>
       </c>
       <c r="E40">
-        <v>52243030000</v>
+        <v>45923855500</v>
       </c>
       <c r="F40">
-        <v>25790172000</v>
+        <v>23049915000</v>
       </c>
       <c r="G40">
-        <v>417656000</v>
+        <v>413160500</v>
       </c>
       <c r="H40">
         <v>5442400</v>
       </c>
       <c r="I40">
-        <v>78450858000</v>
+        <v>69386931000</v>
       </c>
       <c r="J40" t="str">
         <v>2022-12-13T10:26:00.000Z</v>
       </c>
       <c r="K40">
-        <v>3565612799000</v>
+        <v>3018005254700</v>
       </c>
       <c r="L40">
         <v>217780500</v>
@@ -2393,13 +2393,13 @@
         <v>-2589600</v>
       </c>
       <c r="N40">
-        <v>-26452858000</v>
+        <v>-22873940500</v>
       </c>
       <c r="O40">
         <v>-25222400</v>
       </c>
       <c r="P40">
-        <v>-359007681000</v>
+        <v>-357592897200</v>
       </c>
     </row>
     <row r="41">
@@ -2416,10 +2416,10 @@
         <v>3400</v>
       </c>
       <c r="E41">
-        <v>44116464000</v>
+        <v>29574820200</v>
       </c>
       <c r="F41">
-        <v>35982242000</v>
+        <v>28248883100</v>
       </c>
       <c r="G41">
         <v>50476000</v>
@@ -2428,13 +2428,13 @@
         <v>4206800</v>
       </c>
       <c r="I41">
-        <v>80149182000</v>
+        <v>57874179300</v>
       </c>
       <c r="J41" t="str">
         <v>2022-12-13T10:28:00.000Z</v>
       </c>
       <c r="K41">
-        <v>3645761981000</v>
+        <v>3075879434000</v>
       </c>
       <c r="L41">
         <v>221987300</v>
@@ -2443,13 +2443,13 @@
         <v>-93800</v>
       </c>
       <c r="N41">
-        <v>-8134222000</v>
+        <v>-1325937100</v>
       </c>
       <c r="O41">
         <v>-25316200</v>
       </c>
       <c r="P41">
-        <v>-367141903000</v>
+        <v>-358918834300</v>
       </c>
     </row>
     <row r="42">
@@ -2466,10 +2466,10 @@
         <v>2500</v>
       </c>
       <c r="E42">
-        <v>21503208000</v>
+        <v>17706009000</v>
       </c>
       <c r="F42">
-        <v>35082873000</v>
+        <v>29324736900</v>
       </c>
       <c r="G42">
         <v>64050000</v>
@@ -2478,13 +2478,13 @@
         <v>3389400</v>
       </c>
       <c r="I42">
-        <v>56650131000</v>
+        <v>47094795900</v>
       </c>
       <c r="J42" t="str">
         <v>2022-12-13T10:30:00.000Z</v>
       </c>
       <c r="K42">
-        <v>3702412112000</v>
+        <v>3122974229900</v>
       </c>
       <c r="L42">
         <v>225376700</v>
@@ -2493,13 +2493,13 @@
         <v>693900</v>
       </c>
       <c r="N42">
-        <v>13579665000</v>
+        <v>11618727900</v>
       </c>
       <c r="O42">
         <v>-24622300</v>
       </c>
       <c r="P42">
-        <v>-353562238000</v>
+        <v>-347300106400</v>
       </c>
     </row>
     <row r="43">
@@ -2516,25 +2516,25 @@
         <v>26900</v>
       </c>
       <c r="E43">
-        <v>16915582000</v>
+        <v>14820279400</v>
       </c>
       <c r="F43">
-        <v>45120012000</v>
+        <v>40035501600</v>
       </c>
       <c r="G43">
-        <v>544540000</v>
+        <v>511573000</v>
       </c>
       <c r="H43">
         <v>3528700</v>
       </c>
       <c r="I43">
-        <v>62580134000</v>
+        <v>55367354000</v>
       </c>
       <c r="J43" t="str">
         <v>2022-12-13T10:32:00.000Z</v>
       </c>
       <c r="K43">
-        <v>3764992246000</v>
+        <v>3178341583900</v>
       </c>
       <c r="L43">
         <v>228905400</v>
@@ -2543,13 +2543,13 @@
         <v>1335800</v>
       </c>
       <c r="N43">
-        <v>28204430000</v>
+        <v>25215222200</v>
       </c>
       <c r="O43">
         <v>-23286500</v>
       </c>
       <c r="P43">
-        <v>-325357808000</v>
+        <v>-322084884200</v>
       </c>
     </row>
     <row r="44">
@@ -2566,10 +2566,10 @@
         <v>39100</v>
       </c>
       <c r="E44">
-        <v>15066967000</v>
+        <v>14642491900</v>
       </c>
       <c r="F44">
-        <v>68322743000</v>
+        <v>61792379900</v>
       </c>
       <c r="G44">
         <v>811450000</v>
@@ -2578,13 +2578,13 @@
         <v>4591600</v>
       </c>
       <c r="I44">
-        <v>84201160000</v>
+        <v>77246321800</v>
       </c>
       <c r="J44" t="str">
         <v>2022-12-13T10:34:00.000Z</v>
       </c>
       <c r="K44">
-        <v>3849193406000</v>
+        <v>3255587905700</v>
       </c>
       <c r="L44">
         <v>233497000</v>
@@ -2593,13 +2593,13 @@
         <v>2987500</v>
       </c>
       <c r="N44">
-        <v>53255776000</v>
+        <v>47149888000</v>
       </c>
       <c r="O44">
         <v>-20299000</v>
       </c>
       <c r="P44">
-        <v>-272102032000</v>
+        <v>-274934996200</v>
       </c>
     </row>
     <row r="45">
@@ -2616,10 +2616,10 @@
         <v>3000</v>
       </c>
       <c r="E45">
-        <v>13339036000</v>
+        <v>12824950600</v>
       </c>
       <c r="F45">
-        <v>53127817000</v>
+        <v>46774876300</v>
       </c>
       <c r="G45">
         <v>25411000</v>
@@ -2628,13 +2628,13 @@
         <v>3724900</v>
       </c>
       <c r="I45">
-        <v>66492264000</v>
+        <v>59625237900</v>
       </c>
       <c r="J45" t="str">
         <v>2022-12-13T10:36:00.000Z</v>
       </c>
       <c r="K45">
-        <v>3915685670000</v>
+        <v>3315213143600</v>
       </c>
       <c r="L45">
         <v>237221900</v>
@@ -2643,13 +2643,13 @@
         <v>2436500</v>
       </c>
       <c r="N45">
-        <v>39788781000</v>
+        <v>33949925700</v>
       </c>
       <c r="O45">
         <v>-17862500</v>
       </c>
       <c r="P45">
-        <v>-232313251000</v>
+        <v>-240985070500</v>
       </c>
     </row>
     <row r="46">
@@ -2666,10 +2666,10 @@
         <v>17000</v>
       </c>
       <c r="E46">
-        <v>10531254000</v>
+        <v>9448238100</v>
       </c>
       <c r="F46">
-        <v>47740408000</v>
+        <v>42331822000</v>
       </c>
       <c r="G46">
         <v>98904000</v>
@@ -2678,13 +2678,13 @@
         <v>3345300</v>
       </c>
       <c r="I46">
-        <v>58370566000</v>
+        <v>51878964100</v>
       </c>
       <c r="J46" t="str">
         <v>2022-12-13T10:38:00.000Z</v>
       </c>
       <c r="K46">
-        <v>3974056236000</v>
+        <v>3367092107700</v>
       </c>
       <c r="L46">
         <v>240567200</v>
@@ -2693,13 +2693,13 @@
         <v>2118900</v>
       </c>
       <c r="N46">
-        <v>37209154000</v>
+        <v>32883583900</v>
       </c>
       <c r="O46">
         <v>-15743600</v>
       </c>
       <c r="P46">
-        <v>-195104097000</v>
+        <v>-208101486600</v>
       </c>
     </row>
     <row r="47">
@@ -2716,25 +2716,25 @@
         <v>6400</v>
       </c>
       <c r="E47">
-        <v>22430510000</v>
+        <v>20859782300</v>
       </c>
       <c r="F47">
-        <v>30896999000</v>
+        <v>28171826900</v>
       </c>
       <c r="G47">
-        <v>161435000</v>
+        <v>151744700</v>
       </c>
       <c r="H47">
         <v>3083800</v>
       </c>
       <c r="I47">
-        <v>53488944000</v>
+        <v>49183353900</v>
       </c>
       <c r="J47" t="str">
         <v>2022-12-13T10:40:00.000Z</v>
       </c>
       <c r="K47">
-        <v>4027545180000</v>
+        <v>3416275461600</v>
       </c>
       <c r="L47">
         <v>243651000</v>
@@ -2743,13 +2743,13 @@
         <v>778000</v>
       </c>
       <c r="N47">
-        <v>8466489000</v>
+        <v>7312044600</v>
       </c>
       <c r="O47">
         <v>-14965600</v>
       </c>
       <c r="P47">
-        <v>-186637608000</v>
+        <v>-200789442000</v>
       </c>
     </row>
     <row r="48">
@@ -2766,10 +2766,10 @@
         <v>5700</v>
       </c>
       <c r="E48">
-        <v>20545040000</v>
+        <v>19577908100</v>
       </c>
       <c r="F48">
-        <v>33085178000</v>
+        <v>28828439000</v>
       </c>
       <c r="G48">
         <v>148987000</v>
@@ -2778,13 +2778,13 @@
         <v>2739400</v>
       </c>
       <c r="I48">
-        <v>53779205000</v>
+        <v>48555334100</v>
       </c>
       <c r="J48" t="str">
         <v>2022-12-13T10:42:00.000Z</v>
       </c>
       <c r="K48">
-        <v>4081324385000</v>
+        <v>3464830795700</v>
       </c>
       <c r="L48">
         <v>246390400</v>
@@ -2793,13 +2793,13 @@
         <v>542500</v>
       </c>
       <c r="N48">
-        <v>12540138000</v>
+        <v>9250530900</v>
       </c>
       <c r="O48">
         <v>-14423100</v>
       </c>
       <c r="P48">
-        <v>-174097470000</v>
+        <v>-191538911100</v>
       </c>
     </row>
     <row r="49">
@@ -2816,25 +2816,25 @@
         <v>17300</v>
       </c>
       <c r="E49">
-        <v>20849300000</v>
+        <v>19961888300</v>
       </c>
       <c r="F49">
-        <v>29526181000</v>
+        <v>24244168300</v>
       </c>
       <c r="G49">
-        <v>275884000</v>
+        <v>274984900</v>
       </c>
       <c r="H49">
         <v>2871000</v>
       </c>
       <c r="I49">
-        <v>50651365000</v>
+        <v>44481041500</v>
       </c>
       <c r="J49" t="str">
         <v>2022-12-13T10:44:00.000Z</v>
       </c>
       <c r="K49">
-        <v>4131975750000</v>
+        <v>3509311837200</v>
       </c>
       <c r="L49">
         <v>249261400</v>
@@ -2843,13 +2843,13 @@
         <v>229300</v>
       </c>
       <c r="N49">
-        <v>8676881000</v>
+        <v>4282280000</v>
       </c>
       <c r="O49">
         <v>-14193800</v>
       </c>
       <c r="P49">
-        <v>-165420589000</v>
+        <v>-187256631100</v>
       </c>
     </row>
     <row r="50">
@@ -2866,10 +2866,10 @@
         <v>48700</v>
       </c>
       <c r="E50">
-        <v>14330423000</v>
+        <v>12406149200</v>
       </c>
       <c r="F50">
-        <v>42474826000</v>
+        <v>36614991700</v>
       </c>
       <c r="G50">
         <v>697294000</v>
@@ -2878,13 +2878,13 @@
         <v>2505500</v>
       </c>
       <c r="I50">
-        <v>57502543000</v>
+        <v>49718434900</v>
       </c>
       <c r="J50" t="str">
         <v>2022-12-13T10:46:00.000Z</v>
       </c>
       <c r="K50">
-        <v>4189478293000</v>
+        <v>3559030272100</v>
       </c>
       <c r="L50">
         <v>251766900</v>
@@ -2893,13 +2893,13 @@
         <v>1098800</v>
       </c>
       <c r="N50">
-        <v>28144403000</v>
+        <v>24208842500</v>
       </c>
       <c r="O50">
         <v>-13095000</v>
       </c>
       <c r="P50">
-        <v>-137276186000</v>
+        <v>-163047788600</v>
       </c>
     </row>
     <row r="51">
@@ -2916,10 +2916,10 @@
         <v>13800</v>
       </c>
       <c r="E51">
-        <v>15051462000</v>
+        <v>11637079800</v>
       </c>
       <c r="F51">
-        <v>36252299000</v>
+        <v>33541512500</v>
       </c>
       <c r="G51">
         <v>248783000</v>
@@ -2928,13 +2928,13 @@
         <v>2528400</v>
       </c>
       <c r="I51">
-        <v>51552544000</v>
+        <v>45427375300</v>
       </c>
       <c r="J51" t="str">
         <v>2022-12-13T10:48:00.000Z</v>
       </c>
       <c r="K51">
-        <v>4241030837000</v>
+        <v>3604457647400</v>
       </c>
       <c r="L51">
         <v>254295300</v>
@@ -2943,13 +2943,13 @@
         <v>1327600</v>
       </c>
       <c r="N51">
-        <v>21200837000</v>
+        <v>21904432700</v>
       </c>
       <c r="O51">
         <v>-11767400</v>
       </c>
       <c r="P51">
-        <v>-116075349000</v>
+        <v>-141143355900</v>
       </c>
     </row>
     <row r="52">
@@ -2966,10 +2966,10 @@
         <v>19400</v>
       </c>
       <c r="E52">
-        <v>26881377000</v>
+        <v>25006353900</v>
       </c>
       <c r="F52">
-        <v>22171936000</v>
+        <v>20250059800</v>
       </c>
       <c r="G52">
         <v>488010000</v>
@@ -2978,13 +2978,13 @@
         <v>3093100</v>
       </c>
       <c r="I52">
-        <v>49541323000</v>
+        <v>45744423700</v>
       </c>
       <c r="J52" t="str">
         <v>2022-12-13T10:50:00.000Z</v>
       </c>
       <c r="K52">
-        <v>4290572160000</v>
+        <v>3650202071100</v>
       </c>
       <c r="L52">
         <v>257388400</v>
@@ -2993,13 +2993,13 @@
         <v>127900</v>
       </c>
       <c r="N52">
-        <v>-4709441000</v>
+        <v>-4756294100</v>
       </c>
       <c r="O52">
         <v>-11639500</v>
       </c>
       <c r="P52">
-        <v>-120784790000</v>
+        <v>-145899650000</v>
       </c>
     </row>
     <row r="53">
@@ -3016,10 +3016,10 @@
         <v>2900</v>
       </c>
       <c r="E53">
-        <v>31767990000</v>
+        <v>27661800300</v>
       </c>
       <c r="F53">
-        <v>12604161000</v>
+        <v>9968599200</v>
       </c>
       <c r="G53">
         <v>89185000</v>
@@ -3028,13 +3028,13 @@
         <v>2514200</v>
       </c>
       <c r="I53">
-        <v>44461336000</v>
+        <v>37719584500</v>
       </c>
       <c r="J53" t="str">
         <v>2022-12-13T10:52:00.000Z</v>
       </c>
       <c r="K53">
-        <v>4335033496000</v>
+        <v>3687921655600</v>
       </c>
       <c r="L53">
         <v>259902600</v>
@@ -3043,13 +3043,13 @@
         <v>-1231300</v>
       </c>
       <c r="N53">
-        <v>-19163829000</v>
+        <v>-17693201100</v>
       </c>
       <c r="O53">
         <v>-12870800</v>
       </c>
       <c r="P53">
-        <v>-139948619000</v>
+        <v>-163592851100</v>
       </c>
     </row>
     <row r="54">
@@ -3066,10 +3066,10 @@
         <v>5500</v>
       </c>
       <c r="E54">
-        <v>19057243000</v>
+        <v>16640662000</v>
       </c>
       <c r="F54">
-        <v>11249725000</v>
+        <v>10656119200</v>
       </c>
       <c r="G54">
         <v>177027000</v>
@@ -3078,13 +3078,13 @@
         <v>1652600</v>
       </c>
       <c r="I54">
-        <v>30483995000</v>
+        <v>27473808200</v>
       </c>
       <c r="J54" t="str">
         <v>2022-12-13T10:54:00.000Z</v>
       </c>
       <c r="K54">
-        <v>4365517491000</v>
+        <v>3715395463800</v>
       </c>
       <c r="L54">
         <v>261555200</v>
@@ -3093,13 +3093,13 @@
         <v>-614500</v>
       </c>
       <c r="N54">
-        <v>-7807518000</v>
+        <v>-5984542800</v>
       </c>
       <c r="O54">
         <v>-13485300</v>
       </c>
       <c r="P54">
-        <v>-147756137000</v>
+        <v>-169577393900</v>
       </c>
     </row>
     <row r="55">
@@ -3116,10 +3116,10 @@
         <v>3000</v>
       </c>
       <c r="E55">
-        <v>21498699000</v>
+        <v>21094403700</v>
       </c>
       <c r="F55">
-        <v>13060179000</v>
+        <v>12160879200</v>
       </c>
       <c r="G55">
         <v>162050000</v>
@@ -3128,13 +3128,13 @@
         <v>1810400</v>
       </c>
       <c r="I55">
-        <v>34720928000</v>
+        <v>33417332900</v>
       </c>
       <c r="J55" t="str">
         <v>2022-12-13T10:56:00.000Z</v>
       </c>
       <c r="K55">
-        <v>4400238419000</v>
+        <v>3748812796700</v>
       </c>
       <c r="L55">
         <v>263365600</v>
@@ -3143,13 +3143,13 @@
         <v>-527800</v>
       </c>
       <c r="N55">
-        <v>-8438520000</v>
+        <v>-8933524500</v>
       </c>
       <c r="O55">
         <v>-14013100</v>
       </c>
       <c r="P55">
-        <v>-156194657000</v>
+        <v>-178510918400</v>
       </c>
     </row>
     <row r="56">
@@ -3166,10 +3166,10 @@
         <v>9700</v>
       </c>
       <c r="E56">
-        <v>15206513000</v>
+        <v>14535085100</v>
       </c>
       <c r="F56">
-        <v>16501681000</v>
+        <v>15249634300</v>
       </c>
       <c r="G56">
         <v>318628000</v>
@@ -3178,13 +3178,13 @@
         <v>1741000</v>
       </c>
       <c r="I56">
-        <v>32026822000</v>
+        <v>30103347400</v>
       </c>
       <c r="J56" t="str">
         <v>2022-12-13T10:58:00.000Z</v>
       </c>
       <c r="K56">
-        <v>4432265241000</v>
+        <v>3778916144100</v>
       </c>
       <c r="L56">
         <v>265106600</v>
@@ -3193,13 +3193,13 @@
         <v>-326500</v>
       </c>
       <c r="N56">
-        <v>1295168000</v>
+        <v>714549200</v>
       </c>
       <c r="O56">
         <v>-14339600</v>
       </c>
       <c r="P56">
-        <v>-154899489000</v>
+        <v>-177796369200</v>
       </c>
     </row>
     <row r="57">
@@ -3216,10 +3216,10 @@
         <v>24000</v>
       </c>
       <c r="E57">
-        <v>14804772000</v>
+        <v>14483793300</v>
       </c>
       <c r="F57">
-        <v>14868331000</v>
+        <v>12915186100</v>
       </c>
       <c r="G57">
         <v>214800000</v>
@@ -3228,13 +3228,13 @@
         <v>1627000</v>
       </c>
       <c r="I57">
-        <v>29887903000</v>
+        <v>27613779400</v>
       </c>
       <c r="J57" t="str">
         <v>2022-12-13T11:00:00.000Z</v>
       </c>
       <c r="K57">
-        <v>4462153144000</v>
+        <v>3806529923500</v>
       </c>
       <c r="L57">
         <v>266733600</v>
@@ -3243,13 +3243,13 @@
         <v>-367600</v>
       </c>
       <c r="N57">
-        <v>63559000</v>
+        <v>-1568607200</v>
       </c>
       <c r="O57">
         <v>-14707200</v>
       </c>
       <c r="P57">
-        <v>-154835930000</v>
+        <v>-179364976400</v>
       </c>
     </row>
     <row r="58">
@@ -3266,10 +3266,10 @@
         <v>800</v>
       </c>
       <c r="E58">
-        <v>21780559000</v>
+        <v>19557684100</v>
       </c>
       <c r="F58">
-        <v>8926989000</v>
+        <v>7134783000</v>
       </c>
       <c r="G58">
         <v>7755000</v>
@@ -3278,13 +3278,13 @@
         <v>1739600</v>
       </c>
       <c r="I58">
-        <v>30715303000</v>
+        <v>26700222100</v>
       </c>
       <c r="J58" t="str">
         <v>2022-12-13T11:02:00.000Z</v>
       </c>
       <c r="K58">
-        <v>4492868447000</v>
+        <v>3833230145600</v>
       </c>
       <c r="L58">
         <v>268473200</v>
@@ -3293,13 +3293,13 @@
         <v>-731800</v>
       </c>
       <c r="N58">
-        <v>-12853570000</v>
+        <v>-12422901100</v>
       </c>
       <c r="O58">
         <v>-15439000</v>
       </c>
       <c r="P58">
-        <v>-167689500000</v>
+        <v>-191787877500</v>
       </c>
     </row>
     <row r="59">
@@ -3316,25 +3316,25 @@
         <v>7200</v>
       </c>
       <c r="E59">
-        <v>26103605000</v>
+        <v>25523885300</v>
       </c>
       <c r="F59">
-        <v>9963335000</v>
+        <v>8808091400</v>
       </c>
       <c r="G59">
-        <v>308870000</v>
+        <v>294884000</v>
       </c>
       <c r="H59">
         <v>1956500</v>
       </c>
       <c r="I59">
-        <v>36375810000</v>
+        <v>34626860700</v>
       </c>
       <c r="J59" t="str">
         <v>2022-12-13T11:04:00.000Z</v>
       </c>
       <c r="K59">
-        <v>4529244257000</v>
+        <v>3867857006300</v>
       </c>
       <c r="L59">
         <v>270429700</v>
@@ -3343,13 +3343,13 @@
         <v>-926900</v>
       </c>
       <c r="N59">
-        <v>-16140270000</v>
+        <v>-16715793900</v>
       </c>
       <c r="O59">
         <v>-16365900</v>
       </c>
       <c r="P59">
-        <v>-183829770000</v>
+        <v>-208503671400</v>
       </c>
     </row>
     <row r="60">
@@ -3366,10 +3366,10 @@
         <v>2600</v>
       </c>
       <c r="E60">
-        <v>41130945000</v>
+        <v>37710269100</v>
       </c>
       <c r="F60">
-        <v>8404383000</v>
+        <v>8324063400</v>
       </c>
       <c r="G60">
         <v>52647000</v>
@@ -3378,13 +3378,13 @@
         <v>2696000</v>
       </c>
       <c r="I60">
-        <v>49587975000</v>
+        <v>46086979500</v>
       </c>
       <c r="J60" t="str">
         <v>2022-12-13T11:06:00.000Z</v>
       </c>
       <c r="K60">
-        <v>4578832232000</v>
+        <v>3913943985800</v>
       </c>
       <c r="L60">
         <v>273125700</v>
@@ -3393,13 +3393,13 @@
         <v>-1679800</v>
       </c>
       <c r="N60">
-        <v>-32726562000</v>
+        <v>-29386205700</v>
       </c>
       <c r="O60">
         <v>-18045700</v>
       </c>
       <c r="P60">
-        <v>-216556332000</v>
+        <v>-237889877100</v>
       </c>
     </row>
     <row r="61">
@@ -3416,10 +3416,10 @@
         <v>9800</v>
       </c>
       <c r="E61">
-        <v>44770386000</v>
+        <v>40244816100</v>
       </c>
       <c r="F61">
-        <v>12227750000</v>
+        <v>9235145600</v>
       </c>
       <c r="G61">
         <v>222500000</v>
@@ -3428,13 +3428,13 @@
         <v>3376400</v>
       </c>
       <c r="I61">
-        <v>57220636000</v>
+        <v>49702461700</v>
       </c>
       <c r="J61" t="str">
         <v>2022-12-13T11:08:00.000Z</v>
       </c>
       <c r="K61">
-        <v>4636052868000</v>
+        <v>3963646447500</v>
       </c>
       <c r="L61">
         <v>276502100</v>
@@ -3443,13 +3443,13 @@
         <v>-2233000</v>
       </c>
       <c r="N61">
-        <v>-32542636000</v>
+        <v>-31009670500</v>
       </c>
       <c r="O61">
         <v>-20278700</v>
       </c>
       <c r="P61">
-        <v>-249098968000</v>
+        <v>-268899547600</v>
       </c>
     </row>
     <row r="62">
@@ -3466,25 +3466,25 @@
         <v>5800</v>
       </c>
       <c r="E62">
-        <v>45563283000</v>
+        <v>43477470900</v>
       </c>
       <c r="F62">
-        <v>20136532000</v>
+        <v>18978391300</v>
       </c>
       <c r="G62">
-        <v>200915000</v>
+        <v>177938000</v>
       </c>
       <c r="H62">
         <v>4289400</v>
       </c>
       <c r="I62">
-        <v>65900730000</v>
+        <v>62633800200</v>
       </c>
       <c r="J62" t="str">
         <v>2022-12-13T11:10:00.000Z</v>
       </c>
       <c r="K62">
-        <v>4701953598000</v>
+        <v>4026280247700</v>
       </c>
       <c r="L62">
         <v>280791500</v>
@@ -3493,13 +3493,13 @@
         <v>-2035600</v>
       </c>
       <c r="N62">
-        <v>-25426751000</v>
+        <v>-24499079600</v>
       </c>
       <c r="O62">
         <v>-22314300</v>
       </c>
       <c r="P62">
-        <v>-274525719000</v>
+        <v>-293398627200</v>
       </c>
     </row>
     <row r="63">
@@ -3516,25 +3516,25 @@
         <v>18700</v>
       </c>
       <c r="E63">
-        <v>25297251000</v>
+        <v>18025829700</v>
       </c>
       <c r="F63">
-        <v>17085885000</v>
+        <v>14582890500</v>
       </c>
       <c r="G63">
-        <v>581365000</v>
+        <v>395551000</v>
       </c>
       <c r="H63">
         <v>2329600</v>
       </c>
       <c r="I63">
-        <v>42964501000</v>
+        <v>33004271200</v>
       </c>
       <c r="J63" t="str">
         <v>2022-12-13T11:12:00.000Z</v>
       </c>
       <c r="K63">
-        <v>4744918099000</v>
+        <v>4059284518900</v>
       </c>
       <c r="L63">
         <v>283121100</v>
@@ -3543,13 +3543,13 @@
         <v>-432300</v>
       </c>
       <c r="N63">
-        <v>-8211366000</v>
+        <v>-3442939200</v>
       </c>
       <c r="O63">
         <v>-22746600</v>
       </c>
       <c r="P63">
-        <v>-282737085000</v>
+        <v>-296841566400</v>
       </c>
     </row>
     <row r="64">
@@ -3566,10 +3566,10 @@
         <v>15300</v>
       </c>
       <c r="E64">
-        <v>18958501000</v>
+        <v>17633926900</v>
       </c>
       <c r="F64">
-        <v>37040543000</v>
+        <v>35153032400</v>
       </c>
       <c r="G64">
         <v>318105000</v>
@@ -3578,13 +3578,13 @@
         <v>2811500</v>
       </c>
       <c r="I64">
-        <v>56317149000</v>
+        <v>53105064300</v>
       </c>
       <c r="J64" t="str">
         <v>2022-12-13T11:14:00.000Z</v>
       </c>
       <c r="K64">
-        <v>4801235248000</v>
+        <v>4112389583200</v>
       </c>
       <c r="L64">
         <v>285932600</v>
@@ -3593,13 +3593,13 @@
         <v>409600</v>
       </c>
       <c r="N64">
-        <v>18082042000</v>
+        <v>17519105500</v>
       </c>
       <c r="O64">
         <v>-22337000</v>
       </c>
       <c r="P64">
-        <v>-264655043000</v>
+        <v>-279322460900</v>
       </c>
     </row>
     <row r="65">
@@ -3616,10 +3616,10 @@
         <v>5000</v>
       </c>
       <c r="E65">
-        <v>15275803000</v>
+        <v>11923258900</v>
       </c>
       <c r="F65">
-        <v>49482641000</v>
+        <v>47279046800</v>
       </c>
       <c r="G65">
         <v>88865000</v>
@@ -3628,13 +3628,13 @@
         <v>3340900</v>
       </c>
       <c r="I65">
-        <v>64847309000</v>
+        <v>59291170700</v>
       </c>
       <c r="J65" t="str">
         <v>2022-12-13T11:16:00.000Z</v>
       </c>
       <c r="K65">
-        <v>4866082557000</v>
+        <v>4171680753900</v>
       </c>
       <c r="L65">
         <v>289273500</v>
@@ -3643,13 +3643,13 @@
         <v>1632100</v>
       </c>
       <c r="N65">
-        <v>34206838000</v>
+        <v>35355787900</v>
       </c>
       <c r="O65">
         <v>-20704900</v>
       </c>
       <c r="P65">
-        <v>-230448205000</v>
+        <v>-243966673000</v>
       </c>
     </row>
     <row r="66">
@@ -3666,10 +3666,10 @@
         <v>29800</v>
       </c>
       <c r="E66">
-        <v>11891527000</v>
+        <v>11376442600</v>
       </c>
       <c r="F66">
-        <v>56010373000</v>
+        <v>51170118100</v>
       </c>
       <c r="G66">
         <v>531326000</v>
@@ -3678,13 +3678,13 @@
         <v>3484400</v>
       </c>
       <c r="I66">
-        <v>68433226000</v>
+        <v>63077886700</v>
       </c>
       <c r="J66" t="str">
         <v>2022-12-13T11:18:00.000Z</v>
       </c>
       <c r="K66">
-        <v>4934515783000</v>
+        <v>4234758640600</v>
       </c>
       <c r="L66">
         <v>292757900</v>
@@ -3693,13 +3693,13 @@
         <v>2188600</v>
       </c>
       <c r="N66">
-        <v>44118846000</v>
+        <v>39793675500</v>
       </c>
       <c r="O66">
         <v>-18516300</v>
       </c>
       <c r="P66">
-        <v>-186329359000</v>
+        <v>-204172997500</v>
       </c>
     </row>
     <row r="67">
@@ -3716,10 +3716,10 @@
         <v>7100</v>
       </c>
       <c r="E67">
-        <v>21263600000</v>
+        <v>20235229400</v>
       </c>
       <c r="F67">
-        <v>19687298000</v>
+        <v>17631755600</v>
       </c>
       <c r="G67">
         <v>158110000</v>
@@ -3728,13 +3728,13 @@
         <v>2148200</v>
       </c>
       <c r="I67">
-        <v>41109008000</v>
+        <v>38025095000</v>
       </c>
       <c r="J67" t="str">
         <v>2022-12-13T11:20:00.000Z</v>
       </c>
       <c r="K67">
-        <v>4975624791000</v>
+        <v>4272783735600</v>
       </c>
       <c r="L67">
         <v>294906100</v>
@@ -3743,13 +3743,13 @@
         <v>9300</v>
       </c>
       <c r="N67">
-        <v>-1576302000</v>
+        <v>-2603473800</v>
       </c>
       <c r="O67">
         <v>-18507000</v>
       </c>
       <c r="P67">
-        <v>-187905661000</v>
+        <v>-206776471300</v>
       </c>
     </row>
     <row r="68">
@@ -3766,10 +3766,10 @@
         <v>15800</v>
       </c>
       <c r="E68">
-        <v>22014418000</v>
+        <v>21130303000</v>
       </c>
       <c r="F68">
-        <v>15193120000</v>
+        <v>14523190600</v>
       </c>
       <c r="G68">
         <v>132849000</v>
@@ -3778,13 +3778,13 @@
         <v>2054500</v>
       </c>
       <c r="I68">
-        <v>37340387000</v>
+        <v>35786342600</v>
       </c>
       <c r="J68" t="str">
         <v>2022-12-13T11:22:00.000Z</v>
       </c>
       <c r="K68">
-        <v>5012965178000</v>
+        <v>4308570078200</v>
       </c>
       <c r="L68">
         <v>296960600</v>
@@ -3793,13 +3793,13 @@
         <v>-389700</v>
       </c>
       <c r="N68">
-        <v>-6821298000</v>
+        <v>-6607112400</v>
       </c>
       <c r="O68">
         <v>-18896700</v>
       </c>
       <c r="P68">
-        <v>-194726959000</v>
+        <v>-213383583700</v>
       </c>
     </row>
     <row r="69">
@@ -3816,10 +3816,10 @@
         <v>7000</v>
       </c>
       <c r="E69">
-        <v>18774532000</v>
+        <v>17914592800</v>
       </c>
       <c r="F69">
-        <v>18151700000</v>
+        <v>15578675600</v>
       </c>
       <c r="G69">
         <v>117490000</v>
@@ -3828,13 +3828,13 @@
         <v>1976400</v>
       </c>
       <c r="I69">
-        <v>37043722000</v>
+        <v>33610758400</v>
       </c>
       <c r="J69" t="str">
         <v>2022-12-13T11:24:00.000Z</v>
       </c>
       <c r="K69">
-        <v>5050008900000</v>
+        <v>4342180836600</v>
       </c>
       <c r="L69">
         <v>298937000</v>
@@ -3843,13 +3843,13 @@
         <v>-115000</v>
       </c>
       <c r="N69">
-        <v>-622832000</v>
+        <v>-2335917200</v>
       </c>
       <c r="O69">
         <v>-19011700</v>
       </c>
       <c r="P69">
-        <v>-195349791000</v>
+        <v>-215719500900</v>
       </c>
     </row>
     <row r="70">
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>17739189000</v>
+        <v>16920908100</v>
       </c>
       <c r="F70">
-        <v>16095118000</v>
+        <v>14973440800</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -3878,13 +3878,13 @@
         <v>1801700</v>
       </c>
       <c r="I70">
-        <v>33834307000</v>
+        <v>31894348900</v>
       </c>
       <c r="J70" t="str">
         <v>2022-12-13T11:26:00.000Z</v>
       </c>
       <c r="K70">
-        <v>5083843207000</v>
+        <v>4374075185500</v>
       </c>
       <c r="L70">
         <v>300738700</v>
@@ -3893,13 +3893,13 @@
         <v>-238100</v>
       </c>
       <c r="N70">
-        <v>-1644071000</v>
+        <v>-1947467300</v>
       </c>
       <c r="O70">
         <v>-19249800</v>
       </c>
       <c r="P70">
-        <v>-196993862000</v>
+        <v>-217666968200</v>
       </c>
     </row>
     <row r="71">
@@ -3916,10 +3916,10 @@
         <v>19500</v>
       </c>
       <c r="E71">
-        <v>18755377000</v>
+        <v>15166369600</v>
       </c>
       <c r="F71">
-        <v>33827735000</v>
+        <v>30176090300</v>
       </c>
       <c r="G71">
         <v>541875000</v>
@@ -3928,13 +3928,13 @@
         <v>2511400</v>
       </c>
       <c r="I71">
-        <v>53124987000</v>
+        <v>45884334900</v>
       </c>
       <c r="J71" t="str">
         <v>2022-12-13T11:28:00.000Z</v>
       </c>
       <c r="K71">
-        <v>5136968194000</v>
+        <v>4419959520400</v>
       </c>
       <c r="L71">
         <v>303250100</v>
@@ -3943,13 +3943,13 @@
         <v>358900</v>
       </c>
       <c r="N71">
-        <v>15072358000</v>
+        <v>15009720700</v>
       </c>
       <c r="O71">
         <v>-18890900</v>
       </c>
       <c r="P71">
-        <v>-181921504000</v>
+        <v>-202657247500</v>
       </c>
     </row>
     <row r="72">
@@ -3984,7 +3984,7 @@
         <v>2022-12-13T11:30:00.000Z</v>
       </c>
       <c r="K72">
-        <v>5137004694000</v>
+        <v>4419996020400</v>
       </c>
       <c r="L72">
         <v>303253300</v>
@@ -3999,7 +3999,7 @@
         <v>-18893700</v>
       </c>
       <c r="P72">
-        <v>-181939304000</v>
+        <v>-202675047500</v>
       </c>
     </row>
     <row r="73">
@@ -4016,25 +4016,25 @@
         <v>140200</v>
       </c>
       <c r="E73">
-        <v>93568385000</v>
+        <v>81744720500</v>
       </c>
       <c r="F73">
-        <v>137771658000</v>
+        <v>120254292900</v>
       </c>
       <c r="G73">
-        <v>2974481000</v>
+        <v>2527628300</v>
       </c>
       <c r="H73">
         <v>13187400</v>
       </c>
       <c r="I73">
-        <v>234314524000</v>
+        <v>204526641700</v>
       </c>
       <c r="J73" t="str">
         <v>2022-12-13T13:00:00.000Z</v>
       </c>
       <c r="K73">
-        <v>5371319218000</v>
+        <v>4624522662100</v>
       </c>
       <c r="L73">
         <v>316440700</v>
@@ -4043,13 +4043,13 @@
         <v>1418400</v>
       </c>
       <c r="N73">
-        <v>44203273000</v>
+        <v>38509572400</v>
       </c>
       <c r="O73">
         <v>-17475300</v>
       </c>
       <c r="P73">
-        <v>-137736031000</v>
+        <v>-164165475100</v>
       </c>
     </row>
     <row r="74">
@@ -4066,10 +4066,10 @@
         <v>21000</v>
       </c>
       <c r="E74">
-        <v>44345286000</v>
+        <v>43450581600</v>
       </c>
       <c r="F74">
-        <v>87362479000</v>
+        <v>81326321200</v>
       </c>
       <c r="G74">
         <v>443558000</v>
@@ -4078,13 +4078,13 @@
         <v>7403400</v>
       </c>
       <c r="I74">
-        <v>132151323000</v>
+        <v>125220460800</v>
       </c>
       <c r="J74" t="str">
         <v>2022-12-13T13:02:00.000Z</v>
       </c>
       <c r="K74">
-        <v>5503470541000</v>
+        <v>4749743122900</v>
       </c>
       <c r="L74">
         <v>323844100</v>
@@ -4093,13 +4093,13 @@
         <v>2040600</v>
       </c>
       <c r="N74">
-        <v>43017193000</v>
+        <v>37875739600</v>
       </c>
       <c r="O74">
         <v>-15434700</v>
       </c>
       <c r="P74">
-        <v>-94718838000</v>
+        <v>-126289735500</v>
       </c>
     </row>
     <row r="75">
@@ -4116,25 +4116,25 @@
         <v>16700</v>
       </c>
       <c r="E75">
-        <v>61723918000</v>
+        <v>58743101800</v>
       </c>
       <c r="F75">
-        <v>62377662000</v>
+        <v>54911136000</v>
       </c>
       <c r="G75">
-        <v>463723000</v>
+        <v>237749200</v>
       </c>
       <c r="H75">
         <v>7404900</v>
       </c>
       <c r="I75">
-        <v>124565303000</v>
+        <v>113891987000</v>
       </c>
       <c r="J75" t="str">
         <v>2022-12-13T13:04:00.000Z</v>
       </c>
       <c r="K75">
-        <v>5628035844000</v>
+        <v>4863635109900</v>
       </c>
       <c r="L75">
         <v>331249000</v>
@@ -4143,13 +4143,13 @@
         <v>55400</v>
       </c>
       <c r="N75">
-        <v>653744000</v>
+        <v>-3831965800</v>
       </c>
       <c r="O75">
         <v>-15379300</v>
       </c>
       <c r="P75">
-        <v>-94065094000</v>
+        <v>-130121701300</v>
       </c>
     </row>
     <row r="76">
@@ -4166,10 +4166,10 @@
         <v>24600</v>
       </c>
       <c r="E76">
-        <v>50617297000</v>
+        <v>48441974500</v>
       </c>
       <c r="F76">
-        <v>62725911000</v>
+        <v>55024719900</v>
       </c>
       <c r="G76">
         <v>501025000</v>
@@ -4178,13 +4178,13 @@
         <v>6236200</v>
       </c>
       <c r="I76">
-        <v>113844233000</v>
+        <v>103967719400</v>
       </c>
       <c r="J76" t="str">
         <v>2022-12-13T13:06:00.000Z</v>
       </c>
       <c r="K76">
-        <v>5741880077000</v>
+        <v>4967602829300</v>
       </c>
       <c r="L76">
         <v>337485200</v>
@@ -4193,13 +4193,13 @@
         <v>244600</v>
       </c>
       <c r="N76">
-        <v>12108614000</v>
+        <v>6582745400</v>
       </c>
       <c r="O76">
         <v>-15134700</v>
       </c>
       <c r="P76">
-        <v>-81956480000</v>
+        <v>-123538955900</v>
       </c>
     </row>
     <row r="77">
@@ -4216,25 +4216,25 @@
         <v>16200</v>
       </c>
       <c r="E77">
-        <v>49929344000</v>
+        <v>48243231800</v>
       </c>
       <c r="F77">
-        <v>32277016000</v>
+        <v>29252943100</v>
       </c>
       <c r="G77">
-        <v>199020000</v>
+        <v>192426600</v>
       </c>
       <c r="H77">
         <v>4930600</v>
       </c>
       <c r="I77">
-        <v>82405380000</v>
+        <v>77688601500</v>
       </c>
       <c r="J77" t="str">
         <v>2022-12-13T13:08:00.000Z</v>
       </c>
       <c r="K77">
-        <v>5824285457000</v>
+        <v>5045291430800</v>
       </c>
       <c r="L77">
         <v>342415800</v>
@@ -4243,13 +4243,13 @@
         <v>-1609400</v>
       </c>
       <c r="N77">
-        <v>-17652328000</v>
+        <v>-18990288700</v>
       </c>
       <c r="O77">
         <v>-16744100</v>
       </c>
       <c r="P77">
-        <v>-99608808000</v>
+        <v>-142529244600</v>
       </c>
     </row>
     <row r="78">
@@ -4266,25 +4266,25 @@
         <v>36500</v>
       </c>
       <c r="E78">
-        <v>73268200000</v>
+        <v>70482388600</v>
       </c>
       <c r="F78">
-        <v>22956393000</v>
+        <v>21348003000</v>
       </c>
       <c r="G78">
-        <v>182652000</v>
+        <v>177657000</v>
       </c>
       <c r="H78">
         <v>6069600</v>
       </c>
       <c r="I78">
-        <v>96407245000</v>
+        <v>92008048600</v>
       </c>
       <c r="J78" t="str">
         <v>2022-12-13T13:10:00.000Z</v>
       </c>
       <c r="K78">
-        <v>5920692702000</v>
+        <v>5137299479400</v>
       </c>
       <c r="L78">
         <v>348485400</v>
@@ -4293,13 +4293,13 @@
         <v>-3473500</v>
       </c>
       <c r="N78">
-        <v>-50311807000</v>
+        <v>-49134385600</v>
       </c>
       <c r="O78">
         <v>-20217600</v>
       </c>
       <c r="P78">
-        <v>-149920615000</v>
+        <v>-191663630200</v>
       </c>
     </row>
     <row r="79">
@@ -4316,10 +4316,10 @@
         <v>12300</v>
       </c>
       <c r="E79">
-        <v>61741401000</v>
+        <v>60484159500</v>
       </c>
       <c r="F79">
-        <v>43326286000</v>
+        <v>39975240400</v>
       </c>
       <c r="G79">
         <v>310081000</v>
@@ -4328,13 +4328,13 @@
         <v>7036600</v>
       </c>
       <c r="I79">
-        <v>105377768000</v>
+        <v>100769480900</v>
       </c>
       <c r="J79" t="str">
         <v>2022-12-13T13:12:00.000Z</v>
       </c>
       <c r="K79">
-        <v>6026070470000</v>
+        <v>5238068960300</v>
       </c>
       <c r="L79">
         <v>355522000</v>
@@ -4343,13 +4343,13 @@
         <v>-2413500</v>
       </c>
       <c r="N79">
-        <v>-18415115000</v>
+        <v>-20508919100</v>
       </c>
       <c r="O79">
         <v>-22631100</v>
       </c>
       <c r="P79">
-        <v>-168335730000</v>
+        <v>-212172549300</v>
       </c>
     </row>
     <row r="80">
@@ -4366,25 +4366,25 @@
         <v>22000</v>
       </c>
       <c r="E80">
-        <v>48373674000</v>
+        <v>46976472600</v>
       </c>
       <c r="F80">
-        <v>39681634000</v>
+        <v>35509010800</v>
       </c>
       <c r="G80">
-        <v>330222000</v>
+        <v>326226000</v>
       </c>
       <c r="H80">
         <v>5855400</v>
       </c>
       <c r="I80">
-        <v>88385530000</v>
+        <v>82811709400</v>
       </c>
       <c r="J80" t="str">
         <v>2022-12-13T13:14:00.000Z</v>
       </c>
       <c r="K80">
-        <v>6114456000000</v>
+        <v>5320880669700</v>
       </c>
       <c r="L80">
         <v>361377400</v>
@@ -4393,13 +4393,13 @@
         <v>-1271000</v>
       </c>
       <c r="N80">
-        <v>-8692040000</v>
+        <v>-11467461800</v>
       </c>
       <c r="O80">
         <v>-23902100</v>
       </c>
       <c r="P80">
-        <v>-177027770000</v>
+        <v>-223640011100</v>
       </c>
     </row>
     <row r="81">
@@ -4416,10 +4416,10 @@
         <v>26100</v>
       </c>
       <c r="E81">
-        <v>30210713000</v>
+        <v>29727097100</v>
       </c>
       <c r="F81">
-        <v>58320123000</v>
+        <v>52006243200</v>
       </c>
       <c r="G81">
         <v>559680000</v>
@@ -4428,13 +4428,13 @@
         <v>5091100</v>
       </c>
       <c r="I81">
-        <v>89090516000</v>
+        <v>82293020300</v>
       </c>
       <c r="J81" t="str">
         <v>2022-12-13T13:16:00.000Z</v>
       </c>
       <c r="K81">
-        <v>6203546516000</v>
+        <v>5403173690000</v>
       </c>
       <c r="L81">
         <v>366468500</v>
@@ -4443,13 +4443,13 @@
         <v>1240800</v>
       </c>
       <c r="N81">
-        <v>28109410000</v>
+        <v>22279146100</v>
       </c>
       <c r="O81">
         <v>-22661300</v>
       </c>
       <c r="P81">
-        <v>-148918360000</v>
+        <v>-201360865000</v>
       </c>
     </row>
     <row r="82">
@@ -4466,10 +4466,10 @@
         <v>22300</v>
       </c>
       <c r="E82">
-        <v>29009952000</v>
+        <v>27885477600</v>
       </c>
       <c r="F82">
-        <v>60156429000</v>
+        <v>55932257400</v>
       </c>
       <c r="G82">
         <v>110661000</v>
@@ -4478,13 +4478,13 @@
         <v>5260900</v>
       </c>
       <c r="I82">
-        <v>89277042000</v>
+        <v>83928396000</v>
       </c>
       <c r="J82" t="str">
         <v>2022-12-13T13:18:00.000Z</v>
       </c>
       <c r="K82">
-        <v>6292823558000</v>
+        <v>5487102086000</v>
       </c>
       <c r="L82">
         <v>371729400</v>
@@ -4493,13 +4493,13 @@
         <v>2114800</v>
       </c>
       <c r="N82">
-        <v>31146477000</v>
+        <v>28046779800</v>
       </c>
       <c r="O82">
         <v>-20546500</v>
       </c>
       <c r="P82">
-        <v>-117771883000</v>
+        <v>-173314085200</v>
       </c>
     </row>
     <row r="83">
@@ -4516,10 +4516,10 @@
         <v>5900</v>
       </c>
       <c r="E83">
-        <v>27545481000</v>
+        <v>24187842000</v>
       </c>
       <c r="F83">
-        <v>74450018000</v>
+        <v>62822856800</v>
       </c>
       <c r="G83">
         <v>69852000</v>
@@ -4528,13 +4528,13 @@
         <v>5614800</v>
       </c>
       <c r="I83">
-        <v>102065351000</v>
+        <v>87080550800</v>
       </c>
       <c r="J83" t="str">
         <v>2022-12-13T13:20:00.000Z</v>
       </c>
       <c r="K83">
-        <v>6394888909000</v>
+        <v>5574182636800</v>
       </c>
       <c r="L83">
         <v>377344200</v>
@@ -4543,13 +4543,13 @@
         <v>2615900</v>
       </c>
       <c r="N83">
-        <v>46904537000</v>
+        <v>38635014800</v>
       </c>
       <c r="O83">
         <v>-17930600</v>
       </c>
       <c r="P83">
-        <v>-70867346000</v>
+        <v>-134679070400</v>
       </c>
     </row>
     <row r="84">
@@ -4566,10 +4566,10 @@
         <v>23100</v>
       </c>
       <c r="E84">
-        <v>20770204000</v>
+        <v>18896779300</v>
       </c>
       <c r="F84">
-        <v>71273093000</v>
+        <v>60932344100</v>
       </c>
       <c r="G84">
         <v>326122000</v>
@@ -4578,13 +4578,13 @@
         <v>5547100</v>
       </c>
       <c r="I84">
-        <v>92369419000</v>
+        <v>80155245400</v>
       </c>
       <c r="J84" t="str">
         <v>2022-12-13T13:22:00.000Z</v>
       </c>
       <c r="K84">
-        <v>6487258328000</v>
+        <v>5654337882200</v>
       </c>
       <c r="L84">
         <v>382891300</v>
@@ -4593,13 +4593,13 @@
         <v>3223200</v>
       </c>
       <c r="N84">
-        <v>50502889000</v>
+        <v>42035564800</v>
       </c>
       <c r="O84">
         <v>-14707400</v>
       </c>
       <c r="P84">
-        <v>-20364457000</v>
+        <v>-92643505600</v>
       </c>
     </row>
     <row r="85">
@@ -4616,25 +4616,25 @@
         <v>5500</v>
       </c>
       <c r="E85">
-        <v>27583380000</v>
+        <v>26796068100</v>
       </c>
       <c r="F85">
-        <v>72455919000</v>
+        <v>62231653500</v>
       </c>
       <c r="G85">
-        <v>78359000</v>
+        <v>74163200</v>
       </c>
       <c r="H85">
         <v>6297300</v>
       </c>
       <c r="I85">
-        <v>100117658000</v>
+        <v>89101884800</v>
       </c>
       <c r="J85" t="str">
         <v>2022-12-13T13:24:00.000Z</v>
       </c>
       <c r="K85">
-        <v>6587375986000</v>
+        <v>5743439767000</v>
       </c>
       <c r="L85">
         <v>389188600</v>
@@ -4643,13 +4643,13 @@
         <v>3070600</v>
       </c>
       <c r="N85">
-        <v>44872539000</v>
+        <v>35435585400</v>
       </c>
       <c r="O85">
         <v>-11636800</v>
       </c>
       <c r="P85">
-        <v>24508082000</v>
+        <v>-57207920200</v>
       </c>
     </row>
     <row r="86">
@@ -4666,10 +4666,10 @@
         <v>8000</v>
       </c>
       <c r="E86">
-        <v>23218685000</v>
+        <v>18731776400</v>
       </c>
       <c r="F86">
-        <v>107775134000</v>
+        <v>85424706800</v>
       </c>
       <c r="G86">
         <v>202982000</v>
@@ -4678,13 +4678,13 @@
         <v>7365100</v>
       </c>
       <c r="I86">
-        <v>131196801000</v>
+        <v>104359465200</v>
       </c>
       <c r="J86" t="str">
         <v>2022-12-13T13:26:00.000Z</v>
       </c>
       <c r="K86">
-        <v>6718572787000</v>
+        <v>5847799232200</v>
       </c>
       <c r="L86">
         <v>396553700</v>
@@ -4693,13 +4693,13 @@
         <v>4403100</v>
       </c>
       <c r="N86">
-        <v>84556449000</v>
+        <v>66692930400</v>
       </c>
       <c r="O86">
         <v>-7233700</v>
       </c>
       <c r="P86">
-        <v>109064531000</v>
+        <v>9485010200</v>
       </c>
     </row>
     <row r="87">
@@ -4716,25 +4716,25 @@
         <v>83400</v>
       </c>
       <c r="E87">
-        <v>23889674000</v>
+        <v>20955910700</v>
       </c>
       <c r="F87">
-        <v>121296798000</v>
+        <v>109655550900</v>
       </c>
       <c r="G87">
-        <v>1722145000</v>
+        <v>1506361000</v>
       </c>
       <c r="H87">
         <v>8335500</v>
       </c>
       <c r="I87">
-        <v>146908617000</v>
+        <v>132117822600</v>
       </c>
       <c r="J87" t="str">
         <v>2022-12-13T13:28:00.000Z</v>
       </c>
       <c r="K87">
-        <v>6865481404000</v>
+        <v>5979917054800</v>
       </c>
       <c r="L87">
         <v>404889200</v>
@@ -4743,13 +4743,13 @@
         <v>5968500</v>
       </c>
       <c r="N87">
-        <v>97407124000</v>
+        <v>88699640200</v>
       </c>
       <c r="O87">
         <v>-1265200</v>
       </c>
       <c r="P87">
-        <v>206471655000</v>
+        <v>98184650400</v>
       </c>
     </row>
     <row r="88">
@@ -4766,10 +4766,10 @@
         <v>12400</v>
       </c>
       <c r="E88">
-        <v>43690722000</v>
+        <v>37697920800</v>
       </c>
       <c r="F88">
-        <v>118470701000</v>
+        <v>87629872700</v>
       </c>
       <c r="G88">
         <v>242539000</v>
@@ -4778,13 +4778,13 @@
         <v>9626200</v>
       </c>
       <c r="I88">
-        <v>162403962000</v>
+        <v>125570332500</v>
       </c>
       <c r="J88" t="str">
         <v>2022-12-13T13:30:00.000Z</v>
       </c>
       <c r="K88">
-        <v>7027885366000</v>
+        <v>6105487387300</v>
       </c>
       <c r="L88">
         <v>414515400</v>
@@ -4793,13 +4793,13 @@
         <v>4543200</v>
       </c>
       <c r="N88">
-        <v>74779979000</v>
+        <v>49931951900</v>
       </c>
       <c r="O88">
         <v>3278000</v>
       </c>
       <c r="P88">
-        <v>281251634000</v>
+        <v>148116602300</v>
       </c>
     </row>
     <row r="89">
@@ -4816,25 +4816,25 @@
         <v>31200</v>
       </c>
       <c r="E89">
-        <v>56070305000</v>
+        <v>48495687200</v>
       </c>
       <c r="F89">
-        <v>131768592000</v>
+        <v>106983302100</v>
       </c>
       <c r="G89">
-        <v>472090000</v>
+        <v>464597500</v>
       </c>
       <c r="H89">
         <v>13097000</v>
       </c>
       <c r="I89">
-        <v>188310987000</v>
+        <v>155943586800</v>
       </c>
       <c r="J89" t="str">
         <v>2022-12-13T13:32:00.000Z</v>
       </c>
       <c r="K89">
-        <v>7216196353000</v>
+        <v>6261430974100</v>
       </c>
       <c r="L89">
         <v>427612400</v>
@@ -4843,13 +4843,13 @@
         <v>5557200</v>
       </c>
       <c r="N89">
-        <v>75698287000</v>
+        <v>58487614900</v>
       </c>
       <c r="O89">
         <v>8835200</v>
       </c>
       <c r="P89">
-        <v>356949921000</v>
+        <v>206604217200</v>
       </c>
     </row>
     <row r="90">
@@ -4866,25 +4866,25 @@
         <v>63900</v>
       </c>
       <c r="E90">
-        <v>63268744000</v>
+        <v>53411111500</v>
       </c>
       <c r="F90">
-        <v>49480002000</v>
+        <v>39270721500</v>
       </c>
       <c r="G90">
-        <v>1016463000</v>
+        <v>892686900</v>
       </c>
       <c r="H90">
         <v>6690100</v>
       </c>
       <c r="I90">
-        <v>113765209000</v>
+        <v>93574519900</v>
       </c>
       <c r="J90" t="str">
         <v>2022-12-13T13:34:00.000Z</v>
       </c>
       <c r="K90">
-        <v>7329961562000</v>
+        <v>6355005494000</v>
       </c>
       <c r="L90">
         <v>434302500</v>
@@ -4893,13 +4893,13 @@
         <v>-1143000</v>
       </c>
       <c r="N90">
-        <v>-13788742000</v>
+        <v>-14140390000</v>
       </c>
       <c r="O90">
         <v>7692200</v>
       </c>
       <c r="P90">
-        <v>343161179000</v>
+        <v>192463827200</v>
       </c>
     </row>
     <row r="91">
@@ -4916,10 +4916,10 @@
         <v>26200</v>
       </c>
       <c r="E91">
-        <v>67259936000</v>
+        <v>54782426000</v>
       </c>
       <c r="F91">
-        <v>31941340000</v>
+        <v>26010676600</v>
       </c>
       <c r="G91">
         <v>378779000</v>
@@ -4928,13 +4928,13 @@
         <v>6067000</v>
       </c>
       <c r="I91">
-        <v>99580055000</v>
+        <v>81171881600</v>
       </c>
       <c r="J91" t="str">
         <v>2022-12-13T13:36:00.000Z</v>
       </c>
       <c r="K91">
-        <v>7429541617000</v>
+        <v>6436177375600</v>
       </c>
       <c r="L91">
         <v>440369500</v>
@@ -4943,13 +4943,13 @@
         <v>-2283800</v>
       </c>
       <c r="N91">
-        <v>-35318596000</v>
+        <v>-28771749400</v>
       </c>
       <c r="O91">
         <v>5408400</v>
       </c>
       <c r="P91">
-        <v>307842583000</v>
+        <v>163692077800</v>
       </c>
     </row>
     <row r="92">
@@ -4966,25 +4966,25 @@
         <v>57900</v>
       </c>
       <c r="E92">
-        <v>65736956000</v>
+        <v>58214486000</v>
       </c>
       <c r="F92">
-        <v>24252717000</v>
+        <v>20866806300</v>
       </c>
       <c r="G92">
-        <v>1110039000</v>
+        <v>1094055000</v>
       </c>
       <c r="H92">
         <v>5416700</v>
       </c>
       <c r="I92">
-        <v>91099712000</v>
+        <v>80175347300</v>
       </c>
       <c r="J92" t="str">
         <v>2022-12-13T13:38:00.000Z</v>
       </c>
       <c r="K92">
-        <v>7520641329000</v>
+        <v>6516352722900</v>
       </c>
       <c r="L92">
         <v>445786200</v>
@@ -4993,13 +4993,13 @@
         <v>-2595800</v>
       </c>
       <c r="N92">
-        <v>-41484239000</v>
+        <v>-37347679700</v>
       </c>
       <c r="O92">
         <v>2812600</v>
       </c>
       <c r="P92">
-        <v>266358344000</v>
+        <v>126344398100</v>
       </c>
     </row>
     <row r="93">
@@ -5016,10 +5016,10 @@
         <v>22000</v>
       </c>
       <c r="E93">
-        <v>41168529000</v>
+        <v>37351050300</v>
       </c>
       <c r="F93">
-        <v>31881034000</v>
+        <v>27597521800</v>
       </c>
       <c r="G93">
         <v>227832000</v>
@@ -5028,13 +5028,13 @@
         <v>4232100</v>
       </c>
       <c r="I93">
-        <v>73277395000</v>
+        <v>65176404100</v>
       </c>
       <c r="J93" t="str">
         <v>2022-12-13T13:40:00.000Z</v>
       </c>
       <c r="K93">
-        <v>7593918724000</v>
+        <v>6581529127000</v>
       </c>
       <c r="L93">
         <v>450018300</v>
@@ -5043,13 +5043,13 @@
         <v>-255500</v>
       </c>
       <c r="N93">
-        <v>-9287495000</v>
+        <v>-9753528500</v>
       </c>
       <c r="O93">
         <v>2557100</v>
       </c>
       <c r="P93">
-        <v>257070849000</v>
+        <v>116590869600</v>
       </c>
     </row>
     <row r="94">
@@ -5066,10 +5066,10 @@
         <v>8700</v>
       </c>
       <c r="E94">
-        <v>43841157000</v>
+        <v>39638164200</v>
       </c>
       <c r="F94">
-        <v>31286841000</v>
+        <v>24729804600</v>
       </c>
       <c r="G94">
         <v>113990000</v>
@@ -5078,13 +5078,13 @@
         <v>4081900</v>
       </c>
       <c r="I94">
-        <v>75241988000</v>
+        <v>64481958800</v>
       </c>
       <c r="J94" t="str">
         <v>2022-12-13T13:42:00.000Z</v>
       </c>
       <c r="K94">
-        <v>7669160712000</v>
+        <v>6646011085800</v>
       </c>
       <c r="L94">
         <v>454100200</v>
@@ -5093,13 +5093,13 @@
         <v>-1021800</v>
       </c>
       <c r="N94">
-        <v>-12554316000</v>
+        <v>-14908359600</v>
       </c>
       <c r="O94">
         <v>1535300</v>
       </c>
       <c r="P94">
-        <v>244516533000</v>
+        <v>101682510000</v>
       </c>
     </row>
     <row r="95">
@@ -5116,25 +5116,25 @@
         <v>15300</v>
       </c>
       <c r="E95">
-        <v>24578797000</v>
+        <v>23334442600</v>
       </c>
       <c r="F95">
-        <v>48649834000</v>
+        <v>40518873100</v>
       </c>
       <c r="G95">
-        <v>176529000</v>
+        <v>175530000</v>
       </c>
       <c r="H95">
         <v>4130500</v>
       </c>
       <c r="I95">
-        <v>73405160000</v>
+        <v>64028845700</v>
       </c>
       <c r="J95" t="str">
         <v>2022-12-13T13:44:00.000Z</v>
       </c>
       <c r="K95">
-        <v>7742565872000</v>
+        <v>6710039931500</v>
       </c>
       <c r="L95">
         <v>458230700</v>
@@ -5143,13 +5143,13 @@
         <v>908000</v>
       </c>
       <c r="N95">
-        <v>24071037000</v>
+        <v>17184430500</v>
       </c>
       <c r="O95">
         <v>2443300</v>
       </c>
       <c r="P95">
-        <v>268587570000</v>
+        <v>118866940500</v>
       </c>
     </row>
     <row r="96">
@@ -5166,25 +5166,25 @@
         <v>27100</v>
       </c>
       <c r="E96">
-        <v>37088002000</v>
+        <v>31572123400</v>
       </c>
       <c r="F96">
-        <v>40619788000</v>
+        <v>35176936300</v>
       </c>
       <c r="G96">
-        <v>326106000</v>
+        <v>271260900</v>
       </c>
       <c r="H96">
         <v>4346300</v>
       </c>
       <c r="I96">
-        <v>78033896000</v>
+        <v>67020320600</v>
       </c>
       <c r="J96" t="str">
         <v>2022-12-13T13:46:00.000Z</v>
       </c>
       <c r="K96">
-        <v>7820599768000</v>
+        <v>6777060252100</v>
       </c>
       <c r="L96">
         <v>462577000</v>
@@ -5193,13 +5193,13 @@
         <v>107800</v>
       </c>
       <c r="N96">
-        <v>3531786000</v>
+        <v>3604812900</v>
       </c>
       <c r="O96">
         <v>2551100</v>
       </c>
       <c r="P96">
-        <v>272119356000</v>
+        <v>122471753400</v>
       </c>
     </row>
     <row r="97">
@@ -5216,25 +5216,25 @@
         <v>51300</v>
       </c>
       <c r="E97">
-        <v>77793154000</v>
+        <v>69098657200</v>
       </c>
       <c r="F97">
-        <v>29828396000</v>
+        <v>21517914800</v>
       </c>
       <c r="G97">
-        <v>1286478000</v>
+        <v>1257407100</v>
       </c>
       <c r="H97">
         <v>6007900</v>
       </c>
       <c r="I97">
-        <v>108908028000</v>
+        <v>91873979100</v>
       </c>
       <c r="J97" t="str">
         <v>2022-12-13T13:48:00.000Z</v>
       </c>
       <c r="K97">
-        <v>7929507796000</v>
+        <v>6868934231200</v>
       </c>
       <c r="L97">
         <v>468584900</v>
@@ -5243,13 +5243,13 @@
         <v>-2493400</v>
       </c>
       <c r="N97">
-        <v>-47964758000</v>
+        <v>-47580742400</v>
       </c>
       <c r="O97">
         <v>57700</v>
       </c>
       <c r="P97">
-        <v>224154598000</v>
+        <v>74891011000</v>
       </c>
     </row>
     <row r="98">
@@ -5266,25 +5266,25 @@
         <v>27400</v>
       </c>
       <c r="E98">
-        <v>99471843000</v>
+        <v>98568846900</v>
       </c>
       <c r="F98">
-        <v>34238552000</v>
+        <v>31352740700</v>
       </c>
       <c r="G98">
-        <v>430892000</v>
+        <v>429893000</v>
       </c>
       <c r="H98">
         <v>7618800</v>
       </c>
       <c r="I98">
-        <v>134141287000</v>
+        <v>130351480600</v>
       </c>
       <c r="J98" t="str">
         <v>2022-12-13T13:50:00.000Z</v>
       </c>
       <c r="K98">
-        <v>8063649083000</v>
+        <v>6999285711800</v>
       </c>
       <c r="L98">
         <v>476203700</v>
@@ -5293,13 +5293,13 @@
         <v>-4271200</v>
       </c>
       <c r="N98">
-        <v>-65233291000</v>
+        <v>-67216106200</v>
       </c>
       <c r="O98">
         <v>-4213500</v>
       </c>
       <c r="P98">
-        <v>158921307000</v>
+        <v>7674904800</v>
       </c>
     </row>
     <row r="99">
@@ -5316,10 +5316,10 @@
         <v>23700</v>
       </c>
       <c r="E99">
-        <v>42501659000</v>
+        <v>41016146000</v>
       </c>
       <c r="F99">
-        <v>67256856000</v>
+        <v>56716906500</v>
       </c>
       <c r="G99">
         <v>289796000</v>
@@ -5328,13 +5328,13 @@
         <v>5926100</v>
       </c>
       <c r="I99">
-        <v>110048311000</v>
+        <v>98022848500</v>
       </c>
       <c r="J99" t="str">
         <v>2022-12-13T13:52:00.000Z</v>
       </c>
       <c r="K99">
-        <v>8173697394000</v>
+        <v>7097308560300</v>
       </c>
       <c r="L99">
         <v>482129800</v>
@@ -5343,13 +5343,13 @@
         <v>546400</v>
       </c>
       <c r="N99">
-        <v>24755197000</v>
+        <v>15700760500</v>
       </c>
       <c r="O99">
         <v>-3667100</v>
       </c>
       <c r="P99">
-        <v>183676504000</v>
+        <v>23375665300</v>
       </c>
     </row>
     <row r="100">
@@ -5366,25 +5366,25 @@
         <v>25200</v>
       </c>
       <c r="E100">
-        <v>29222199000</v>
+        <v>27716706000</v>
       </c>
       <c r="F100">
-        <v>32493031000</v>
+        <v>27611617300</v>
       </c>
       <c r="G100">
-        <v>366080000</v>
+        <v>319127000</v>
       </c>
       <c r="H100">
         <v>3406000</v>
       </c>
       <c r="I100">
-        <v>62081310000</v>
+        <v>55647450300</v>
       </c>
       <c r="J100" t="str">
         <v>2022-12-13T13:54:00.000Z</v>
       </c>
       <c r="K100">
-        <v>8235778704000</v>
+        <v>7152956010600</v>
       </c>
       <c r="L100">
         <v>485535800</v>
@@ -5393,13 +5393,13 @@
         <v>264600</v>
       </c>
       <c r="N100">
-        <v>3270832000</v>
+        <v>-105088700</v>
       </c>
       <c r="O100">
         <v>-3402500</v>
       </c>
       <c r="P100">
-        <v>186947336000</v>
+        <v>23270576600</v>
       </c>
     </row>
     <row r="101">
@@ -5416,25 +5416,25 @@
         <v>10600</v>
       </c>
       <c r="E101">
-        <v>59746584000</v>
+        <v>57818713800</v>
       </c>
       <c r="F101">
-        <v>30910625000</v>
+        <v>28224813500</v>
       </c>
       <c r="G101">
-        <v>387165000</v>
+        <v>310242000</v>
       </c>
       <c r="H101">
         <v>4466000</v>
       </c>
       <c r="I101">
-        <v>91044374000</v>
+        <v>86353769300</v>
       </c>
       <c r="J101" t="str">
         <v>2022-12-13T13:56:00.000Z</v>
       </c>
       <c r="K101">
-        <v>8326823078000</v>
+        <v>7239309779900</v>
       </c>
       <c r="L101">
         <v>490001800</v>
@@ -5443,13 +5443,13 @@
         <v>-1598000</v>
       </c>
       <c r="N101">
-        <v>-28835959000</v>
+        <v>-29593900300</v>
       </c>
       <c r="O101">
         <v>-5000500</v>
       </c>
       <c r="P101">
-        <v>158111377000</v>
+        <v>-6323323700</v>
       </c>
     </row>
     <row r="102">
@@ -5466,10 +5466,10 @@
         <v>8300</v>
       </c>
       <c r="E102">
-        <v>41735362000</v>
+        <v>38337663100</v>
       </c>
       <c r="F102">
-        <v>43501564000</v>
+        <v>39506263300</v>
       </c>
       <c r="G102">
         <v>178498000</v>
@@ -5478,13 +5478,13 @@
         <v>4386600</v>
       </c>
       <c r="I102">
-        <v>85415424000</v>
+        <v>78022424400</v>
       </c>
       <c r="J102" t="str">
         <v>2022-12-13T13:58:00.000Z</v>
       </c>
       <c r="K102">
-        <v>8412238502000</v>
+        <v>7317332204300</v>
       </c>
       <c r="L102">
         <v>494388400</v>
@@ -5493,13 +5493,13 @@
         <v>-53700</v>
       </c>
       <c r="N102">
-        <v>1766202000</v>
+        <v>1168600200</v>
       </c>
       <c r="O102">
         <v>-5054200</v>
       </c>
       <c r="P102">
-        <v>159877579000</v>
+        <v>-5154723500</v>
       </c>
     </row>
     <row r="103">
@@ -5516,25 +5516,25 @@
         <v>27900</v>
       </c>
       <c r="E103">
-        <v>35569469000</v>
+        <v>34944294800</v>
       </c>
       <c r="F103">
-        <v>36672373000</v>
+        <v>34524323200</v>
       </c>
       <c r="G103">
-        <v>463639000</v>
+        <v>408694000</v>
       </c>
       <c r="H103">
         <v>3632200</v>
       </c>
       <c r="I103">
-        <v>72705481000</v>
+        <v>69877312000</v>
       </c>
       <c r="J103" t="str">
         <v>2022-12-13T14:00:00.000Z</v>
       </c>
       <c r="K103">
-        <v>8484943983000</v>
+        <v>7387209516300</v>
       </c>
       <c r="L103">
         <v>498020600</v>
@@ -5543,13 +5543,13 @@
         <v>-203300</v>
       </c>
       <c r="N103">
-        <v>1102904000</v>
+        <v>-419971600</v>
       </c>
       <c r="O103">
         <v>-5257500</v>
       </c>
       <c r="P103">
-        <v>160980483000</v>
+        <v>-5574695100</v>
       </c>
     </row>
     <row r="104">
@@ -5566,25 +5566,25 @@
         <v>6100</v>
       </c>
       <c r="E104">
-        <v>36955576000</v>
+        <v>35617915000</v>
       </c>
       <c r="F104">
-        <v>54166225000</v>
+        <v>44080321000</v>
       </c>
       <c r="G104">
-        <v>109890000</v>
+        <v>106693200</v>
       </c>
       <c r="H104">
         <v>4557900</v>
       </c>
       <c r="I104">
-        <v>91231691000</v>
+        <v>79804929200</v>
       </c>
       <c r="J104" t="str">
         <v>2022-12-13T14:02:00.000Z</v>
       </c>
       <c r="K104">
-        <v>8576175674000</v>
+        <v>7467014445500</v>
       </c>
       <c r="L104">
         <v>502578500</v>
@@ -5593,13 +5593,13 @@
         <v>864400</v>
       </c>
       <c r="N104">
-        <v>17210649000</v>
+        <v>8462406000</v>
       </c>
       <c r="O104">
         <v>-4393100</v>
       </c>
       <c r="P104">
-        <v>178191132000</v>
+        <v>2887710900</v>
       </c>
     </row>
     <row r="105">
@@ -5616,25 +5616,25 @@
         <v>23300</v>
       </c>
       <c r="E105">
-        <v>83730198000</v>
+        <v>74723913300</v>
       </c>
       <c r="F105">
-        <v>39875268000</v>
+        <v>36614831700</v>
       </c>
       <c r="G105">
-        <v>386017000</v>
+        <v>378424600</v>
       </c>
       <c r="H105">
         <v>6569800</v>
       </c>
       <c r="I105">
-        <v>123991483000</v>
+        <v>111717169600</v>
       </c>
       <c r="J105" t="str">
         <v>2022-12-13T14:04:00.000Z</v>
       </c>
       <c r="K105">
-        <v>8700167157000</v>
+        <v>7578731615100</v>
       </c>
       <c r="L105">
         <v>509148300</v>
@@ -5643,13 +5643,13 @@
         <v>-2651500</v>
       </c>
       <c r="N105">
-        <v>-43854930000</v>
+        <v>-38109081600</v>
       </c>
       <c r="O105">
         <v>-7044600</v>
       </c>
       <c r="P105">
-        <v>134336202000</v>
+        <v>-35221370700</v>
       </c>
     </row>
     <row r="106">
@@ -5666,10 +5666,10 @@
         <v>27300</v>
       </c>
       <c r="E106">
-        <v>50638110000</v>
+        <v>47799751200</v>
       </c>
       <c r="F106">
-        <v>39090252000</v>
+        <v>33924622800</v>
       </c>
       <c r="G106">
         <v>463643000</v>
@@ -5678,13 +5678,13 @@
         <v>4835800</v>
       </c>
       <c r="I106">
-        <v>90192005000</v>
+        <v>82188017000</v>
       </c>
       <c r="J106" t="str">
         <v>2022-12-13T14:06:00.000Z</v>
       </c>
       <c r="K106">
-        <v>8790359162000</v>
+        <v>7660919632100</v>
       </c>
       <c r="L106">
         <v>513984100</v>
@@ -5693,13 +5693,13 @@
         <v>-857900</v>
       </c>
       <c r="N106">
-        <v>-11547858000</v>
+        <v>-13875128400</v>
       </c>
       <c r="O106">
         <v>-7902500</v>
       </c>
       <c r="P106">
-        <v>122788344000</v>
+        <v>-49096499100</v>
       </c>
     </row>
     <row r="107">
@@ -5716,25 +5716,25 @@
         <v>64000</v>
       </c>
       <c r="E107">
-        <v>107998722000</v>
+        <v>105588534600</v>
       </c>
       <c r="F107">
-        <v>39215477000</v>
+        <v>34366730600</v>
       </c>
       <c r="G107">
-        <v>596133000</v>
+        <v>587641500</v>
       </c>
       <c r="H107">
         <v>9581800</v>
       </c>
       <c r="I107">
-        <v>147810332000</v>
+        <v>140542906700</v>
       </c>
       <c r="J107" t="str">
         <v>2022-12-13T14:08:00.000Z</v>
       </c>
       <c r="K107">
-        <v>8938169494000</v>
+        <v>7801462538800</v>
       </c>
       <c r="L107">
         <v>523565900</v>
@@ -5743,13 +5743,13 @@
         <v>-4728200</v>
       </c>
       <c r="N107">
-        <v>-68783245000</v>
+        <v>-71221804000</v>
       </c>
       <c r="O107">
         <v>-12630700</v>
       </c>
       <c r="P107">
-        <v>54005099000</v>
+        <v>-120318303100</v>
       </c>
     </row>
     <row r="108">
@@ -5766,25 +5766,25 @@
         <v>71300</v>
       </c>
       <c r="E108">
-        <v>214922224000</v>
+        <v>204902254000</v>
       </c>
       <c r="F108">
-        <v>43015047000</v>
+        <v>40408656000</v>
       </c>
       <c r="G108">
-        <v>937223000</v>
+        <v>933826400</v>
       </c>
       <c r="H108">
         <v>16914700</v>
       </c>
       <c r="I108">
-        <v>258874494000</v>
+        <v>246244736400</v>
       </c>
       <c r="J108" t="str">
         <v>2022-12-13T14:10:00.000Z</v>
       </c>
       <c r="K108">
-        <v>9197043988000</v>
+        <v>8047707275200</v>
       </c>
       <c r="L108">
         <v>540480600</v>
@@ -5793,13 +5793,13 @@
         <v>-11785400</v>
       </c>
       <c r="N108">
-        <v>-171907177000</v>
+        <v>-164493598000</v>
       </c>
       <c r="O108">
         <v>-24416100</v>
       </c>
       <c r="P108">
-        <v>-117902078000</v>
+        <v>-284811901100</v>
       </c>
     </row>
     <row r="109">
@@ -5816,25 +5816,25 @@
         <v>94600</v>
       </c>
       <c r="E109">
-        <v>133382527000</v>
+        <v>123826792300</v>
       </c>
       <c r="F109">
-        <v>74487859000</v>
+        <v>67327826200</v>
       </c>
       <c r="G109">
-        <v>1849112000</v>
+        <v>1823138000</v>
       </c>
       <c r="H109">
         <v>13067000</v>
       </c>
       <c r="I109">
-        <v>209719498000</v>
+        <v>192977756500</v>
       </c>
       <c r="J109" t="str">
         <v>2022-12-13T14:12:00.000Z</v>
       </c>
       <c r="K109">
-        <v>9406763486000</v>
+        <v>8240685031700</v>
       </c>
       <c r="L109">
         <v>553547600</v>
@@ -5843,13 +5843,13 @@
         <v>-5030800</v>
       </c>
       <c r="N109">
-        <v>-58894668000</v>
+        <v>-56498966100</v>
       </c>
       <c r="O109">
         <v>-29446900</v>
       </c>
       <c r="P109">
-        <v>-176796746000</v>
+        <v>-341310867200</v>
       </c>
     </row>
     <row r="110">
@@ -5866,10 +5866,10 @@
         <v>22800</v>
       </c>
       <c r="E110">
-        <v>34357759000</v>
+        <v>32570947600</v>
       </c>
       <c r="F110">
-        <v>79730157000</v>
+        <v>70363033500</v>
       </c>
       <c r="G110">
         <v>577700000</v>
@@ -5878,13 +5878,13 @@
         <v>7080500</v>
       </c>
       <c r="I110">
-        <v>114665616000</v>
+        <v>103511681100</v>
       </c>
       <c r="J110" t="str">
         <v>2022-12-13T14:14:00.000Z</v>
       </c>
       <c r="K110">
-        <v>9521429102000</v>
+        <v>8344196712800</v>
       </c>
       <c r="L110">
         <v>560628100</v>
@@ -5893,13 +5893,13 @@
         <v>2482500</v>
       </c>
       <c r="N110">
-        <v>45372398000</v>
+        <v>37792085900</v>
       </c>
       <c r="O110">
         <v>-26964400</v>
       </c>
       <c r="P110">
-        <v>-131424348000</v>
+        <v>-303518781300</v>
       </c>
     </row>
     <row r="111">
@@ -5916,10 +5916,10 @@
         <v>47400</v>
       </c>
       <c r="E111">
-        <v>31568928000</v>
+        <v>24098406000</v>
       </c>
       <c r="F111">
-        <v>97649514000</v>
+        <v>86065209900</v>
       </c>
       <c r="G111">
         <v>626059000</v>
@@ -5928,13 +5928,13 @@
         <v>7150000</v>
       </c>
       <c r="I111">
-        <v>129844501000</v>
+        <v>110789674900</v>
       </c>
       <c r="J111" t="str">
         <v>2022-12-13T14:16:00.000Z</v>
       </c>
       <c r="K111">
-        <v>9651273603000</v>
+        <v>8454986387700</v>
       </c>
       <c r="L111">
         <v>567778100</v>
@@ -5943,13 +5943,13 @@
         <v>3774200</v>
       </c>
       <c r="N111">
-        <v>66080586000</v>
+        <v>61966803900</v>
       </c>
       <c r="O111">
         <v>-23190200</v>
       </c>
       <c r="P111">
-        <v>-65343762000</v>
+        <v>-241551977400</v>
       </c>
     </row>
     <row r="112">
@@ -5966,25 +5966,25 @@
         <v>10300</v>
       </c>
       <c r="E112">
-        <v>21998977000</v>
+        <v>19792585600</v>
       </c>
       <c r="F112">
-        <v>110759036000</v>
+        <v>99958946900</v>
       </c>
       <c r="G112">
-        <v>172494000</v>
+        <v>122544000</v>
       </c>
       <c r="H112">
         <v>7271900</v>
       </c>
       <c r="I112">
-        <v>132930507000</v>
+        <v>119874076500</v>
       </c>
       <c r="J112" t="str">
         <v>2022-12-13T14:18:00.000Z</v>
       </c>
       <c r="K112">
-        <v>9784204110000</v>
+        <v>8574860464200</v>
       </c>
       <c r="L112">
         <v>575050000</v>
@@ -5993,13 +5993,13 @@
         <v>4895600</v>
       </c>
       <c r="N112">
-        <v>88760059000</v>
+        <v>80166361300</v>
       </c>
       <c r="O112">
         <v>-18294600</v>
       </c>
       <c r="P112">
-        <v>23416297000</v>
+        <v>-161385616100</v>
       </c>
     </row>
     <row r="113">
@@ -6016,25 +6016,25 @@
         <v>39500</v>
       </c>
       <c r="E113">
-        <v>33078839000</v>
+        <v>30040580300</v>
       </c>
       <c r="F113">
-        <v>170741545000</v>
+        <v>145047364900</v>
       </c>
       <c r="G113">
-        <v>539027000</v>
+        <v>339127100</v>
       </c>
       <c r="H113">
         <v>10504800</v>
       </c>
       <c r="I113">
-        <v>204359411000</v>
+        <v>175427072300</v>
       </c>
       <c r="J113" t="str">
         <v>2022-12-13T14:20:00.000Z</v>
       </c>
       <c r="K113">
-        <v>9988563521000</v>
+        <v>8750287536500</v>
       </c>
       <c r="L113">
         <v>585554800</v>
@@ -6043,13 +6043,13 @@
         <v>6725500</v>
       </c>
       <c r="N113">
-        <v>137662706000</v>
+        <v>115006784600</v>
       </c>
       <c r="O113">
         <v>-11569100</v>
       </c>
       <c r="P113">
-        <v>161079003000</v>
+        <v>-46378831500</v>
       </c>
     </row>
     <row r="114">
@@ -6066,25 +6066,25 @@
         <v>131100</v>
       </c>
       <c r="E114">
-        <v>41296705000</v>
+        <v>37599805600</v>
       </c>
       <c r="F114">
-        <v>200532702000</v>
+        <v>177595761900</v>
       </c>
       <c r="G114">
-        <v>2464344000</v>
+        <v>1742566500</v>
       </c>
       <c r="H114">
         <v>14262000</v>
       </c>
       <c r="I114">
-        <v>244293751000</v>
+        <v>216938134000</v>
       </c>
       <c r="J114" t="str">
         <v>2022-12-13T14:22:00.000Z</v>
       </c>
       <c r="K114">
-        <v>10232857272000</v>
+        <v>8967225670500</v>
       </c>
       <c r="L114">
         <v>599816800</v>
@@ -6093,13 +6093,13 @@
         <v>9287700</v>
       </c>
       <c r="N114">
-        <v>159235997000</v>
+        <v>139995956300</v>
       </c>
       <c r="O114">
         <v>-2281400</v>
       </c>
       <c r="P114">
-        <v>320315000000</v>
+        <v>93617124800</v>
       </c>
     </row>
     <row r="115">
@@ -6116,10 +6116,10 @@
         <v>147400</v>
       </c>
       <c r="E115">
-        <v>52783655000</v>
+        <v>46414430600</v>
       </c>
       <c r="F115">
-        <v>178543392000</v>
+        <v>152195666100</v>
       </c>
       <c r="G115">
         <v>1965089000</v>
@@ -6128,13 +6128,13 @@
         <v>16209800</v>
       </c>
       <c r="I115">
-        <v>233292136000</v>
+        <v>200575185700</v>
       </c>
       <c r="J115" t="str">
         <v>2022-12-13T14:24:00.000Z</v>
       </c>
       <c r="K115">
-        <v>10466149408000</v>
+        <v>9167800856200</v>
       </c>
       <c r="L115">
         <v>616026600</v>
@@ -6143,13 +6143,13 @@
         <v>9421200</v>
       </c>
       <c r="N115">
-        <v>125759737000</v>
+        <v>105781235500</v>
       </c>
       <c r="O115">
         <v>7139800</v>
       </c>
       <c r="P115">
-        <v>446074737000</v>
+        <v>199398360300</v>
       </c>
     </row>
     <row r="116">
@@ -6166,25 +6166,25 @@
         <v>68900</v>
       </c>
       <c r="E116">
-        <v>57751853000</v>
+        <v>47813301500</v>
       </c>
       <c r="F116">
-        <v>205148047000</v>
+        <v>182734882600</v>
       </c>
       <c r="G116">
-        <v>964898000</v>
+        <v>939123800</v>
       </c>
       <c r="H116">
         <v>17834300</v>
       </c>
       <c r="I116">
-        <v>263864798000</v>
+        <v>231487307900</v>
       </c>
       <c r="J116" t="str">
         <v>2022-12-13T14:26:00.000Z</v>
       </c>
       <c r="K116">
-        <v>10730014206000</v>
+        <v>9399288164100</v>
       </c>
       <c r="L116">
         <v>633860900</v>
@@ -6193,13 +6193,13 @@
         <v>9717000</v>
       </c>
       <c r="N116">
-        <v>147396194000</v>
+        <v>134921581100</v>
       </c>
       <c r="O116">
         <v>16856800</v>
       </c>
       <c r="P116">
-        <v>593470931000</v>
+        <v>334319941400</v>
       </c>
     </row>
     <row r="117">
@@ -6216,25 +6216,25 @@
         <v>117900</v>
       </c>
       <c r="E117">
-        <v>54101421000</v>
+        <v>49567359600</v>
       </c>
       <c r="F117">
-        <v>176957422000</v>
+        <v>154306096000</v>
       </c>
       <c r="G117">
-        <v>1622992000</v>
+        <v>1540974100</v>
       </c>
       <c r="H117">
         <v>13803200</v>
       </c>
       <c r="I117">
-        <v>232681835000</v>
+        <v>205414429700</v>
       </c>
       <c r="J117" t="str">
         <v>2022-12-13T14:28:00.000Z</v>
       </c>
       <c r="K117">
-        <v>10962696041000</v>
+        <v>9604702593800</v>
       </c>
       <c r="L117">
         <v>647664100</v>
@@ -6243,13 +6243,13 @@
         <v>6954700</v>
       </c>
       <c r="N117">
-        <v>122856001000</v>
+        <v>104738736400</v>
       </c>
       <c r="O117">
         <v>23811500</v>
       </c>
       <c r="P117">
-        <v>716326932000</v>
+        <v>439058677800</v>
       </c>
     </row>
     <row r="118">
@@ -6269,7 +6269,7 @@
         <v>13041000</v>
       </c>
       <c r="F118">
-        <v>1014903000</v>
+        <v>438180300</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -6278,13 +6278,13 @@
         <v>54400</v>
       </c>
       <c r="I118">
-        <v>1027944000</v>
+        <v>451221300</v>
       </c>
       <c r="J118" t="str">
         <v>2022-12-13T14:30:00.000Z</v>
       </c>
       <c r="K118">
-        <v>10963723985000</v>
+        <v>9605153815100</v>
       </c>
       <c r="L118">
         <v>647718500</v>
@@ -6293,13 +6293,13 @@
         <v>52200</v>
       </c>
       <c r="N118">
-        <v>1001862000</v>
+        <v>425139300</v>
       </c>
       <c r="O118">
         <v>23863700</v>
       </c>
       <c r="P118">
-        <v>717328794000</v>
+        <v>439483817100</v>
       </c>
     </row>
     <row r="119">
@@ -6334,7 +6334,7 @@
         <v>2022-12-13T14:36:00.000Z</v>
       </c>
       <c r="K119">
-        <v>10963725005000</v>
+        <v>9605154835100</v>
       </c>
       <c r="L119">
         <v>647718600</v>
@@ -6349,7 +6349,7 @@
         <v>23863800</v>
       </c>
       <c r="P119">
-        <v>717329814000</v>
+        <v>439484837100</v>
       </c>
     </row>
     <row r="120">
@@ -6384,7 +6384,7 @@
         <v>2022-12-13T14:38:00.000Z</v>
       </c>
       <c r="K120">
-        <v>10963730105000</v>
+        <v>9605159935100</v>
       </c>
       <c r="L120">
         <v>647719100</v>
@@ -6399,7 +6399,7 @@
         <v>23864300</v>
       </c>
       <c r="P120">
-        <v>717334914000</v>
+        <v>439489937100</v>
       </c>
     </row>
     <row r="121">
@@ -6416,25 +6416,25 @@
         <v>33067300</v>
       </c>
       <c r="E121">
-        <v>152817105000</v>
+        <v>137154783000</v>
       </c>
       <c r="F121">
-        <v>298891010000</v>
+        <v>176284239500</v>
       </c>
       <c r="G121">
-        <v>593512007000</v>
+        <v>463102047500</v>
       </c>
       <c r="H121">
         <v>54050600</v>
       </c>
       <c r="I121">
-        <v>1045220122000</v>
+        <v>776541070000</v>
       </c>
       <c r="J121" t="str">
         <v>2022-12-13T14:44:00.000Z</v>
       </c>
       <c r="K121">
-        <v>12008950227000</v>
+        <v>10381701005100</v>
       </c>
       <c r="L121">
         <v>701769700</v>
@@ -6443,13 +6443,13 @@
         <v>10589900</v>
       </c>
       <c r="N121">
-        <v>146073905000</v>
+        <v>39129456500</v>
       </c>
       <c r="O121">
         <v>34454200</v>
       </c>
       <c r="P121">
-        <v>863408819000</v>
+        <v>478619393600</v>
       </c>
     </row>
     <row r="122">
@@ -6484,7 +6484,7 @@
         <v>2022-12-13T14:46:00.000Z</v>
       </c>
       <c r="K122">
-        <v>12008964367000</v>
+        <v>10381715145100</v>
       </c>
       <c r="L122">
         <v>701771100</v>
@@ -6499,7 +6499,7 @@
         <v>34455600</v>
       </c>
       <c r="P122">
-        <v>863422959000</v>
+        <v>478633533600</v>
       </c>
     </row>
     <row r="123">
@@ -6534,7 +6534,7 @@
         <v>2022-12-13T14:48:00.000Z</v>
       </c>
       <c r="K123">
-        <v>12008990627000</v>
+        <v>10381741405100</v>
       </c>
       <c r="L123">
         <v>701773700</v>
@@ -6549,7 +6549,7 @@
         <v>34458200</v>
       </c>
       <c r="P123">
-        <v>863449219000</v>
+        <v>478659793600</v>
       </c>
     </row>
     <row r="124">
@@ -6584,7 +6584,7 @@
         <v>2022-12-13T14:50:00.000Z</v>
       </c>
       <c r="K124">
-        <v>12009102727000</v>
+        <v>10381853505100</v>
       </c>
       <c r="L124">
         <v>701784700</v>
@@ -6599,7 +6599,7 @@
         <v>34466200</v>
       </c>
       <c r="P124">
-        <v>863530719000</v>
+        <v>478741293600</v>
       </c>
     </row>
     <row r="125">
@@ -6634,7 +6634,7 @@
         <v>2022-12-13T14:52:00.000Z</v>
       </c>
       <c r="K125">
-        <v>12009112927000</v>
+        <v>10381863705100</v>
       </c>
       <c r="L125">
         <v>701785700</v>
@@ -6649,7 +6649,7 @@
         <v>34467200</v>
       </c>
       <c r="P125">
-        <v>863540919000</v>
+        <v>478751493600</v>
       </c>
     </row>
     <row r="126">
@@ -6672,19 +6672,19 @@
         <v>0</v>
       </c>
       <c r="G126">
-        <v>7050000</v>
+        <v>5052000</v>
       </c>
       <c r="H126">
         <v>700</v>
       </c>
       <c r="I126">
-        <v>7050000</v>
+        <v>5052000</v>
       </c>
       <c r="J126" t="str">
         <v>2022-12-13T14:58:00.000Z</v>
       </c>
       <c r="K126">
-        <v>12009119977000</v>
+        <v>10381868757100</v>
       </c>
       <c r="L126">
         <v>701786400</v>
@@ -6699,7 +6699,7 @@
         <v>34467200</v>
       </c>
       <c r="P126">
-        <v>863540919000</v>
+        <v>478751493600</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20221213/VNINDEX_HOSE_5p_20221213.xlsx
+++ b/name/vnindex/20221213/VNINDEX_HOSE_5p_20221213.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P126"/>
+  <dimension ref="A1:AC126"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>4040000</v>
       </c>
+      <c r="Q2">
+        <v>4040000</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>400</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V2">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W2">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X2">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y2">
+        <v>2723316</v>
+      </c>
+      <c r="Z2">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA2">
+        <v>275737.6</v>
+      </c>
+      <c r="AB2">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>4040000</v>
       </c>
+      <c r="Q3">
+        <v>4040000</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>400</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V3">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W3">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X3">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y3">
+        <v>2723316</v>
+      </c>
+      <c r="Z3">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA3">
+        <v>275737.6</v>
+      </c>
+      <c r="AB3">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>-2567713800</v>
       </c>
+      <c r="Q4">
+        <v>40193054400</v>
+      </c>
+      <c r="R4">
+        <v>42760768200</v>
+      </c>
+      <c r="S4">
+        <v>2823600</v>
+      </c>
+      <c r="T4">
+        <v>3196200</v>
+      </c>
+      <c r="U4">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V4">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W4">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X4">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y4">
+        <v>2723316</v>
+      </c>
+      <c r="Z4">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA4">
+        <v>275737.6</v>
+      </c>
+      <c r="AB4">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC4">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>-11459520200</v>
       </c>
+      <c r="Q5">
+        <v>94258008000</v>
+      </c>
+      <c r="R5">
+        <v>105717528200</v>
+      </c>
+      <c r="S5">
+        <v>6682700</v>
+      </c>
+      <c r="T5">
+        <v>7063800</v>
+      </c>
+      <c r="U5">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V5">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W5">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X5">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y5">
+        <v>2723316</v>
+      </c>
+      <c r="Z5">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA5">
+        <v>275737.6</v>
+      </c>
+      <c r="AB5">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC5">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>-21877350900</v>
       </c>
+      <c r="Q6">
+        <v>145684227700</v>
+      </c>
+      <c r="R6">
+        <v>167561578600</v>
+      </c>
+      <c r="S6">
+        <v>10144400</v>
+      </c>
+      <c r="T6">
+        <v>11059900</v>
+      </c>
+      <c r="U6">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V6">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W6">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X6">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y6">
+        <v>2723316</v>
+      </c>
+      <c r="Z6">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA6">
+        <v>275737.6</v>
+      </c>
+      <c r="AB6">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC6">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>-29797853400</v>
       </c>
+      <c r="Q7">
+        <v>186975644600</v>
+      </c>
+      <c r="R7">
+        <v>216773498000</v>
+      </c>
+      <c r="S7">
+        <v>12825100</v>
+      </c>
+      <c r="T7">
+        <v>14771000</v>
+      </c>
+      <c r="U7">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V7">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W7">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X7">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y7">
+        <v>2723316</v>
+      </c>
+      <c r="Z7">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA7">
+        <v>275737.6</v>
+      </c>
+      <c r="AB7">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC7">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>-81976536700</v>
       </c>
+      <c r="Q8">
+        <v>217132215400</v>
+      </c>
+      <c r="R8">
+        <v>299108752100</v>
+      </c>
+      <c r="S8">
+        <v>14725000</v>
+      </c>
+      <c r="T8">
+        <v>20544000</v>
+      </c>
+      <c r="U8">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V8">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W8">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X8">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y8">
+        <v>2723316</v>
+      </c>
+      <c r="Z8">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA8">
+        <v>275737.6</v>
+      </c>
+      <c r="AB8">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC8">
+        <v>13.6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>-157641980600</v>
       </c>
+      <c r="Q9">
+        <v>246436272300</v>
+      </c>
+      <c r="R9">
+        <v>404078252900</v>
+      </c>
+      <c r="S9">
+        <v>16879500</v>
+      </c>
+      <c r="T9">
+        <v>28088600</v>
+      </c>
+      <c r="U9">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V9">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W9">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X9">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y9">
+        <v>2723316</v>
+      </c>
+      <c r="Z9">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA9">
+        <v>275737.6</v>
+      </c>
+      <c r="AB9">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC9">
+        <v>19.8</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>-173504236500</v>
       </c>
+      <c r="Q10">
+        <v>303481740000</v>
+      </c>
+      <c r="R10">
+        <v>476985976500</v>
+      </c>
+      <c r="S10">
+        <v>20597100</v>
+      </c>
+      <c r="T10">
+        <v>33095700</v>
+      </c>
+      <c r="U10">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V10">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W10">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X10">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y10">
+        <v>2723316</v>
+      </c>
+      <c r="Z10">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA10">
+        <v>275737.6</v>
+      </c>
+      <c r="AB10">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC10">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>-144924498400</v>
       </c>
+      <c r="Q11">
+        <v>360915769700</v>
+      </c>
+      <c r="R11">
+        <v>505840268100</v>
+      </c>
+      <c r="S11">
+        <v>24528400</v>
+      </c>
+      <c r="T11">
+        <v>35179800</v>
+      </c>
+      <c r="U11">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V11">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W11">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X11">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y11">
+        <v>2723316</v>
+      </c>
+      <c r="Z11">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA11">
+        <v>275737.6</v>
+      </c>
+      <c r="AB11">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC11">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>-131574372100</v>
       </c>
+      <c r="Q12">
+        <v>400930846200</v>
+      </c>
+      <c r="R12">
+        <v>532505218300</v>
+      </c>
+      <c r="S12">
+        <v>28204200</v>
+      </c>
+      <c r="T12">
+        <v>36666400</v>
+      </c>
+      <c r="U12">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V12">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W12">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X12">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y12">
+        <v>2723316</v>
+      </c>
+      <c r="Z12">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA12">
+        <v>275737.6</v>
+      </c>
+      <c r="AB12">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC12">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>-114109097900</v>
       </c>
+      <c r="Q13">
+        <v>445056617100</v>
+      </c>
+      <c r="R13">
+        <v>559165715000</v>
+      </c>
+      <c r="S13">
+        <v>31139500</v>
+      </c>
+      <c r="T13">
+        <v>38288900</v>
+      </c>
+      <c r="U13">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V13">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W13">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X13">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y13">
+        <v>2723316</v>
+      </c>
+      <c r="Z13">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA13">
+        <v>275737.6</v>
+      </c>
+      <c r="AB13">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC13">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>-109456655900</v>
       </c>
+      <c r="Q14">
+        <v>478429897300</v>
+      </c>
+      <c r="R14">
+        <v>587886553200</v>
+      </c>
+      <c r="S14">
+        <v>33327700</v>
+      </c>
+      <c r="T14">
+        <v>40359600</v>
+      </c>
+      <c r="U14">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V14">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W14">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X14">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y14">
+        <v>2723316</v>
+      </c>
+      <c r="Z14">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA14">
+        <v>275737.6</v>
+      </c>
+      <c r="AB14">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC14">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>-129511618100</v>
       </c>
+      <c r="Q15">
+        <v>496057763600</v>
+      </c>
+      <c r="R15">
+        <v>625569381700</v>
+      </c>
+      <c r="S15">
+        <v>34568500</v>
+      </c>
+      <c r="T15">
+        <v>43057600</v>
+      </c>
+      <c r="U15">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V15">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W15">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X15">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y15">
+        <v>2723316</v>
+      </c>
+      <c r="Z15">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA15">
+        <v>275737.6</v>
+      </c>
+      <c r="AB15">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC15">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>-143320101900</v>
       </c>
+      <c r="Q16">
+        <v>518008039900</v>
+      </c>
+      <c r="R16">
+        <v>661328141800</v>
+      </c>
+      <c r="S16">
+        <v>35951500</v>
+      </c>
+      <c r="T16">
+        <v>45331700</v>
+      </c>
+      <c r="U16">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V16">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W16">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X16">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y16">
+        <v>2723316</v>
+      </c>
+      <c r="Z16">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA16">
+        <v>275737.6</v>
+      </c>
+      <c r="AB16">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC16">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>-127427971200</v>
       </c>
+      <c r="Q17">
+        <v>554004372200</v>
+      </c>
+      <c r="R17">
+        <v>681432343400</v>
+      </c>
+      <c r="S17">
+        <v>38160500</v>
+      </c>
+      <c r="T17">
+        <v>46764100</v>
+      </c>
+      <c r="U17">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V17">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W17">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X17">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y17">
+        <v>2723316</v>
+      </c>
+      <c r="Z17">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA17">
+        <v>275737.6</v>
+      </c>
+      <c r="AB17">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC17">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>-114858954100</v>
       </c>
+      <c r="Q18">
+        <v>585636899900</v>
+      </c>
+      <c r="R18">
+        <v>700495854000</v>
+      </c>
+      <c r="S18">
+        <v>40232100</v>
+      </c>
+      <c r="T18">
+        <v>48160600</v>
+      </c>
+      <c r="U18">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V18">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W18">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X18">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y18">
+        <v>2723316</v>
+      </c>
+      <c r="Z18">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA18">
+        <v>275737.6</v>
+      </c>
+      <c r="AB18">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC18">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>-104219876800</v>
       </c>
+      <c r="Q19">
+        <v>618557919700</v>
+      </c>
+      <c r="R19">
+        <v>722777796500</v>
+      </c>
+      <c r="S19">
+        <v>42686100</v>
+      </c>
+      <c r="T19">
+        <v>49576400</v>
+      </c>
+      <c r="U19">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V19">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W19">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X19">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y19">
+        <v>2723316</v>
+      </c>
+      <c r="Z19">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA19">
+        <v>275737.6</v>
+      </c>
+      <c r="AB19">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC19">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>-80360795000</v>
       </c>
+      <c r="Q20">
+        <v>660293163100</v>
+      </c>
+      <c r="R20">
+        <v>740653958100</v>
+      </c>
+      <c r="S20">
+        <v>45279400</v>
+      </c>
+      <c r="T20">
+        <v>50688300</v>
+      </c>
+      <c r="U20">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V20">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W20">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X20">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y20">
+        <v>2723316</v>
+      </c>
+      <c r="Z20">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA20">
+        <v>275737.6</v>
+      </c>
+      <c r="AB20">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC20">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>-30212067300</v>
       </c>
+      <c r="Q21">
+        <v>723068111500</v>
+      </c>
+      <c r="R21">
+        <v>753280178800</v>
+      </c>
+      <c r="S21">
+        <v>49405600</v>
+      </c>
+      <c r="T21">
+        <v>51570500</v>
+      </c>
+      <c r="U21">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V21">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W21">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X21">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y21">
+        <v>2723316</v>
+      </c>
+      <c r="Z21">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA21">
+        <v>275737.6</v>
+      </c>
+      <c r="AB21">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC21">
+        <v>13.1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>7958165900</v>
       </c>
+      <c r="Q22">
+        <v>784817548700</v>
+      </c>
+      <c r="R22">
+        <v>776859382800</v>
+      </c>
+      <c r="S22">
+        <v>53916000</v>
+      </c>
+      <c r="T22">
+        <v>52936000</v>
+      </c>
+      <c r="U22">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V22">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W22">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X22">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y22">
+        <v>2723316</v>
+      </c>
+      <c r="Z22">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA22">
+        <v>275737.6</v>
+      </c>
+      <c r="AB22">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC22">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>-13420721000</v>
       </c>
+      <c r="Q23">
+        <v>812578263600</v>
+      </c>
+      <c r="R23">
+        <v>825998984600</v>
+      </c>
+      <c r="S23">
+        <v>56255500</v>
+      </c>
+      <c r="T23">
+        <v>55906000</v>
+      </c>
+      <c r="U23">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V23">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W23">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X23">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y23">
+        <v>2723316</v>
+      </c>
+      <c r="Z23">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA23">
+        <v>275737.6</v>
+      </c>
+      <c r="AB23">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC23">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>-32292386800</v>
       </c>
+      <c r="Q24">
+        <v>836996976300</v>
+      </c>
+      <c r="R24">
+        <v>869289363100</v>
+      </c>
+      <c r="S24">
+        <v>58347200</v>
+      </c>
+      <c r="T24">
+        <v>58974200</v>
+      </c>
+      <c r="U24">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V24">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W24">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X24">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y24">
+        <v>2723316</v>
+      </c>
+      <c r="Z24">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA24">
+        <v>275737.6</v>
+      </c>
+      <c r="AB24">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC24">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>-123497593400</v>
       </c>
+      <c r="Q25">
+        <v>859538038700</v>
+      </c>
+      <c r="R25">
+        <v>983035632100</v>
+      </c>
+      <c r="S25">
+        <v>59892900</v>
+      </c>
+      <c r="T25">
+        <v>65616200</v>
+      </c>
+      <c r="U25">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V25">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W25">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X25">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y25">
+        <v>2723316</v>
+      </c>
+      <c r="Z25">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA25">
+        <v>275737.6</v>
+      </c>
+      <c r="AB25">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC25">
+        <v>23.8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>-182318060800</v>
       </c>
+      <c r="Q26">
+        <v>895949939600</v>
+      </c>
+      <c r="R26">
+        <v>1078268000400</v>
+      </c>
+      <c r="S26">
+        <v>62236200</v>
+      </c>
+      <c r="T26">
+        <v>72360700</v>
+      </c>
+      <c r="U26">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V26">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W26">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X26">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y26">
+        <v>2723316</v>
+      </c>
+      <c r="Z26">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA26">
+        <v>275737.6</v>
+      </c>
+      <c r="AB26">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC26">
+        <v>15.4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>-191720727400</v>
       </c>
+      <c r="Q27">
+        <v>945241415700</v>
+      </c>
+      <c r="R27">
+        <v>1136962143100</v>
+      </c>
+      <c r="S27">
+        <v>65020400</v>
+      </c>
+      <c r="T27">
+        <v>77035400</v>
+      </c>
+      <c r="U27">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V27">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W27">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X27">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y27">
+        <v>2723316</v>
+      </c>
+      <c r="Z27">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA27">
+        <v>275737.6</v>
+      </c>
+      <c r="AB27">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC27">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>-205242379200</v>
       </c>
+      <c r="Q28">
+        <v>976492471200</v>
+      </c>
+      <c r="R28">
+        <v>1181734850400</v>
+      </c>
+      <c r="S28">
+        <v>67389300</v>
+      </c>
+      <c r="T28">
+        <v>80496400</v>
+      </c>
+      <c r="U28">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V28">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W28">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X28">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y28">
+        <v>2723316</v>
+      </c>
+      <c r="Z28">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA28">
+        <v>275737.6</v>
+      </c>
+      <c r="AB28">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC28">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>-208464677600</v>
       </c>
+      <c r="Q29">
+        <v>1005598294200</v>
+      </c>
+      <c r="R29">
+        <v>1214062971800</v>
+      </c>
+      <c r="S29">
+        <v>69217900</v>
+      </c>
+      <c r="T29">
+        <v>82852200</v>
+      </c>
+      <c r="U29">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V29">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W29">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X29">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y29">
+        <v>2723316</v>
+      </c>
+      <c r="Z29">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA29">
+        <v>275737.6</v>
+      </c>
+      <c r="AB29">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC29">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>-199698214400</v>
       </c>
+      <c r="Q30">
+        <v>1032335041100</v>
+      </c>
+      <c r="R30">
+        <v>1232033255500</v>
+      </c>
+      <c r="S30">
+        <v>70827600</v>
+      </c>
+      <c r="T30">
+        <v>84142300</v>
+      </c>
+      <c r="U30">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V30">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W30">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X30">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y30">
+        <v>2723316</v>
+      </c>
+      <c r="Z30">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA30">
+        <v>275737.6</v>
+      </c>
+      <c r="AB30">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC30">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>-193018369100</v>
       </c>
+      <c r="Q31">
+        <v>1056863761000</v>
+      </c>
+      <c r="R31">
+        <v>1249882130100</v>
+      </c>
+      <c r="S31">
+        <v>72282600</v>
+      </c>
+      <c r="T31">
+        <v>85323000</v>
+      </c>
+      <c r="U31">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V31">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W31">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X31">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y31">
+        <v>2723316</v>
+      </c>
+      <c r="Z31">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA31">
+        <v>275737.6</v>
+      </c>
+      <c r="AB31">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC31">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>-150665265600</v>
       </c>
+      <c r="Q32">
+        <v>1117430587400</v>
+      </c>
+      <c r="R32">
+        <v>1268095853000</v>
+      </c>
+      <c r="S32">
+        <v>76214000</v>
+      </c>
+      <c r="T32">
+        <v>86498200</v>
+      </c>
+      <c r="U32">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V32">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W32">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X32">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y32">
+        <v>2723316</v>
+      </c>
+      <c r="Z32">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA32">
+        <v>275737.6</v>
+      </c>
+      <c r="AB32">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC32">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>-143154713300</v>
       </c>
+      <c r="Q33">
+        <v>1141999371300</v>
+      </c>
+      <c r="R33">
+        <v>1285154084600</v>
+      </c>
+      <c r="S33">
+        <v>77711900</v>
+      </c>
+      <c r="T33">
+        <v>87568600</v>
+      </c>
+      <c r="U33">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V33">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W33">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X33">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y33">
+        <v>2723316</v>
+      </c>
+      <c r="Z33">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA33">
+        <v>275737.6</v>
+      </c>
+      <c r="AB33">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC33">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>-144425744600</v>
       </c>
+      <c r="Q34">
+        <v>1160886532200</v>
+      </c>
+      <c r="R34">
+        <v>1305312276800</v>
+      </c>
+      <c r="S34">
+        <v>79471200</v>
+      </c>
+      <c r="T34">
+        <v>88714600</v>
+      </c>
+      <c r="U34">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V34">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W34">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X34">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y34">
+        <v>2723316</v>
+      </c>
+      <c r="Z34">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA34">
+        <v>275737.6</v>
+      </c>
+      <c r="AB34">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC34">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>-161532497600</v>
       </c>
+      <c r="Q35">
+        <v>1177912352700</v>
+      </c>
+      <c r="R35">
+        <v>1339444850300</v>
+      </c>
+      <c r="S35">
+        <v>80537700</v>
+      </c>
+      <c r="T35">
+        <v>90821400</v>
+      </c>
+      <c r="U35">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V35">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W35">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X35">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y35">
+        <v>2723316</v>
+      </c>
+      <c r="Z35">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA35">
+        <v>275737.6</v>
+      </c>
+      <c r="AB35">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC35">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>-214972274200</v>
       </c>
+      <c r="Q36">
+        <v>1191555827500</v>
+      </c>
+      <c r="R36">
+        <v>1406528101700</v>
+      </c>
+      <c r="S36">
+        <v>81415100</v>
+      </c>
+      <c r="T36">
+        <v>95107200</v>
+      </c>
+      <c r="U36">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V36">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W36">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X36">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y36">
+        <v>2723316</v>
+      </c>
+      <c r="Z36">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA36">
+        <v>275737.6</v>
+      </c>
+      <c r="AB36">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC36">
+        <v>14</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>-272218943900</v>
       </c>
+      <c r="Q37">
+        <v>1211040162800</v>
+      </c>
+      <c r="R37">
+        <v>1483259106700</v>
+      </c>
+      <c r="S37">
+        <v>82463600</v>
+      </c>
+      <c r="T37">
+        <v>100246200</v>
+      </c>
+      <c r="U37">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V37">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W37">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X37">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y37">
+        <v>2723316</v>
+      </c>
+      <c r="Z37">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA37">
+        <v>275737.6</v>
+      </c>
+      <c r="AB37">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC37">
+        <v>14.9</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>-305493200500</v>
       </c>
+      <c r="Q38">
+        <v>1230454545400</v>
+      </c>
+      <c r="R38">
+        <v>1535947745900</v>
+      </c>
+      <c r="S38">
+        <v>83541300</v>
+      </c>
+      <c r="T38">
+        <v>103880800</v>
+      </c>
+      <c r="U38">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V38">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W38">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X38">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y38">
+        <v>2723316</v>
+      </c>
+      <c r="Z38">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA38">
+        <v>275737.6</v>
+      </c>
+      <c r="AB38">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC38">
+        <v>8.7</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>-334718956700</v>
       </c>
+      <c r="Q39">
+        <v>1250952705200</v>
+      </c>
+      <c r="R39">
+        <v>1585671661900</v>
+      </c>
+      <c r="S39">
+        <v>84779200</v>
+      </c>
+      <c r="T39">
+        <v>107412000</v>
+      </c>
+      <c r="U39">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V39">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W39">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X39">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y39">
+        <v>2723316</v>
+      </c>
+      <c r="Z39">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA39">
+        <v>275737.6</v>
+      </c>
+      <c r="AB39">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC39">
+        <v>7.6</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>-357592897200</v>
       </c>
+      <c r="Q40">
+        <v>1274002620200</v>
+      </c>
+      <c r="R40">
+        <v>1631595517400</v>
+      </c>
+      <c r="S40">
+        <v>86184500</v>
+      </c>
+      <c r="T40">
+        <v>111406900</v>
+      </c>
+      <c r="U40">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V40">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W40">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X40">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y40">
+        <v>2723316</v>
+      </c>
+      <c r="Z40">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA40">
+        <v>275737.6</v>
+      </c>
+      <c r="AB40">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC40">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>-358918834300</v>
       </c>
+      <c r="Q41">
+        <v>1302251503300</v>
+      </c>
+      <c r="R41">
+        <v>1661170337600</v>
+      </c>
+      <c r="S41">
+        <v>88239300</v>
+      </c>
+      <c r="T41">
+        <v>113555500</v>
+      </c>
+      <c r="U41">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V41">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W41">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X41">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y41">
+        <v>2723316</v>
+      </c>
+      <c r="Z41">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA41">
+        <v>275737.6</v>
+      </c>
+      <c r="AB41">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC41">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>-347300106400</v>
       </c>
+      <c r="Q42">
+        <v>1331576240200</v>
+      </c>
+      <c r="R42">
+        <v>1678876346600</v>
+      </c>
+      <c r="S42">
+        <v>90279700</v>
+      </c>
+      <c r="T42">
+        <v>114902000</v>
+      </c>
+      <c r="U42">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V42">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W42">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X42">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y42">
+        <v>2723316</v>
+      </c>
+      <c r="Z42">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA42">
+        <v>275737.6</v>
+      </c>
+      <c r="AB42">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC42">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>-322084884200</v>
       </c>
+      <c r="Q43">
+        <v>1371611741800</v>
+      </c>
+      <c r="R43">
+        <v>1693696626000</v>
+      </c>
+      <c r="S43">
+        <v>92698500</v>
+      </c>
+      <c r="T43">
+        <v>115985000</v>
+      </c>
+      <c r="U43">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V43">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W43">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X43">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y43">
+        <v>2723316</v>
+      </c>
+      <c r="Z43">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA43">
+        <v>275737.6</v>
+      </c>
+      <c r="AB43">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC43">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>-274934996200</v>
       </c>
+      <c r="Q44">
+        <v>1433404121700</v>
+      </c>
+      <c r="R44">
+        <v>1708339117900</v>
+      </c>
+      <c r="S44">
+        <v>96468500</v>
+      </c>
+      <c r="T44">
+        <v>116767500</v>
+      </c>
+      <c r="U44">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V44">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W44">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X44">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y44">
+        <v>2723316</v>
+      </c>
+      <c r="Z44">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA44">
+        <v>275737.6</v>
+      </c>
+      <c r="AB44">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC44">
+        <v>12.3</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>-240985070500</v>
       </c>
+      <c r="Q45">
+        <v>1480178998000</v>
+      </c>
+      <c r="R45">
+        <v>1721164068500</v>
+      </c>
+      <c r="S45">
+        <v>99547700</v>
+      </c>
+      <c r="T45">
+        <v>117410200</v>
+      </c>
+      <c r="U45">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V45">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W45">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X45">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y45">
+        <v>2723316</v>
+      </c>
+      <c r="Z45">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA45">
+        <v>275737.6</v>
+      </c>
+      <c r="AB45">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC45">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>-208101486600</v>
       </c>
+      <c r="Q46">
+        <v>1522510820000</v>
+      </c>
+      <c r="R46">
+        <v>1730612306600</v>
+      </c>
+      <c r="S46">
+        <v>102271300</v>
+      </c>
+      <c r="T46">
+        <v>118014900</v>
+      </c>
+      <c r="U46">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V46">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W46">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X46">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y46">
+        <v>2723316</v>
+      </c>
+      <c r="Z46">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA46">
+        <v>275737.6</v>
+      </c>
+      <c r="AB46">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC46">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>-200789442000</v>
       </c>
+      <c r="Q47">
+        <v>1550682646900</v>
+      </c>
+      <c r="R47">
+        <v>1751472088900</v>
+      </c>
+      <c r="S47">
+        <v>104199000</v>
+      </c>
+      <c r="T47">
+        <v>119164600</v>
+      </c>
+      <c r="U47">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V47">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W47">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X47">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y47">
+        <v>2723316</v>
+      </c>
+      <c r="Z47">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA47">
+        <v>275737.6</v>
+      </c>
+      <c r="AB47">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC47">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>-191538911100</v>
       </c>
+      <c r="Q48">
+        <v>1579511085900</v>
+      </c>
+      <c r="R48">
+        <v>1771049997000</v>
+      </c>
+      <c r="S48">
+        <v>105837100</v>
+      </c>
+      <c r="T48">
+        <v>120260200</v>
+      </c>
+      <c r="U48">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V48">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W48">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X48">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y48">
+        <v>2723316</v>
+      </c>
+      <c r="Z48">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA48">
+        <v>275737.6</v>
+      </c>
+      <c r="AB48">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC48">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>-187256631100</v>
       </c>
+      <c r="Q49">
+        <v>1603755254200</v>
+      </c>
+      <c r="R49">
+        <v>1791011885300</v>
+      </c>
+      <c r="S49">
+        <v>107378600</v>
+      </c>
+      <c r="T49">
+        <v>121572400</v>
+      </c>
+      <c r="U49">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V49">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W49">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X49">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y49">
+        <v>2723316</v>
+      </c>
+      <c r="Z49">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA49">
+        <v>275737.6</v>
+      </c>
+      <c r="AB49">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC49">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>-163047788600</v>
       </c>
+      <c r="Q50">
+        <v>1640370245900</v>
+      </c>
+      <c r="R50">
+        <v>1803418034500</v>
+      </c>
+      <c r="S50">
+        <v>109156400</v>
+      </c>
+      <c r="T50">
+        <v>122251400</v>
+      </c>
+      <c r="U50">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V50">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W50">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X50">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y50">
+        <v>2723316</v>
+      </c>
+      <c r="Z50">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA50">
+        <v>275737.6</v>
+      </c>
+      <c r="AB50">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC50">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>-141143355900</v>
       </c>
+      <c r="Q51">
+        <v>1673911758400</v>
+      </c>
+      <c r="R51">
+        <v>1815055114300</v>
+      </c>
+      <c r="S51">
+        <v>111077500</v>
+      </c>
+      <c r="T51">
+        <v>122844900</v>
+      </c>
+      <c r="U51">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V51">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W51">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X51">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y51">
+        <v>2723316</v>
+      </c>
+      <c r="Z51">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA51">
+        <v>275737.6</v>
+      </c>
+      <c r="AB51">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC51">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>-145899650000</v>
       </c>
+      <c r="Q52">
+        <v>1694161818200</v>
+      </c>
+      <c r="R52">
+        <v>1840061468200</v>
+      </c>
+      <c r="S52">
+        <v>112678300</v>
+      </c>
+      <c r="T52">
+        <v>124317800</v>
+      </c>
+      <c r="U52">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V52">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W52">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X52">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y52">
+        <v>2723316</v>
+      </c>
+      <c r="Z52">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA52">
+        <v>275737.6</v>
+      </c>
+      <c r="AB52">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC52">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>-163592851100</v>
       </c>
+      <c r="Q53">
+        <v>1704130417400</v>
+      </c>
+      <c r="R53">
+        <v>1867723268500</v>
+      </c>
+      <c r="S53">
+        <v>113318300</v>
+      </c>
+      <c r="T53">
+        <v>126189100</v>
+      </c>
+      <c r="U53">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V53">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W53">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X53">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y53">
+        <v>2723316</v>
+      </c>
+      <c r="Z53">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA53">
+        <v>275737.6</v>
+      </c>
+      <c r="AB53">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC53">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>-169577393900</v>
       </c>
+      <c r="Q54">
+        <v>1714786536600</v>
+      </c>
+      <c r="R54">
+        <v>1884363930500</v>
+      </c>
+      <c r="S54">
+        <v>113834600</v>
+      </c>
+      <c r="T54">
+        <v>127319900</v>
+      </c>
+      <c r="U54">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V54">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W54">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X54">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y54">
+        <v>2723316</v>
+      </c>
+      <c r="Z54">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA54">
+        <v>275737.6</v>
+      </c>
+      <c r="AB54">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC54">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>-178510918400</v>
       </c>
+      <c r="Q55">
+        <v>1726947415800</v>
+      </c>
+      <c r="R55">
+        <v>1905458334200</v>
+      </c>
+      <c r="S55">
+        <v>114474400</v>
+      </c>
+      <c r="T55">
+        <v>128487500</v>
+      </c>
+      <c r="U55">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V55">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W55">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X55">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y55">
+        <v>2723316</v>
+      </c>
+      <c r="Z55">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA55">
+        <v>275737.6</v>
+      </c>
+      <c r="AB55">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC55">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>-177796369200</v>
       </c>
+      <c r="Q56">
+        <v>1742197050100</v>
+      </c>
+      <c r="R56">
+        <v>1919993419300</v>
+      </c>
+      <c r="S56">
+        <v>115176800</v>
+      </c>
+      <c r="T56">
+        <v>129516400</v>
+      </c>
+      <c r="U56">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V56">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W56">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X56">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y56">
+        <v>2723316</v>
+      </c>
+      <c r="Z56">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA56">
+        <v>275737.6</v>
+      </c>
+      <c r="AB56">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC56">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>-179364976400</v>
       </c>
+      <c r="Q57">
+        <v>1755112236200</v>
+      </c>
+      <c r="R57">
+        <v>1934477212600</v>
+      </c>
+      <c r="S57">
+        <v>115794500</v>
+      </c>
+      <c r="T57">
+        <v>130501700</v>
+      </c>
+      <c r="U57">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V57">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W57">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X57">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y57">
+        <v>2723316</v>
+      </c>
+      <c r="Z57">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA57">
+        <v>275737.6</v>
+      </c>
+      <c r="AB57">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC57">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>-191787877500</v>
       </c>
+      <c r="Q58">
+        <v>1762247019200</v>
+      </c>
+      <c r="R58">
+        <v>1954034896700</v>
+      </c>
+      <c r="S58">
+        <v>116298000</v>
+      </c>
+      <c r="T58">
+        <v>131737000</v>
+      </c>
+      <c r="U58">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V58">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W58">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X58">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y58">
+        <v>2723316</v>
+      </c>
+      <c r="Z58">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA58">
+        <v>275737.6</v>
+      </c>
+      <c r="AB58">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC58">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>-208503671400</v>
       </c>
+      <c r="Q59">
+        <v>1771055110600</v>
+      </c>
+      <c r="R59">
+        <v>1979558782000</v>
+      </c>
+      <c r="S59">
+        <v>116809200</v>
+      </c>
+      <c r="T59">
+        <v>133175100</v>
+      </c>
+      <c r="U59">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V59">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W59">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X59">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y59">
+        <v>2723316</v>
+      </c>
+      <c r="Z59">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA59">
+        <v>275737.6</v>
+      </c>
+      <c r="AB59">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC59">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>-237889877100</v>
       </c>
+      <c r="Q60">
+        <v>1779379174000</v>
+      </c>
+      <c r="R60">
+        <v>2017269051100</v>
+      </c>
+      <c r="S60">
+        <v>117316000</v>
+      </c>
+      <c r="T60">
+        <v>135361700</v>
+      </c>
+      <c r="U60">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V60">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W60">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X60">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y60">
+        <v>2723316</v>
+      </c>
+      <c r="Z60">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA60">
+        <v>275737.6</v>
+      </c>
+      <c r="AB60">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC60">
+        <v>7.7</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>-268899547600</v>
       </c>
+      <c r="Q61">
+        <v>1788614319600</v>
+      </c>
+      <c r="R61">
+        <v>2057513867200</v>
+      </c>
+      <c r="S61">
+        <v>117882800</v>
+      </c>
+      <c r="T61">
+        <v>138161500</v>
+      </c>
+      <c r="U61">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V61">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W61">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X61">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y61">
+        <v>2723316</v>
+      </c>
+      <c r="Z61">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA61">
+        <v>275737.6</v>
+      </c>
+      <c r="AB61">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC61">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>-293398627200</v>
       </c>
+      <c r="Q62">
+        <v>1807592710900</v>
+      </c>
+      <c r="R62">
+        <v>2100991338100</v>
+      </c>
+      <c r="S62">
+        <v>119006800</v>
+      </c>
+      <c r="T62">
+        <v>141321100</v>
+      </c>
+      <c r="U62">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V62">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W62">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X62">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y62">
+        <v>2723316</v>
+      </c>
+      <c r="Z62">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA62">
+        <v>275737.6</v>
+      </c>
+      <c r="AB62">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC62">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>-296841566400</v>
       </c>
+      <c r="Q63">
+        <v>1822175601400</v>
+      </c>
+      <c r="R63">
+        <v>2119017167800</v>
+      </c>
+      <c r="S63">
+        <v>119946100</v>
+      </c>
+      <c r="T63">
+        <v>142692700</v>
+      </c>
+      <c r="U63">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V63">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W63">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X63">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y63">
+        <v>2723316</v>
+      </c>
+      <c r="Z63">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA63">
+        <v>275737.6</v>
+      </c>
+      <c r="AB63">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC63">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>-279322460900</v>
       </c>
+      <c r="Q64">
+        <v>1857328633800</v>
+      </c>
+      <c r="R64">
+        <v>2136651094700</v>
+      </c>
+      <c r="S64">
+        <v>121549000</v>
+      </c>
+      <c r="T64">
+        <v>143886000</v>
+      </c>
+      <c r="U64">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V64">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W64">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X64">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y64">
+        <v>2723316</v>
+      </c>
+      <c r="Z64">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA64">
+        <v>275737.6</v>
+      </c>
+      <c r="AB64">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC64">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>-243966673000</v>
       </c>
+      <c r="Q65">
+        <v>1904607680600</v>
+      </c>
+      <c r="R65">
+        <v>2148574353600</v>
+      </c>
+      <c r="S65">
+        <v>124033000</v>
+      </c>
+      <c r="T65">
+        <v>144737900</v>
+      </c>
+      <c r="U65">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V65">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W65">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X65">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y65">
+        <v>2723316</v>
+      </c>
+      <c r="Z65">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA65">
+        <v>275737.6</v>
+      </c>
+      <c r="AB65">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC65">
+        <v>9.2</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>-204172997500</v>
       </c>
+      <c r="Q66">
+        <v>1955777798700</v>
+      </c>
+      <c r="R66">
+        <v>2159950796200</v>
+      </c>
+      <c r="S66">
+        <v>126854600</v>
+      </c>
+      <c r="T66">
+        <v>145370900</v>
+      </c>
+      <c r="U66">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V66">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W66">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X66">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y66">
+        <v>2723316</v>
+      </c>
+      <c r="Z66">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA66">
+        <v>275737.6</v>
+      </c>
+      <c r="AB66">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC66">
+        <v>10.4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>-206776471300</v>
       </c>
+      <c r="Q67">
+        <v>1973409554300</v>
+      </c>
+      <c r="R67">
+        <v>2180186025600</v>
+      </c>
+      <c r="S67">
+        <v>127929800</v>
+      </c>
+      <c r="T67">
+        <v>146436800</v>
+      </c>
+      <c r="U67">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V67">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W67">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X67">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y67">
+        <v>2723316</v>
+      </c>
+      <c r="Z67">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA67">
+        <v>275737.6</v>
+      </c>
+      <c r="AB67">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC67">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>-213383583700</v>
       </c>
+      <c r="Q68">
+        <v>1987932744900</v>
+      </c>
+      <c r="R68">
+        <v>2201316328600</v>
+      </c>
+      <c r="S68">
+        <v>128754300</v>
+      </c>
+      <c r="T68">
+        <v>147651000</v>
+      </c>
+      <c r="U68">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V68">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W68">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X68">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y68">
+        <v>2723316</v>
+      </c>
+      <c r="Z68">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA68">
+        <v>275737.6</v>
+      </c>
+      <c r="AB68">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC68">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>-215719500900</v>
       </c>
+      <c r="Q69">
+        <v>2003511420500</v>
+      </c>
+      <c r="R69">
+        <v>2219230921400</v>
+      </c>
+      <c r="S69">
+        <v>129681500</v>
+      </c>
+      <c r="T69">
+        <v>148693200</v>
+      </c>
+      <c r="U69">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V69">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W69">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X69">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y69">
+        <v>2723316</v>
+      </c>
+      <c r="Z69">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA69">
+        <v>275737.6</v>
+      </c>
+      <c r="AB69">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC69">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>-217666968200</v>
       </c>
+      <c r="Q70">
+        <v>2018484861300</v>
+      </c>
+      <c r="R70">
+        <v>2236151829500</v>
+      </c>
+      <c r="S70">
+        <v>130463300</v>
+      </c>
+      <c r="T70">
+        <v>149713100</v>
+      </c>
+      <c r="U70">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V70">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W70">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X70">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y70">
+        <v>2723316</v>
+      </c>
+      <c r="Z70">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA70">
+        <v>275737.6</v>
+      </c>
+      <c r="AB70">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC70">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>-202657247500</v>
       </c>
+      <c r="Q71">
+        <v>2048660951600</v>
+      </c>
+      <c r="R71">
+        <v>2251318199100</v>
+      </c>
+      <c r="S71">
+        <v>131888700</v>
+      </c>
+      <c r="T71">
+        <v>150779600</v>
+      </c>
+      <c r="U71">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V71">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W71">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X71">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y71">
+        <v>2723316</v>
+      </c>
+      <c r="Z71">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA71">
+        <v>275737.6</v>
+      </c>
+      <c r="AB71">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC71">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>-202675047500</v>
       </c>
+      <c r="Q72">
+        <v>2048670301600</v>
+      </c>
+      <c r="R72">
+        <v>2251345349100</v>
+      </c>
+      <c r="S72">
+        <v>131888900</v>
+      </c>
+      <c r="T72">
+        <v>150782600</v>
+      </c>
+      <c r="U72">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V72">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W72">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X72">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y72">
+        <v>2723316</v>
+      </c>
+      <c r="Z72">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA72">
+        <v>275737.6</v>
+      </c>
+      <c r="AB72">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC72">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>-164165475100</v>
       </c>
+      <c r="Q73">
+        <v>2168924594500</v>
+      </c>
+      <c r="R73">
+        <v>2333090069600</v>
+      </c>
+      <c r="S73">
+        <v>139121700</v>
+      </c>
+      <c r="T73">
+        <v>156597000</v>
+      </c>
+      <c r="U73">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V73">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W73">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X73">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y73">
+        <v>2723316</v>
+      </c>
+      <c r="Z73">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA73">
+        <v>275737.6</v>
+      </c>
+      <c r="AB73">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC73">
+        <v>10.1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>-126289735500</v>
       </c>
+      <c r="Q74">
+        <v>2250250915700</v>
+      </c>
+      <c r="R74">
+        <v>2376540651200</v>
+      </c>
+      <c r="S74">
+        <v>143833200</v>
+      </c>
+      <c r="T74">
+        <v>159267900</v>
+      </c>
+      <c r="U74">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V74">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W74">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X74">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y74">
+        <v>2723316</v>
+      </c>
+      <c r="Z74">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA74">
+        <v>275737.6</v>
+      </c>
+      <c r="AB74">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC74">
+        <v>9.9</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>-130121701300</v>
       </c>
+      <c r="Q75">
+        <v>2305162051700</v>
+      </c>
+      <c r="R75">
+        <v>2435283753000</v>
+      </c>
+      <c r="S75">
+        <v>147555000</v>
+      </c>
+      <c r="T75">
+        <v>162934300</v>
+      </c>
+      <c r="U75">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V75">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W75">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X75">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y75">
+        <v>2723316</v>
+      </c>
+      <c r="Z75">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA75">
+        <v>275737.6</v>
+      </c>
+      <c r="AB75">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC75">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>-123538955900</v>
       </c>
+      <c r="Q76">
+        <v>2360186771600</v>
+      </c>
+      <c r="R76">
+        <v>2483725727500</v>
+      </c>
+      <c r="S76">
+        <v>150783100</v>
+      </c>
+      <c r="T76">
+        <v>165917800</v>
+      </c>
+      <c r="U76">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V76">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W76">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X76">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y76">
+        <v>2723316</v>
+      </c>
+      <c r="Z76">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA76">
+        <v>275737.6</v>
+      </c>
+      <c r="AB76">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC76">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>-142529244600</v>
       </c>
+      <c r="Q77">
+        <v>2389439714700</v>
+      </c>
+      <c r="R77">
+        <v>2531968959300</v>
+      </c>
+      <c r="S77">
+        <v>152435600</v>
+      </c>
+      <c r="T77">
+        <v>169179700</v>
+      </c>
+      <c r="U77">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V77">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W77">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X77">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y77">
+        <v>2723316</v>
+      </c>
+      <c r="Z77">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA77">
+        <v>275737.6</v>
+      </c>
+      <c r="AB77">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC77">
+        <v>5</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>-191663630200</v>
       </c>
+      <c r="Q78">
+        <v>2410787717700</v>
+      </c>
+      <c r="R78">
+        <v>2602451347900</v>
+      </c>
+      <c r="S78">
+        <v>153715400</v>
+      </c>
+      <c r="T78">
+        <v>173933000</v>
+      </c>
+      <c r="U78">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V78">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W78">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X78">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y78">
+        <v>2723316</v>
+      </c>
+      <c r="Z78">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA78">
+        <v>275737.6</v>
+      </c>
+      <c r="AB78">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC78">
+        <v>12.8</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>-212172549300</v>
       </c>
+      <c r="Q79">
+        <v>2450762958100</v>
+      </c>
+      <c r="R79">
+        <v>2662935507400</v>
+      </c>
+      <c r="S79">
+        <v>156020800</v>
+      </c>
+      <c r="T79">
+        <v>178651900</v>
+      </c>
+      <c r="U79">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V79">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W79">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X79">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y79">
+        <v>2723316</v>
+      </c>
+      <c r="Z79">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA79">
+        <v>275737.6</v>
+      </c>
+      <c r="AB79">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC79">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>-223640011100</v>
       </c>
+      <c r="Q80">
+        <v>2486271968900</v>
+      </c>
+      <c r="R80">
+        <v>2709911980000</v>
+      </c>
+      <c r="S80">
+        <v>158302000</v>
+      </c>
+      <c r="T80">
+        <v>182204100</v>
+      </c>
+      <c r="U80">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V80">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W80">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X80">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y80">
+        <v>2723316</v>
+      </c>
+      <c r="Z80">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA80">
+        <v>275737.6</v>
+      </c>
+      <c r="AB80">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC80">
+        <v>3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>-201360865000</v>
       </c>
+      <c r="Q81">
+        <v>2538278212100</v>
+      </c>
+      <c r="R81">
+        <v>2739639077100</v>
+      </c>
+      <c r="S81">
+        <v>161454900</v>
+      </c>
+      <c r="T81">
+        <v>184116200</v>
+      </c>
+      <c r="U81">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V81">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W81">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X81">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y81">
+        <v>2723316</v>
+      </c>
+      <c r="Z81">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA81">
+        <v>275737.6</v>
+      </c>
+      <c r="AB81">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC81">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>-173314085200</v>
       </c>
+      <c r="Q82">
+        <v>2594210469500</v>
+      </c>
+      <c r="R82">
+        <v>2767524554700</v>
+      </c>
+      <c r="S82">
+        <v>165131600</v>
+      </c>
+      <c r="T82">
+        <v>185678100</v>
+      </c>
+      <c r="U82">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V82">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W82">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X82">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y82">
+        <v>2723316</v>
+      </c>
+      <c r="Z82">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA82">
+        <v>275737.6</v>
+      </c>
+      <c r="AB82">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC82">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>-134679070400</v>
       </c>
+      <c r="Q83">
+        <v>2657033326300</v>
+      </c>
+      <c r="R83">
+        <v>2791712396700</v>
+      </c>
+      <c r="S83">
+        <v>169244000</v>
+      </c>
+      <c r="T83">
+        <v>187174600</v>
+      </c>
+      <c r="U83">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V83">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W83">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X83">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y83">
+        <v>2723316</v>
+      </c>
+      <c r="Z83">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA83">
+        <v>275737.6</v>
+      </c>
+      <c r="AB83">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC83">
+        <v>10.1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>-92643505600</v>
       </c>
+      <c r="Q84">
+        <v>2717965670400</v>
+      </c>
+      <c r="R84">
+        <v>2810609176000</v>
+      </c>
+      <c r="S84">
+        <v>173617600</v>
+      </c>
+      <c r="T84">
+        <v>188325000</v>
+      </c>
+      <c r="U84">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V84">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W84">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X84">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y84">
+        <v>2723316</v>
+      </c>
+      <c r="Z84">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA84">
+        <v>275737.6</v>
+      </c>
+      <c r="AB84">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC84">
+        <v>11</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>-57207920200</v>
       </c>
+      <c r="Q85">
+        <v>2780197323900</v>
+      </c>
+      <c r="R85">
+        <v>2837405244100</v>
+      </c>
+      <c r="S85">
+        <v>178298800</v>
+      </c>
+      <c r="T85">
+        <v>189935600</v>
+      </c>
+      <c r="U85">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V85">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W85">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X85">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y85">
+        <v>2723316</v>
+      </c>
+      <c r="Z85">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA85">
+        <v>275737.6</v>
+      </c>
+      <c r="AB85">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC85">
+        <v>9.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>9485010200</v>
       </c>
+      <c r="Q86">
+        <v>2865622030700</v>
+      </c>
+      <c r="R86">
+        <v>2856137020500</v>
+      </c>
+      <c r="S86">
+        <v>184178900</v>
+      </c>
+      <c r="T86">
+        <v>191412600</v>
+      </c>
+      <c r="U86">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V86">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W86">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X86">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y86">
+        <v>2723316</v>
+      </c>
+      <c r="Z86">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA86">
+        <v>275737.6</v>
+      </c>
+      <c r="AB86">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC86">
+        <v>17.4</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>98184650400</v>
       </c>
+      <c r="Q87">
+        <v>2975277581600</v>
+      </c>
+      <c r="R87">
+        <v>2877092931200</v>
+      </c>
+      <c r="S87">
+        <v>191289200</v>
+      </c>
+      <c r="T87">
+        <v>192554400</v>
+      </c>
+      <c r="U87">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V87">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W87">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X87">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y87">
+        <v>2723316</v>
+      </c>
+      <c r="Z87">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA87">
+        <v>275737.6</v>
+      </c>
+      <c r="AB87">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC87">
+        <v>23.2</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>148116602300</v>
       </c>
+      <c r="Q88">
+        <v>3062907454300</v>
+      </c>
+      <c r="R88">
+        <v>2914790852000</v>
+      </c>
+      <c r="S88">
+        <v>198367700</v>
+      </c>
+      <c r="T88">
+        <v>195089700</v>
+      </c>
+      <c r="U88">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V88">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W88">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X88">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y88">
+        <v>2723316</v>
+      </c>
+      <c r="Z88">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA88">
+        <v>275737.6</v>
+      </c>
+      <c r="AB88">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC88">
+        <v>13</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>206604217200</v>
       </c>
+      <c r="Q89">
+        <v>3169890756400</v>
+      </c>
+      <c r="R89">
+        <v>2963286539200</v>
+      </c>
+      <c r="S89">
+        <v>207679200</v>
+      </c>
+      <c r="T89">
+        <v>198844000</v>
+      </c>
+      <c r="U89">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V89">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W89">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X89">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y89">
+        <v>2723316</v>
+      </c>
+      <c r="Z89">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA89">
+        <v>275737.6</v>
+      </c>
+      <c r="AB89">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC89">
+        <v>15.3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>192463827200</v>
       </c>
+      <c r="Q90">
+        <v>3209161477900</v>
+      </c>
+      <c r="R90">
+        <v>3016697650700</v>
+      </c>
+      <c r="S90">
+        <v>210420800</v>
+      </c>
+      <c r="T90">
+        <v>202728600</v>
+      </c>
+      <c r="U90">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V90">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W90">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X90">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y90">
+        <v>2723316</v>
+      </c>
+      <c r="Z90">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA90">
+        <v>275737.6</v>
+      </c>
+      <c r="AB90">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC90">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>163692077800</v>
       </c>
+      <c r="Q91">
+        <v>3235172154500</v>
+      </c>
+      <c r="R91">
+        <v>3071480076700</v>
+      </c>
+      <c r="S91">
+        <v>212299300</v>
+      </c>
+      <c r="T91">
+        <v>206890900</v>
+      </c>
+      <c r="U91">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V91">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W91">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X91">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y91">
+        <v>2723316</v>
+      </c>
+      <c r="Z91">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA91">
+        <v>275737.6</v>
+      </c>
+      <c r="AB91">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC91">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>126344398100</v>
       </c>
+      <c r="Q92">
+        <v>3256038960800</v>
+      </c>
+      <c r="R92">
+        <v>3129694562700</v>
+      </c>
+      <c r="S92">
+        <v>213680800</v>
+      </c>
+      <c r="T92">
+        <v>210868200</v>
+      </c>
+      <c r="U92">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V92">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W92">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X92">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y92">
+        <v>2723316</v>
+      </c>
+      <c r="Z92">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA92">
+        <v>275737.6</v>
+      </c>
+      <c r="AB92">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC92">
+        <v>9.8</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>116590869600</v>
       </c>
+      <c r="Q93">
+        <v>3283636482600</v>
+      </c>
+      <c r="R93">
+        <v>3167045613000</v>
+      </c>
+      <c r="S93">
+        <v>215658100</v>
+      </c>
+      <c r="T93">
+        <v>213101000</v>
+      </c>
+      <c r="U93">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V93">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W93">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X93">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y93">
+        <v>2723316</v>
+      </c>
+      <c r="Z93">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA93">
+        <v>275737.6</v>
+      </c>
+      <c r="AB93">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC93">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>101682510000</v>
       </c>
+      <c r="Q94">
+        <v>3308366287200</v>
+      </c>
+      <c r="R94">
+        <v>3206683777200</v>
+      </c>
+      <c r="S94">
+        <v>217183800</v>
+      </c>
+      <c r="T94">
+        <v>215648500</v>
+      </c>
+      <c r="U94">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V94">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W94">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X94">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y94">
+        <v>2723316</v>
+      </c>
+      <c r="Z94">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA94">
+        <v>275737.6</v>
+      </c>
+      <c r="AB94">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC94">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>118866940500</v>
       </c>
+      <c r="Q95">
+        <v>3348885160300</v>
+      </c>
+      <c r="R95">
+        <v>3230018219800</v>
+      </c>
+      <c r="S95">
+        <v>219695400</v>
+      </c>
+      <c r="T95">
+        <v>217252100</v>
+      </c>
+      <c r="U95">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V95">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W95">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X95">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y95">
+        <v>2723316</v>
+      </c>
+      <c r="Z95">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA95">
+        <v>275737.6</v>
+      </c>
+      <c r="AB95">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC95">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>122471753400</v>
       </c>
+      <c r="Q96">
+        <v>3384062096600</v>
+      </c>
+      <c r="R96">
+        <v>3261590343200</v>
+      </c>
+      <c r="S96">
+        <v>221908900</v>
+      </c>
+      <c r="T96">
+        <v>219357800</v>
+      </c>
+      <c r="U96">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V96">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W96">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X96">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y96">
+        <v>2723316</v>
+      </c>
+      <c r="Z96">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA96">
+        <v>275737.6</v>
+      </c>
+      <c r="AB96">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC96">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>74891011000</v>
       </c>
+      <c r="Q97">
+        <v>3405580011400</v>
+      </c>
+      <c r="R97">
+        <v>3330689000400</v>
+      </c>
+      <c r="S97">
+        <v>223640500</v>
+      </c>
+      <c r="T97">
+        <v>223582800</v>
+      </c>
+      <c r="U97">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V97">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W97">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X97">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y97">
+        <v>2723316</v>
+      </c>
+      <c r="Z97">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA97">
+        <v>275737.6</v>
+      </c>
+      <c r="AB97">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC97">
+        <v>12.4</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>7674904800</v>
       </c>
+      <c r="Q98">
+        <v>3436932752100</v>
+      </c>
+      <c r="R98">
+        <v>3429257847300</v>
+      </c>
+      <c r="S98">
+        <v>225300600</v>
+      </c>
+      <c r="T98">
+        <v>229514100</v>
+      </c>
+      <c r="U98">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V98">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W98">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X98">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y98">
+        <v>2723316</v>
+      </c>
+      <c r="Z98">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA98">
+        <v>275737.6</v>
+      </c>
+      <c r="AB98">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC98">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>23375665300</v>
       </c>
+      <c r="Q99">
+        <v>3493649658600</v>
+      </c>
+      <c r="R99">
+        <v>3470273993300</v>
+      </c>
+      <c r="S99">
+        <v>228525000</v>
+      </c>
+      <c r="T99">
+        <v>232192100</v>
+      </c>
+      <c r="U99">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V99">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W99">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X99">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y99">
+        <v>2723316</v>
+      </c>
+      <c r="Z99">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA99">
+        <v>275737.6</v>
+      </c>
+      <c r="AB99">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC99">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>23270576600</v>
       </c>
+      <c r="Q100">
+        <v>3521261275900</v>
+      </c>
+      <c r="R100">
+        <v>3497990699300</v>
+      </c>
+      <c r="S100">
+        <v>230347700</v>
+      </c>
+      <c r="T100">
+        <v>233750200</v>
+      </c>
+      <c r="U100">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V100">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W100">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X100">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y100">
+        <v>2723316</v>
+      </c>
+      <c r="Z100">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA100">
+        <v>275737.6</v>
+      </c>
+      <c r="AB100">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC100">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>-6323323700</v>
       </c>
+      <c r="Q101">
+        <v>3549486089400</v>
+      </c>
+      <c r="R101">
+        <v>3555809413100</v>
+      </c>
+      <c r="S101">
+        <v>231776400</v>
+      </c>
+      <c r="T101">
+        <v>236776900</v>
+      </c>
+      <c r="U101">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V101">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W101">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X101">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y101">
+        <v>2723316</v>
+      </c>
+      <c r="Z101">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA101">
+        <v>275737.6</v>
+      </c>
+      <c r="AB101">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC101">
+        <v>7.7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>-5154723500</v>
       </c>
+      <c r="Q102">
+        <v>3588992352700</v>
+      </c>
+      <c r="R102">
+        <v>3594147076200</v>
+      </c>
+      <c r="S102">
+        <v>233938700</v>
+      </c>
+      <c r="T102">
+        <v>238992900</v>
+      </c>
+      <c r="U102">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V102">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W102">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X102">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y102">
+        <v>2723316</v>
+      </c>
+      <c r="Z102">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA102">
+        <v>275737.6</v>
+      </c>
+      <c r="AB102">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC102">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>-5574695100</v>
       </c>
+      <c r="Q103">
+        <v>3623516675900</v>
+      </c>
+      <c r="R103">
+        <v>3629091371000</v>
+      </c>
+      <c r="S103">
+        <v>235639200</v>
+      </c>
+      <c r="T103">
+        <v>240896700</v>
+      </c>
+      <c r="U103">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V103">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W103">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X103">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y103">
+        <v>2723316</v>
+      </c>
+      <c r="Z103">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA103">
+        <v>275737.6</v>
+      </c>
+      <c r="AB103">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC103">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>2887710900</v>
       </c>
+      <c r="Q104">
+        <v>3667596996900</v>
+      </c>
+      <c r="R104">
+        <v>3664709286000</v>
+      </c>
+      <c r="S104">
+        <v>238347300</v>
+      </c>
+      <c r="T104">
+        <v>242740400</v>
+      </c>
+      <c r="U104">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V104">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W104">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X104">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y104">
+        <v>2723316</v>
+      </c>
+      <c r="Z104">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA104">
+        <v>275737.6</v>
+      </c>
+      <c r="AB104">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC104">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>-35221370700</v>
       </c>
+      <c r="Q105">
+        <v>3704211828600</v>
+      </c>
+      <c r="R105">
+        <v>3739433199300</v>
+      </c>
+      <c r="S105">
+        <v>240294800</v>
+      </c>
+      <c r="T105">
+        <v>247339400</v>
+      </c>
+      <c r="U105">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V105">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W105">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X105">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y105">
+        <v>2723316</v>
+      </c>
+      <c r="Z105">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA105">
+        <v>275737.6</v>
+      </c>
+      <c r="AB105">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC105">
+        <v>10</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>-49096499100</v>
       </c>
+      <c r="Q106">
+        <v>3738136451400</v>
+      </c>
+      <c r="R106">
+        <v>3787232950500</v>
+      </c>
+      <c r="S106">
+        <v>242270100</v>
+      </c>
+      <c r="T106">
+        <v>250172600</v>
+      </c>
+      <c r="U106">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V106">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W106">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X106">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y106">
+        <v>2723316</v>
+      </c>
+      <c r="Z106">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA106">
+        <v>275737.6</v>
+      </c>
+      <c r="AB106">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC106">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>-120318303100</v>
       </c>
+      <c r="Q107">
+        <v>3772503182000</v>
+      </c>
+      <c r="R107">
+        <v>3892821485100</v>
+      </c>
+      <c r="S107">
+        <v>244664900</v>
+      </c>
+      <c r="T107">
+        <v>257295600</v>
+      </c>
+      <c r="U107">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V107">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W107">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X107">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y107">
+        <v>2723316</v>
+      </c>
+      <c r="Z107">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA107">
+        <v>275737.6</v>
+      </c>
+      <c r="AB107">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC107">
+        <v>18.6</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>-284811901100</v>
       </c>
+      <c r="Q108">
+        <v>3812911838000</v>
+      </c>
+      <c r="R108">
+        <v>4097723739100</v>
+      </c>
+      <c r="S108">
+        <v>247193900</v>
+      </c>
+      <c r="T108">
+        <v>271610000</v>
+      </c>
+      <c r="U108">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V108">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W108">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X108">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y108">
+        <v>2723316</v>
+      </c>
+      <c r="Z108">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA108">
+        <v>275737.6</v>
+      </c>
+      <c r="AB108">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC108">
+        <v>42.9</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>-341310867200</v>
       </c>
+      <c r="Q109">
+        <v>3880239664200</v>
+      </c>
+      <c r="R109">
+        <v>4221550531400</v>
+      </c>
+      <c r="S109">
+        <v>251164700</v>
+      </c>
+      <c r="T109">
+        <v>280611600</v>
+      </c>
+      <c r="U109">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V109">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W109">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X109">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y109">
+        <v>2723316</v>
+      </c>
+      <c r="Z109">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA109">
+        <v>275737.6</v>
+      </c>
+      <c r="AB109">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC109">
+        <v>14.8</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>-303518781300</v>
       </c>
+      <c r="Q110">
+        <v>3950602697700</v>
+      </c>
+      <c r="R110">
+        <v>4254121479000</v>
+      </c>
+      <c r="S110">
+        <v>255934800</v>
+      </c>
+      <c r="T110">
+        <v>282899200</v>
+      </c>
+      <c r="U110">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V110">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W110">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X110">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y110">
+        <v>2723316</v>
+      </c>
+      <c r="Z110">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA110">
+        <v>275737.6</v>
+      </c>
+      <c r="AB110">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC110">
+        <v>9.9</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>-241551977400</v>
       </c>
+      <c r="Q111">
+        <v>4036667907600</v>
+      </c>
+      <c r="R111">
+        <v>4278219885000</v>
+      </c>
+      <c r="S111">
+        <v>261373200</v>
+      </c>
+      <c r="T111">
+        <v>284563400</v>
+      </c>
+      <c r="U111">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V111">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W111">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X111">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y111">
+        <v>2723316</v>
+      </c>
+      <c r="Z111">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA111">
+        <v>275737.6</v>
+      </c>
+      <c r="AB111">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC111">
+        <v>16.2</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>-161385616100</v>
       </c>
+      <c r="Q112">
+        <v>4136626854500</v>
+      </c>
+      <c r="R112">
+        <v>4298012470600</v>
+      </c>
+      <c r="S112">
+        <v>267451800</v>
+      </c>
+      <c r="T112">
+        <v>285746400</v>
+      </c>
+      <c r="U112">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V112">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W112">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X112">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y112">
+        <v>2723316</v>
+      </c>
+      <c r="Z112">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA112">
+        <v>275737.6</v>
+      </c>
+      <c r="AB112">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC112">
+        <v>20.9</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>-46378831500</v>
       </c>
+      <c r="Q113">
+        <v>4281674219400</v>
+      </c>
+      <c r="R113">
+        <v>4328053050900</v>
+      </c>
+      <c r="S113">
+        <v>276047200</v>
+      </c>
+      <c r="T113">
+        <v>287616300</v>
+      </c>
+      <c r="U113">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V113">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W113">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X113">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y113">
+        <v>2723316</v>
+      </c>
+      <c r="Z113">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA113">
+        <v>275737.6</v>
+      </c>
+      <c r="AB113">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC113">
+        <v>30</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>93617124800</v>
       </c>
+      <c r="Q114">
+        <v>4459269981300</v>
+      </c>
+      <c r="R114">
+        <v>4365652856500</v>
+      </c>
+      <c r="S114">
+        <v>287756500</v>
+      </c>
+      <c r="T114">
+        <v>290037900</v>
+      </c>
+      <c r="U114">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V114">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W114">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X114">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y114">
+        <v>2723316</v>
+      </c>
+      <c r="Z114">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA114">
+        <v>275737.6</v>
+      </c>
+      <c r="AB114">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC114">
+        <v>36.6</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>199398360300</v>
       </c>
+      <c r="Q115">
+        <v>4611465647400</v>
+      </c>
+      <c r="R115">
+        <v>4412067287100</v>
+      </c>
+      <c r="S115">
+        <v>300498300</v>
+      </c>
+      <c r="T115">
+        <v>293358500</v>
+      </c>
+      <c r="U115">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V115">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W115">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X115">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y115">
+        <v>2723316</v>
+      </c>
+      <c r="Z115">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA115">
+        <v>275737.6</v>
+      </c>
+      <c r="AB115">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC115">
+        <v>27.6</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,6 +10686,45 @@
       <c r="P116">
         <v>334319941400</v>
       </c>
+      <c r="Q116">
+        <v>4794200530000</v>
+      </c>
+      <c r="R116">
+        <v>4459880588600</v>
+      </c>
+      <c r="S116">
+        <v>314239500</v>
+      </c>
+      <c r="T116">
+        <v>297382700</v>
+      </c>
+      <c r="U116">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V116">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W116">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X116">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y116">
+        <v>2723316</v>
+      </c>
+      <c r="Z116">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA116">
+        <v>275737.6</v>
+      </c>
+      <c r="AB116">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC116">
+        <v>35.2</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6251,6 +10775,45 @@
       <c r="P117">
         <v>439058677800</v>
       </c>
+      <c r="Q117">
+        <v>4948506626000</v>
+      </c>
+      <c r="R117">
+        <v>4509447948200</v>
+      </c>
+      <c r="S117">
+        <v>324559500</v>
+      </c>
+      <c r="T117">
+        <v>300748000</v>
+      </c>
+      <c r="U117">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V117">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W117">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X117">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y117">
+        <v>2723316</v>
+      </c>
+      <c r="Z117">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA117">
+        <v>275737.6</v>
+      </c>
+      <c r="AB117">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC117">
+        <v>27.3</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -6301,6 +10864,45 @@
       <c r="P118">
         <v>439483817100</v>
       </c>
+      <c r="Q118">
+        <v>4948944806300</v>
+      </c>
+      <c r="R118">
+        <v>4509460989200</v>
+      </c>
+      <c r="S118">
+        <v>324612800</v>
+      </c>
+      <c r="T118">
+        <v>300749100</v>
+      </c>
+      <c r="U118">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V118">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W118">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X118">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y118">
+        <v>2723316</v>
+      </c>
+      <c r="Z118">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA118">
+        <v>275737.6</v>
+      </c>
+      <c r="AB118">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC118">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -6351,6 +10953,45 @@
       <c r="P119">
         <v>439484837100</v>
       </c>
+      <c r="Q119">
+        <v>4948945826300</v>
+      </c>
+      <c r="R119">
+        <v>4509460989200</v>
+      </c>
+      <c r="S119">
+        <v>324612900</v>
+      </c>
+      <c r="T119">
+        <v>300749100</v>
+      </c>
+      <c r="U119">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V119">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W119">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X119">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y119">
+        <v>2723316</v>
+      </c>
+      <c r="Z119">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA119">
+        <v>275737.6</v>
+      </c>
+      <c r="AB119">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC119">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -6401,6 +11042,45 @@
       <c r="P120">
         <v>439489937100</v>
       </c>
+      <c r="Q120">
+        <v>4948950926300</v>
+      </c>
+      <c r="R120">
+        <v>4509460989200</v>
+      </c>
+      <c r="S120">
+        <v>324613400</v>
+      </c>
+      <c r="T120">
+        <v>300749100</v>
+      </c>
+      <c r="U120">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V120">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W120">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X120">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y120">
+        <v>2723316</v>
+      </c>
+      <c r="Z120">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA120">
+        <v>275737.6</v>
+      </c>
+      <c r="AB120">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC120">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -6451,6 +11131,45 @@
       <c r="P121">
         <v>478619393600</v>
       </c>
+      <c r="Q121">
+        <v>5125235165800</v>
+      </c>
+      <c r="R121">
+        <v>4646615772200</v>
+      </c>
+      <c r="S121">
+        <v>340400000</v>
+      </c>
+      <c r="T121">
+        <v>305945800</v>
+      </c>
+      <c r="U121">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V121">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W121">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X121">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y121">
+        <v>2723316</v>
+      </c>
+      <c r="Z121">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA121">
+        <v>275737.6</v>
+      </c>
+      <c r="AB121">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC121">
+        <v>10.2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122">
@@ -6501,6 +11220,45 @@
       <c r="P122">
         <v>478633533600</v>
       </c>
+      <c r="Q122">
+        <v>5125249305800</v>
+      </c>
+      <c r="R122">
+        <v>4646615772200</v>
+      </c>
+      <c r="S122">
+        <v>340401400</v>
+      </c>
+      <c r="T122">
+        <v>305945800</v>
+      </c>
+      <c r="U122">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V122">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W122">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X122">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y122">
+        <v>2723316</v>
+      </c>
+      <c r="Z122">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA122">
+        <v>275737.6</v>
+      </c>
+      <c r="AB122">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC122">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123">
@@ -6551,6 +11309,45 @@
       <c r="P123">
         <v>478659793600</v>
       </c>
+      <c r="Q123">
+        <v>5125275565800</v>
+      </c>
+      <c r="R123">
+        <v>4646615772200</v>
+      </c>
+      <c r="S123">
+        <v>340404000</v>
+      </c>
+      <c r="T123">
+        <v>305945800</v>
+      </c>
+      <c r="U123">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V123">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W123">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X123">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y123">
+        <v>2723316</v>
+      </c>
+      <c r="Z123">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA123">
+        <v>275737.6</v>
+      </c>
+      <c r="AB123">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC123">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124">
@@ -6601,6 +11398,45 @@
       <c r="P124">
         <v>478741293600</v>
       </c>
+      <c r="Q124">
+        <v>5125372365800</v>
+      </c>
+      <c r="R124">
+        <v>4646631072200</v>
+      </c>
+      <c r="S124">
+        <v>340413500</v>
+      </c>
+      <c r="T124">
+        <v>305947300</v>
+      </c>
+      <c r="U124">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V124">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W124">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X124">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y124">
+        <v>2723316</v>
+      </c>
+      <c r="Z124">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA124">
+        <v>275737.6</v>
+      </c>
+      <c r="AB124">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC124">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125">
@@ -6651,6 +11487,45 @@
       <c r="P125">
         <v>478751493600</v>
       </c>
+      <c r="Q125">
+        <v>5125382565800</v>
+      </c>
+      <c r="R125">
+        <v>4646631072200</v>
+      </c>
+      <c r="S125">
+        <v>340414500</v>
+      </c>
+      <c r="T125">
+        <v>305947300</v>
+      </c>
+      <c r="U125">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V125">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W125">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X125">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y125">
+        <v>2723316</v>
+      </c>
+      <c r="Z125">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA125">
+        <v>275737.6</v>
+      </c>
+      <c r="AB125">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC125">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126">
@@ -6701,10 +11576,49 @@
       <c r="P126">
         <v>478751493600</v>
       </c>
+      <c r="Q126">
+        <v>5125382565800</v>
+      </c>
+      <c r="R126">
+        <v>4646631072200</v>
+      </c>
+      <c r="S126">
+        <v>340414500</v>
+      </c>
+      <c r="T126">
+        <v>305947300</v>
+      </c>
+      <c r="U126">
+        <v>41003060526.4</v>
+      </c>
+      <c r="V126">
+        <v>37173048577.6</v>
+      </c>
+      <c r="W126">
+        <v>83054950056.8</v>
+      </c>
+      <c r="X126">
+        <v>5614291.2</v>
+      </c>
+      <c r="Y126">
+        <v>2723316</v>
+      </c>
+      <c r="Z126">
+        <v>2447578.4</v>
+      </c>
+      <c r="AA126">
+        <v>275737.6</v>
+      </c>
+      <c r="AB126">
+        <v>3830011948.8</v>
+      </c>
+      <c r="AC126">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P126"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC126"/>
   </ignoredErrors>
 </worksheet>
 </file>